--- a/DB/Tablas de aprendizaje de movimientos/Shellos (S) y Gastrodon (S).xlsx
+++ b/DB/Tablas de aprendizaje de movimientos/Shellos (S) y Gastrodon (S).xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\descargas\RETOCAR Tablas de movimientos - copia\Tablas de aprendizaje de movimientos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfax\Documents\Monsters Feudal Seishin\Guión y bases de datos\Bases para el sistema de combate\Tablas de aprendizaje de movimientos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Shellos" sheetId="1" r:id="rId1"/>
     <sheet name="Gastrodon" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Gastrodon!$A$2:$A$21</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Shellos!$A$2:$A$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Gastrodon!$A$2:$A$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Shellos!$A$2:$A$17</definedName>
     <definedName name="_xlnm.Extract" localSheetId="1">Gastrodon!#REF!</definedName>
     <definedName name="_xlnm.Extract" localSheetId="0">Shellos!#REF!</definedName>
   </definedNames>
@@ -96,13 +96,13 @@
     <t>Terratemblor</t>
   </si>
   <si>
+    <t>Acua aro</t>
+  </si>
+  <si>
     <t>Rayo hielo</t>
   </si>
   <si>
-    <t>Espacio raro</t>
-  </si>
-  <si>
-    <t>Acua aro</t>
+    <t>Pistola agua</t>
   </si>
 </sst>
 </file>
@@ -448,19 +448,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,7 +468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -476,7 +476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -484,7 +484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -492,15 +492,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -508,7 +508,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -516,7 +516,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -524,7 +524,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -532,7 +532,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -540,7 +540,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -548,7 +548,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -556,7 +556,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -564,62 +564,59 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B14" s="3"/>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -630,19 +627,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFC22"/>
+  <dimension ref="A1:XFC21"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -650,7 +647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -658,7 +655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -666,7 +663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -674,15 +671,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -690,7 +687,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -698,7 +695,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -706,7 +703,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -714,7 +711,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -722,7 +719,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -730,7 +727,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -738,7 +735,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -746,7 +743,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -8945,7 +8942,13 @@
       <c r="XFA14" s="3"/>
       <c r="XFC14" s="3"/>
     </row>
-    <row r="15" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="C15" s="3"/>
       <c r="E15" s="3"/>
       <c r="G15" s="3"/>
@@ -17138,9 +17141,9 @@
       <c r="XFA15" s="3"/>
       <c r="XFC15" s="3"/>
     </row>
-    <row r="16" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>16</v>
@@ -25337,8242 +25340,43 @@
       <c r="XFA16" s="3"/>
       <c r="XFC16" s="3"/>
     </row>
-    <row r="17" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AE17" s="3"/>
-      <c r="AG17" s="3"/>
-      <c r="AI17" s="3"/>
-      <c r="AK17" s="3"/>
-      <c r="AM17" s="3"/>
-      <c r="AO17" s="3"/>
-      <c r="AQ17" s="3"/>
-      <c r="AS17" s="3"/>
-      <c r="AU17" s="3"/>
-      <c r="AW17" s="3"/>
-      <c r="AY17" s="3"/>
-      <c r="BA17" s="3"/>
-      <c r="BC17" s="3"/>
-      <c r="BE17" s="3"/>
-      <c r="BG17" s="3"/>
-      <c r="BI17" s="3"/>
-      <c r="BK17" s="3"/>
-      <c r="BM17" s="3"/>
-      <c r="BO17" s="3"/>
-      <c r="BQ17" s="3"/>
-      <c r="BS17" s="3"/>
-      <c r="BU17" s="3"/>
-      <c r="BW17" s="3"/>
-      <c r="BY17" s="3"/>
-      <c r="CA17" s="3"/>
-      <c r="CC17" s="3"/>
-      <c r="CE17" s="3"/>
-      <c r="CG17" s="3"/>
-      <c r="CI17" s="3"/>
-      <c r="CK17" s="3"/>
-      <c r="CM17" s="3"/>
-      <c r="CO17" s="3"/>
-      <c r="CQ17" s="3"/>
-      <c r="CS17" s="3"/>
-      <c r="CU17" s="3"/>
-      <c r="CW17" s="3"/>
-      <c r="CY17" s="3"/>
-      <c r="DA17" s="3"/>
-      <c r="DC17" s="3"/>
-      <c r="DE17" s="3"/>
-      <c r="DG17" s="3"/>
-      <c r="DI17" s="3"/>
-      <c r="DK17" s="3"/>
-      <c r="DM17" s="3"/>
-      <c r="DO17" s="3"/>
-      <c r="DQ17" s="3"/>
-      <c r="DS17" s="3"/>
-      <c r="DU17" s="3"/>
-      <c r="DW17" s="3"/>
-      <c r="DY17" s="3"/>
-      <c r="EA17" s="3"/>
-      <c r="EC17" s="3"/>
-      <c r="EE17" s="3"/>
-      <c r="EG17" s="3"/>
-      <c r="EI17" s="3"/>
-      <c r="EK17" s="3"/>
-      <c r="EM17" s="3"/>
-      <c r="EO17" s="3"/>
-      <c r="EQ17" s="3"/>
-      <c r="ES17" s="3"/>
-      <c r="EU17" s="3"/>
-      <c r="EW17" s="3"/>
-      <c r="EY17" s="3"/>
-      <c r="FA17" s="3"/>
-      <c r="FC17" s="3"/>
-      <c r="FE17" s="3"/>
-      <c r="FG17" s="3"/>
-      <c r="FI17" s="3"/>
-      <c r="FK17" s="3"/>
-      <c r="FM17" s="3"/>
-      <c r="FO17" s="3"/>
-      <c r="FQ17" s="3"/>
-      <c r="FS17" s="3"/>
-      <c r="FU17" s="3"/>
-      <c r="FW17" s="3"/>
-      <c r="FY17" s="3"/>
-      <c r="GA17" s="3"/>
-      <c r="GC17" s="3"/>
-      <c r="GE17" s="3"/>
-      <c r="GG17" s="3"/>
-      <c r="GI17" s="3"/>
-      <c r="GK17" s="3"/>
-      <c r="GM17" s="3"/>
-      <c r="GO17" s="3"/>
-      <c r="GQ17" s="3"/>
-      <c r="GS17" s="3"/>
-      <c r="GU17" s="3"/>
-      <c r="GW17" s="3"/>
-      <c r="GY17" s="3"/>
-      <c r="HA17" s="3"/>
-      <c r="HC17" s="3"/>
-      <c r="HE17" s="3"/>
-      <c r="HG17" s="3"/>
-      <c r="HI17" s="3"/>
-      <c r="HK17" s="3"/>
-      <c r="HM17" s="3"/>
-      <c r="HO17" s="3"/>
-      <c r="HQ17" s="3"/>
-      <c r="HS17" s="3"/>
-      <c r="HU17" s="3"/>
-      <c r="HW17" s="3"/>
-      <c r="HY17" s="3"/>
-      <c r="IA17" s="3"/>
-      <c r="IC17" s="3"/>
-      <c r="IE17" s="3"/>
-      <c r="IG17" s="3"/>
-      <c r="II17" s="3"/>
-      <c r="IK17" s="3"/>
-      <c r="IM17" s="3"/>
-      <c r="IO17" s="3"/>
-      <c r="IQ17" s="3"/>
-      <c r="IS17" s="3"/>
-      <c r="IU17" s="3"/>
-      <c r="IW17" s="3"/>
-      <c r="IY17" s="3"/>
-      <c r="JA17" s="3"/>
-      <c r="JC17" s="3"/>
-      <c r="JE17" s="3"/>
-      <c r="JG17" s="3"/>
-      <c r="JI17" s="3"/>
-      <c r="JK17" s="3"/>
-      <c r="JM17" s="3"/>
-      <c r="JO17" s="3"/>
-      <c r="JQ17" s="3"/>
-      <c r="JS17" s="3"/>
-      <c r="JU17" s="3"/>
-      <c r="JW17" s="3"/>
-      <c r="JY17" s="3"/>
-      <c r="KA17" s="3"/>
-      <c r="KC17" s="3"/>
-      <c r="KE17" s="3"/>
-      <c r="KG17" s="3"/>
-      <c r="KI17" s="3"/>
-      <c r="KK17" s="3"/>
-      <c r="KM17" s="3"/>
-      <c r="KO17" s="3"/>
-      <c r="KQ17" s="3"/>
-      <c r="KS17" s="3"/>
-      <c r="KU17" s="3"/>
-      <c r="KW17" s="3"/>
-      <c r="KY17" s="3"/>
-      <c r="LA17" s="3"/>
-      <c r="LC17" s="3"/>
-      <c r="LE17" s="3"/>
-      <c r="LG17" s="3"/>
-      <c r="LI17" s="3"/>
-      <c r="LK17" s="3"/>
-      <c r="LM17" s="3"/>
-      <c r="LO17" s="3"/>
-      <c r="LQ17" s="3"/>
-      <c r="LS17" s="3"/>
-      <c r="LU17" s="3"/>
-      <c r="LW17" s="3"/>
-      <c r="LY17" s="3"/>
-      <c r="MA17" s="3"/>
-      <c r="MC17" s="3"/>
-      <c r="ME17" s="3"/>
-      <c r="MG17" s="3"/>
-      <c r="MI17" s="3"/>
-      <c r="MK17" s="3"/>
-      <c r="MM17" s="3"/>
-      <c r="MO17" s="3"/>
-      <c r="MQ17" s="3"/>
-      <c r="MS17" s="3"/>
-      <c r="MU17" s="3"/>
-      <c r="MW17" s="3"/>
-      <c r="MY17" s="3"/>
-      <c r="NA17" s="3"/>
-      <c r="NC17" s="3"/>
-      <c r="NE17" s="3"/>
-      <c r="NG17" s="3"/>
-      <c r="NI17" s="3"/>
-      <c r="NK17" s="3"/>
-      <c r="NM17" s="3"/>
-      <c r="NO17" s="3"/>
-      <c r="NQ17" s="3"/>
-      <c r="NS17" s="3"/>
-      <c r="NU17" s="3"/>
-      <c r="NW17" s="3"/>
-      <c r="NY17" s="3"/>
-      <c r="OA17" s="3"/>
-      <c r="OC17" s="3"/>
-      <c r="OE17" s="3"/>
-      <c r="OG17" s="3"/>
-      <c r="OI17" s="3"/>
-      <c r="OK17" s="3"/>
-      <c r="OM17" s="3"/>
-      <c r="OO17" s="3"/>
-      <c r="OQ17" s="3"/>
-      <c r="OS17" s="3"/>
-      <c r="OU17" s="3"/>
-      <c r="OW17" s="3"/>
-      <c r="OY17" s="3"/>
-      <c r="PA17" s="3"/>
-      <c r="PC17" s="3"/>
-      <c r="PE17" s="3"/>
-      <c r="PG17" s="3"/>
-      <c r="PI17" s="3"/>
-      <c r="PK17" s="3"/>
-      <c r="PM17" s="3"/>
-      <c r="PO17" s="3"/>
-      <c r="PQ17" s="3"/>
-      <c r="PS17" s="3"/>
-      <c r="PU17" s="3"/>
-      <c r="PW17" s="3"/>
-      <c r="PY17" s="3"/>
-      <c r="QA17" s="3"/>
-      <c r="QC17" s="3"/>
-      <c r="QE17" s="3"/>
-      <c r="QG17" s="3"/>
-      <c r="QI17" s="3"/>
-      <c r="QK17" s="3"/>
-      <c r="QM17" s="3"/>
-      <c r="QO17" s="3"/>
-      <c r="QQ17" s="3"/>
-      <c r="QS17" s="3"/>
-      <c r="QU17" s="3"/>
-      <c r="QW17" s="3"/>
-      <c r="QY17" s="3"/>
-      <c r="RA17" s="3"/>
-      <c r="RC17" s="3"/>
-      <c r="RE17" s="3"/>
-      <c r="RG17" s="3"/>
-      <c r="RI17" s="3"/>
-      <c r="RK17" s="3"/>
-      <c r="RM17" s="3"/>
-      <c r="RO17" s="3"/>
-      <c r="RQ17" s="3"/>
-      <c r="RS17" s="3"/>
-      <c r="RU17" s="3"/>
-      <c r="RW17" s="3"/>
-      <c r="RY17" s="3"/>
-      <c r="SA17" s="3"/>
-      <c r="SC17" s="3"/>
-      <c r="SE17" s="3"/>
-      <c r="SG17" s="3"/>
-      <c r="SI17" s="3"/>
-      <c r="SK17" s="3"/>
-      <c r="SM17" s="3"/>
-      <c r="SO17" s="3"/>
-      <c r="SQ17" s="3"/>
-      <c r="SS17" s="3"/>
-      <c r="SU17" s="3"/>
-      <c r="SW17" s="3"/>
-      <c r="SY17" s="3"/>
-      <c r="TA17" s="3"/>
-      <c r="TC17" s="3"/>
-      <c r="TE17" s="3"/>
-      <c r="TG17" s="3"/>
-      <c r="TI17" s="3"/>
-      <c r="TK17" s="3"/>
-      <c r="TM17" s="3"/>
-      <c r="TO17" s="3"/>
-      <c r="TQ17" s="3"/>
-      <c r="TS17" s="3"/>
-      <c r="TU17" s="3"/>
-      <c r="TW17" s="3"/>
-      <c r="TY17" s="3"/>
-      <c r="UA17" s="3"/>
-      <c r="UC17" s="3"/>
-      <c r="UE17" s="3"/>
-      <c r="UG17" s="3"/>
-      <c r="UI17" s="3"/>
-      <c r="UK17" s="3"/>
-      <c r="UM17" s="3"/>
-      <c r="UO17" s="3"/>
-      <c r="UQ17" s="3"/>
-      <c r="US17" s="3"/>
-      <c r="UU17" s="3"/>
-      <c r="UW17" s="3"/>
-      <c r="UY17" s="3"/>
-      <c r="VA17" s="3"/>
-      <c r="VC17" s="3"/>
-      <c r="VE17" s="3"/>
-      <c r="VG17" s="3"/>
-      <c r="VI17" s="3"/>
-      <c r="VK17" s="3"/>
-      <c r="VM17" s="3"/>
-      <c r="VO17" s="3"/>
-      <c r="VQ17" s="3"/>
-      <c r="VS17" s="3"/>
-      <c r="VU17" s="3"/>
-      <c r="VW17" s="3"/>
-      <c r="VY17" s="3"/>
-      <c r="WA17" s="3"/>
-      <c r="WC17" s="3"/>
-      <c r="WE17" s="3"/>
-      <c r="WG17" s="3"/>
-      <c r="WI17" s="3"/>
-      <c r="WK17" s="3"/>
-      <c r="WM17" s="3"/>
-      <c r="WO17" s="3"/>
-      <c r="WQ17" s="3"/>
-      <c r="WS17" s="3"/>
-      <c r="WU17" s="3"/>
-      <c r="WW17" s="3"/>
-      <c r="WY17" s="3"/>
-      <c r="XA17" s="3"/>
-      <c r="XC17" s="3"/>
-      <c r="XE17" s="3"/>
-      <c r="XG17" s="3"/>
-      <c r="XI17" s="3"/>
-      <c r="XK17" s="3"/>
-      <c r="XM17" s="3"/>
-      <c r="XO17" s="3"/>
-      <c r="XQ17" s="3"/>
-      <c r="XS17" s="3"/>
-      <c r="XU17" s="3"/>
-      <c r="XW17" s="3"/>
-      <c r="XY17" s="3"/>
-      <c r="YA17" s="3"/>
-      <c r="YC17" s="3"/>
-      <c r="YE17" s="3"/>
-      <c r="YG17" s="3"/>
-      <c r="YI17" s="3"/>
-      <c r="YK17" s="3"/>
-      <c r="YM17" s="3"/>
-      <c r="YO17" s="3"/>
-      <c r="YQ17" s="3"/>
-      <c r="YS17" s="3"/>
-      <c r="YU17" s="3"/>
-      <c r="YW17" s="3"/>
-      <c r="YY17" s="3"/>
-      <c r="ZA17" s="3"/>
-      <c r="ZC17" s="3"/>
-      <c r="ZE17" s="3"/>
-      <c r="ZG17" s="3"/>
-      <c r="ZI17" s="3"/>
-      <c r="ZK17" s="3"/>
-      <c r="ZM17" s="3"/>
-      <c r="ZO17" s="3"/>
-      <c r="ZQ17" s="3"/>
-      <c r="ZS17" s="3"/>
-      <c r="ZU17" s="3"/>
-      <c r="ZW17" s="3"/>
-      <c r="ZY17" s="3"/>
-      <c r="AAA17" s="3"/>
-      <c r="AAC17" s="3"/>
-      <c r="AAE17" s="3"/>
-      <c r="AAG17" s="3"/>
-      <c r="AAI17" s="3"/>
-      <c r="AAK17" s="3"/>
-      <c r="AAM17" s="3"/>
-      <c r="AAO17" s="3"/>
-      <c r="AAQ17" s="3"/>
-      <c r="AAS17" s="3"/>
-      <c r="AAU17" s="3"/>
-      <c r="AAW17" s="3"/>
-      <c r="AAY17" s="3"/>
-      <c r="ABA17" s="3"/>
-      <c r="ABC17" s="3"/>
-      <c r="ABE17" s="3"/>
-      <c r="ABG17" s="3"/>
-      <c r="ABI17" s="3"/>
-      <c r="ABK17" s="3"/>
-      <c r="ABM17" s="3"/>
-      <c r="ABO17" s="3"/>
-      <c r="ABQ17" s="3"/>
-      <c r="ABS17" s="3"/>
-      <c r="ABU17" s="3"/>
-      <c r="ABW17" s="3"/>
-      <c r="ABY17" s="3"/>
-      <c r="ACA17" s="3"/>
-      <c r="ACC17" s="3"/>
-      <c r="ACE17" s="3"/>
-      <c r="ACG17" s="3"/>
-      <c r="ACI17" s="3"/>
-      <c r="ACK17" s="3"/>
-      <c r="ACM17" s="3"/>
-      <c r="ACO17" s="3"/>
-      <c r="ACQ17" s="3"/>
-      <c r="ACS17" s="3"/>
-      <c r="ACU17" s="3"/>
-      <c r="ACW17" s="3"/>
-      <c r="ACY17" s="3"/>
-      <c r="ADA17" s="3"/>
-      <c r="ADC17" s="3"/>
-      <c r="ADE17" s="3"/>
-      <c r="ADG17" s="3"/>
-      <c r="ADI17" s="3"/>
-      <c r="ADK17" s="3"/>
-      <c r="ADM17" s="3"/>
-      <c r="ADO17" s="3"/>
-      <c r="ADQ17" s="3"/>
-      <c r="ADS17" s="3"/>
-      <c r="ADU17" s="3"/>
-      <c r="ADW17" s="3"/>
-      <c r="ADY17" s="3"/>
-      <c r="AEA17" s="3"/>
-      <c r="AEC17" s="3"/>
-      <c r="AEE17" s="3"/>
-      <c r="AEG17" s="3"/>
-      <c r="AEI17" s="3"/>
-      <c r="AEK17" s="3"/>
-      <c r="AEM17" s="3"/>
-      <c r="AEO17" s="3"/>
-      <c r="AEQ17" s="3"/>
-      <c r="AES17" s="3"/>
-      <c r="AEU17" s="3"/>
-      <c r="AEW17" s="3"/>
-      <c r="AEY17" s="3"/>
-      <c r="AFA17" s="3"/>
-      <c r="AFC17" s="3"/>
-      <c r="AFE17" s="3"/>
-      <c r="AFG17" s="3"/>
-      <c r="AFI17" s="3"/>
-      <c r="AFK17" s="3"/>
-      <c r="AFM17" s="3"/>
-      <c r="AFO17" s="3"/>
-      <c r="AFQ17" s="3"/>
-      <c r="AFS17" s="3"/>
-      <c r="AFU17" s="3"/>
-      <c r="AFW17" s="3"/>
-      <c r="AFY17" s="3"/>
-      <c r="AGA17" s="3"/>
-      <c r="AGC17" s="3"/>
-      <c r="AGE17" s="3"/>
-      <c r="AGG17" s="3"/>
-      <c r="AGI17" s="3"/>
-      <c r="AGK17" s="3"/>
-      <c r="AGM17" s="3"/>
-      <c r="AGO17" s="3"/>
-      <c r="AGQ17" s="3"/>
-      <c r="AGS17" s="3"/>
-      <c r="AGU17" s="3"/>
-      <c r="AGW17" s="3"/>
-      <c r="AGY17" s="3"/>
-      <c r="AHA17" s="3"/>
-      <c r="AHC17" s="3"/>
-      <c r="AHE17" s="3"/>
-      <c r="AHG17" s="3"/>
-      <c r="AHI17" s="3"/>
-      <c r="AHK17" s="3"/>
-      <c r="AHM17" s="3"/>
-      <c r="AHO17" s="3"/>
-      <c r="AHQ17" s="3"/>
-      <c r="AHS17" s="3"/>
-      <c r="AHU17" s="3"/>
-      <c r="AHW17" s="3"/>
-      <c r="AHY17" s="3"/>
-      <c r="AIA17" s="3"/>
-      <c r="AIC17" s="3"/>
-      <c r="AIE17" s="3"/>
-      <c r="AIG17" s="3"/>
-      <c r="AII17" s="3"/>
-      <c r="AIK17" s="3"/>
-      <c r="AIM17" s="3"/>
-      <c r="AIO17" s="3"/>
-      <c r="AIQ17" s="3"/>
-      <c r="AIS17" s="3"/>
-      <c r="AIU17" s="3"/>
-      <c r="AIW17" s="3"/>
-      <c r="AIY17" s="3"/>
-      <c r="AJA17" s="3"/>
-      <c r="AJC17" s="3"/>
-      <c r="AJE17" s="3"/>
-      <c r="AJG17" s="3"/>
-      <c r="AJI17" s="3"/>
-      <c r="AJK17" s="3"/>
-      <c r="AJM17" s="3"/>
-      <c r="AJO17" s="3"/>
-      <c r="AJQ17" s="3"/>
-      <c r="AJS17" s="3"/>
-      <c r="AJU17" s="3"/>
-      <c r="AJW17" s="3"/>
-      <c r="AJY17" s="3"/>
-      <c r="AKA17" s="3"/>
-      <c r="AKC17" s="3"/>
-      <c r="AKE17" s="3"/>
-      <c r="AKG17" s="3"/>
-      <c r="AKI17" s="3"/>
-      <c r="AKK17" s="3"/>
-      <c r="AKM17" s="3"/>
-      <c r="AKO17" s="3"/>
-      <c r="AKQ17" s="3"/>
-      <c r="AKS17" s="3"/>
-      <c r="AKU17" s="3"/>
-      <c r="AKW17" s="3"/>
-      <c r="AKY17" s="3"/>
-      <c r="ALA17" s="3"/>
-      <c r="ALC17" s="3"/>
-      <c r="ALE17" s="3"/>
-      <c r="ALG17" s="3"/>
-      <c r="ALI17" s="3"/>
-      <c r="ALK17" s="3"/>
-      <c r="ALM17" s="3"/>
-      <c r="ALO17" s="3"/>
-      <c r="ALQ17" s="3"/>
-      <c r="ALS17" s="3"/>
-      <c r="ALU17" s="3"/>
-      <c r="ALW17" s="3"/>
-      <c r="ALY17" s="3"/>
-      <c r="AMA17" s="3"/>
-      <c r="AMC17" s="3"/>
-      <c r="AME17" s="3"/>
-      <c r="AMG17" s="3"/>
-      <c r="AMI17" s="3"/>
-      <c r="AMK17" s="3"/>
-      <c r="AMM17" s="3"/>
-      <c r="AMO17" s="3"/>
-      <c r="AMQ17" s="3"/>
-      <c r="AMS17" s="3"/>
-      <c r="AMU17" s="3"/>
-      <c r="AMW17" s="3"/>
-      <c r="AMY17" s="3"/>
-      <c r="ANA17" s="3"/>
-      <c r="ANC17" s="3"/>
-      <c r="ANE17" s="3"/>
-      <c r="ANG17" s="3"/>
-      <c r="ANI17" s="3"/>
-      <c r="ANK17" s="3"/>
-      <c r="ANM17" s="3"/>
-      <c r="ANO17" s="3"/>
-      <c r="ANQ17" s="3"/>
-      <c r="ANS17" s="3"/>
-      <c r="ANU17" s="3"/>
-      <c r="ANW17" s="3"/>
-      <c r="ANY17" s="3"/>
-      <c r="AOA17" s="3"/>
-      <c r="AOC17" s="3"/>
-      <c r="AOE17" s="3"/>
-      <c r="AOG17" s="3"/>
-      <c r="AOI17" s="3"/>
-      <c r="AOK17" s="3"/>
-      <c r="AOM17" s="3"/>
-      <c r="AOO17" s="3"/>
-      <c r="AOQ17" s="3"/>
-      <c r="AOS17" s="3"/>
-      <c r="AOU17" s="3"/>
-      <c r="AOW17" s="3"/>
-      <c r="AOY17" s="3"/>
-      <c r="APA17" s="3"/>
-      <c r="APC17" s="3"/>
-      <c r="APE17" s="3"/>
-      <c r="APG17" s="3"/>
-      <c r="API17" s="3"/>
-      <c r="APK17" s="3"/>
-      <c r="APM17" s="3"/>
-      <c r="APO17" s="3"/>
-      <c r="APQ17" s="3"/>
-      <c r="APS17" s="3"/>
-      <c r="APU17" s="3"/>
-      <c r="APW17" s="3"/>
-      <c r="APY17" s="3"/>
-      <c r="AQA17" s="3"/>
-      <c r="AQC17" s="3"/>
-      <c r="AQE17" s="3"/>
-      <c r="AQG17" s="3"/>
-      <c r="AQI17" s="3"/>
-      <c r="AQK17" s="3"/>
-      <c r="AQM17" s="3"/>
-      <c r="AQO17" s="3"/>
-      <c r="AQQ17" s="3"/>
-      <c r="AQS17" s="3"/>
-      <c r="AQU17" s="3"/>
-      <c r="AQW17" s="3"/>
-      <c r="AQY17" s="3"/>
-      <c r="ARA17" s="3"/>
-      <c r="ARC17" s="3"/>
-      <c r="ARE17" s="3"/>
-      <c r="ARG17" s="3"/>
-      <c r="ARI17" s="3"/>
-      <c r="ARK17" s="3"/>
-      <c r="ARM17" s="3"/>
-      <c r="ARO17" s="3"/>
-      <c r="ARQ17" s="3"/>
-      <c r="ARS17" s="3"/>
-      <c r="ARU17" s="3"/>
-      <c r="ARW17" s="3"/>
-      <c r="ARY17" s="3"/>
-      <c r="ASA17" s="3"/>
-      <c r="ASC17" s="3"/>
-      <c r="ASE17" s="3"/>
-      <c r="ASG17" s="3"/>
-      <c r="ASI17" s="3"/>
-      <c r="ASK17" s="3"/>
-      <c r="ASM17" s="3"/>
-      <c r="ASO17" s="3"/>
-      <c r="ASQ17" s="3"/>
-      <c r="ASS17" s="3"/>
-      <c r="ASU17" s="3"/>
-      <c r="ASW17" s="3"/>
-      <c r="ASY17" s="3"/>
-      <c r="ATA17" s="3"/>
-      <c r="ATC17" s="3"/>
-      <c r="ATE17" s="3"/>
-      <c r="ATG17" s="3"/>
-      <c r="ATI17" s="3"/>
-      <c r="ATK17" s="3"/>
-      <c r="ATM17" s="3"/>
-      <c r="ATO17" s="3"/>
-      <c r="ATQ17" s="3"/>
-      <c r="ATS17" s="3"/>
-      <c r="ATU17" s="3"/>
-      <c r="ATW17" s="3"/>
-      <c r="ATY17" s="3"/>
-      <c r="AUA17" s="3"/>
-      <c r="AUC17" s="3"/>
-      <c r="AUE17" s="3"/>
-      <c r="AUG17" s="3"/>
-      <c r="AUI17" s="3"/>
-      <c r="AUK17" s="3"/>
-      <c r="AUM17" s="3"/>
-      <c r="AUO17" s="3"/>
-      <c r="AUQ17" s="3"/>
-      <c r="AUS17" s="3"/>
-      <c r="AUU17" s="3"/>
-      <c r="AUW17" s="3"/>
-      <c r="AUY17" s="3"/>
-      <c r="AVA17" s="3"/>
-      <c r="AVC17" s="3"/>
-      <c r="AVE17" s="3"/>
-      <c r="AVG17" s="3"/>
-      <c r="AVI17" s="3"/>
-      <c r="AVK17" s="3"/>
-      <c r="AVM17" s="3"/>
-      <c r="AVO17" s="3"/>
-      <c r="AVQ17" s="3"/>
-      <c r="AVS17" s="3"/>
-      <c r="AVU17" s="3"/>
-      <c r="AVW17" s="3"/>
-      <c r="AVY17" s="3"/>
-      <c r="AWA17" s="3"/>
-      <c r="AWC17" s="3"/>
-      <c r="AWE17" s="3"/>
-      <c r="AWG17" s="3"/>
-      <c r="AWI17" s="3"/>
-      <c r="AWK17" s="3"/>
-      <c r="AWM17" s="3"/>
-      <c r="AWO17" s="3"/>
-      <c r="AWQ17" s="3"/>
-      <c r="AWS17" s="3"/>
-      <c r="AWU17" s="3"/>
-      <c r="AWW17" s="3"/>
-      <c r="AWY17" s="3"/>
-      <c r="AXA17" s="3"/>
-      <c r="AXC17" s="3"/>
-      <c r="AXE17" s="3"/>
-      <c r="AXG17" s="3"/>
-      <c r="AXI17" s="3"/>
-      <c r="AXK17" s="3"/>
-      <c r="AXM17" s="3"/>
-      <c r="AXO17" s="3"/>
-      <c r="AXQ17" s="3"/>
-      <c r="AXS17" s="3"/>
-      <c r="AXU17" s="3"/>
-      <c r="AXW17" s="3"/>
-      <c r="AXY17" s="3"/>
-      <c r="AYA17" s="3"/>
-      <c r="AYC17" s="3"/>
-      <c r="AYE17" s="3"/>
-      <c r="AYG17" s="3"/>
-      <c r="AYI17" s="3"/>
-      <c r="AYK17" s="3"/>
-      <c r="AYM17" s="3"/>
-      <c r="AYO17" s="3"/>
-      <c r="AYQ17" s="3"/>
-      <c r="AYS17" s="3"/>
-      <c r="AYU17" s="3"/>
-      <c r="AYW17" s="3"/>
-      <c r="AYY17" s="3"/>
-      <c r="AZA17" s="3"/>
-      <c r="AZC17" s="3"/>
-      <c r="AZE17" s="3"/>
-      <c r="AZG17" s="3"/>
-      <c r="AZI17" s="3"/>
-      <c r="AZK17" s="3"/>
-      <c r="AZM17" s="3"/>
-      <c r="AZO17" s="3"/>
-      <c r="AZQ17" s="3"/>
-      <c r="AZS17" s="3"/>
-      <c r="AZU17" s="3"/>
-      <c r="AZW17" s="3"/>
-      <c r="AZY17" s="3"/>
-      <c r="BAA17" s="3"/>
-      <c r="BAC17" s="3"/>
-      <c r="BAE17" s="3"/>
-      <c r="BAG17" s="3"/>
-      <c r="BAI17" s="3"/>
-      <c r="BAK17" s="3"/>
-      <c r="BAM17" s="3"/>
-      <c r="BAO17" s="3"/>
-      <c r="BAQ17" s="3"/>
-      <c r="BAS17" s="3"/>
-      <c r="BAU17" s="3"/>
-      <c r="BAW17" s="3"/>
-      <c r="BAY17" s="3"/>
-      <c r="BBA17" s="3"/>
-      <c r="BBC17" s="3"/>
-      <c r="BBE17" s="3"/>
-      <c r="BBG17" s="3"/>
-      <c r="BBI17" s="3"/>
-      <c r="BBK17" s="3"/>
-      <c r="BBM17" s="3"/>
-      <c r="BBO17" s="3"/>
-      <c r="BBQ17" s="3"/>
-      <c r="BBS17" s="3"/>
-      <c r="BBU17" s="3"/>
-      <c r="BBW17" s="3"/>
-      <c r="BBY17" s="3"/>
-      <c r="BCA17" s="3"/>
-      <c r="BCC17" s="3"/>
-      <c r="BCE17" s="3"/>
-      <c r="BCG17" s="3"/>
-      <c r="BCI17" s="3"/>
-      <c r="BCK17" s="3"/>
-      <c r="BCM17" s="3"/>
-      <c r="BCO17" s="3"/>
-      <c r="BCQ17" s="3"/>
-      <c r="BCS17" s="3"/>
-      <c r="BCU17" s="3"/>
-      <c r="BCW17" s="3"/>
-      <c r="BCY17" s="3"/>
-      <c r="BDA17" s="3"/>
-      <c r="BDC17" s="3"/>
-      <c r="BDE17" s="3"/>
-      <c r="BDG17" s="3"/>
-      <c r="BDI17" s="3"/>
-      <c r="BDK17" s="3"/>
-      <c r="BDM17" s="3"/>
-      <c r="BDO17" s="3"/>
-      <c r="BDQ17" s="3"/>
-      <c r="BDS17" s="3"/>
-      <c r="BDU17" s="3"/>
-      <c r="BDW17" s="3"/>
-      <c r="BDY17" s="3"/>
-      <c r="BEA17" s="3"/>
-      <c r="BEC17" s="3"/>
-      <c r="BEE17" s="3"/>
-      <c r="BEG17" s="3"/>
-      <c r="BEI17" s="3"/>
-      <c r="BEK17" s="3"/>
-      <c r="BEM17" s="3"/>
-      <c r="BEO17" s="3"/>
-      <c r="BEQ17" s="3"/>
-      <c r="BES17" s="3"/>
-      <c r="BEU17" s="3"/>
-      <c r="BEW17" s="3"/>
-      <c r="BEY17" s="3"/>
-      <c r="BFA17" s="3"/>
-      <c r="BFC17" s="3"/>
-      <c r="BFE17" s="3"/>
-      <c r="BFG17" s="3"/>
-      <c r="BFI17" s="3"/>
-      <c r="BFK17" s="3"/>
-      <c r="BFM17" s="3"/>
-      <c r="BFO17" s="3"/>
-      <c r="BFQ17" s="3"/>
-      <c r="BFS17" s="3"/>
-      <c r="BFU17" s="3"/>
-      <c r="BFW17" s="3"/>
-      <c r="BFY17" s="3"/>
-      <c r="BGA17" s="3"/>
-      <c r="BGC17" s="3"/>
-      <c r="BGE17" s="3"/>
-      <c r="BGG17" s="3"/>
-      <c r="BGI17" s="3"/>
-      <c r="BGK17" s="3"/>
-      <c r="BGM17" s="3"/>
-      <c r="BGO17" s="3"/>
-      <c r="BGQ17" s="3"/>
-      <c r="BGS17" s="3"/>
-      <c r="BGU17" s="3"/>
-      <c r="BGW17" s="3"/>
-      <c r="BGY17" s="3"/>
-      <c r="BHA17" s="3"/>
-      <c r="BHC17" s="3"/>
-      <c r="BHE17" s="3"/>
-      <c r="BHG17" s="3"/>
-      <c r="BHI17" s="3"/>
-      <c r="BHK17" s="3"/>
-      <c r="BHM17" s="3"/>
-      <c r="BHO17" s="3"/>
-      <c r="BHQ17" s="3"/>
-      <c r="BHS17" s="3"/>
-      <c r="BHU17" s="3"/>
-      <c r="BHW17" s="3"/>
-      <c r="BHY17" s="3"/>
-      <c r="BIA17" s="3"/>
-      <c r="BIC17" s="3"/>
-      <c r="BIE17" s="3"/>
-      <c r="BIG17" s="3"/>
-      <c r="BII17" s="3"/>
-      <c r="BIK17" s="3"/>
-      <c r="BIM17" s="3"/>
-      <c r="BIO17" s="3"/>
-      <c r="BIQ17" s="3"/>
-      <c r="BIS17" s="3"/>
-      <c r="BIU17" s="3"/>
-      <c r="BIW17" s="3"/>
-      <c r="BIY17" s="3"/>
-      <c r="BJA17" s="3"/>
-      <c r="BJC17" s="3"/>
-      <c r="BJE17" s="3"/>
-      <c r="BJG17" s="3"/>
-      <c r="BJI17" s="3"/>
-      <c r="BJK17" s="3"/>
-      <c r="BJM17" s="3"/>
-      <c r="BJO17" s="3"/>
-      <c r="BJQ17" s="3"/>
-      <c r="BJS17" s="3"/>
-      <c r="BJU17" s="3"/>
-      <c r="BJW17" s="3"/>
-      <c r="BJY17" s="3"/>
-      <c r="BKA17" s="3"/>
-      <c r="BKC17" s="3"/>
-      <c r="BKE17" s="3"/>
-      <c r="BKG17" s="3"/>
-      <c r="BKI17" s="3"/>
-      <c r="BKK17" s="3"/>
-      <c r="BKM17" s="3"/>
-      <c r="BKO17" s="3"/>
-      <c r="BKQ17" s="3"/>
-      <c r="BKS17" s="3"/>
-      <c r="BKU17" s="3"/>
-      <c r="BKW17" s="3"/>
-      <c r="BKY17" s="3"/>
-      <c r="BLA17" s="3"/>
-      <c r="BLC17" s="3"/>
-      <c r="BLE17" s="3"/>
-      <c r="BLG17" s="3"/>
-      <c r="BLI17" s="3"/>
-      <c r="BLK17" s="3"/>
-      <c r="BLM17" s="3"/>
-      <c r="BLO17" s="3"/>
-      <c r="BLQ17" s="3"/>
-      <c r="BLS17" s="3"/>
-      <c r="BLU17" s="3"/>
-      <c r="BLW17" s="3"/>
-      <c r="BLY17" s="3"/>
-      <c r="BMA17" s="3"/>
-      <c r="BMC17" s="3"/>
-      <c r="BME17" s="3"/>
-      <c r="BMG17" s="3"/>
-      <c r="BMI17" s="3"/>
-      <c r="BMK17" s="3"/>
-      <c r="BMM17" s="3"/>
-      <c r="BMO17" s="3"/>
-      <c r="BMQ17" s="3"/>
-      <c r="BMS17" s="3"/>
-      <c r="BMU17" s="3"/>
-      <c r="BMW17" s="3"/>
-      <c r="BMY17" s="3"/>
-      <c r="BNA17" s="3"/>
-      <c r="BNC17" s="3"/>
-      <c r="BNE17" s="3"/>
-      <c r="BNG17" s="3"/>
-      <c r="BNI17" s="3"/>
-      <c r="BNK17" s="3"/>
-      <c r="BNM17" s="3"/>
-      <c r="BNO17" s="3"/>
-      <c r="BNQ17" s="3"/>
-      <c r="BNS17" s="3"/>
-      <c r="BNU17" s="3"/>
-      <c r="BNW17" s="3"/>
-      <c r="BNY17" s="3"/>
-      <c r="BOA17" s="3"/>
-      <c r="BOC17" s="3"/>
-      <c r="BOE17" s="3"/>
-      <c r="BOG17" s="3"/>
-      <c r="BOI17" s="3"/>
-      <c r="BOK17" s="3"/>
-      <c r="BOM17" s="3"/>
-      <c r="BOO17" s="3"/>
-      <c r="BOQ17" s="3"/>
-      <c r="BOS17" s="3"/>
-      <c r="BOU17" s="3"/>
-      <c r="BOW17" s="3"/>
-      <c r="BOY17" s="3"/>
-      <c r="BPA17" s="3"/>
-      <c r="BPC17" s="3"/>
-      <c r="BPE17" s="3"/>
-      <c r="BPG17" s="3"/>
-      <c r="BPI17" s="3"/>
-      <c r="BPK17" s="3"/>
-      <c r="BPM17" s="3"/>
-      <c r="BPO17" s="3"/>
-      <c r="BPQ17" s="3"/>
-      <c r="BPS17" s="3"/>
-      <c r="BPU17" s="3"/>
-      <c r="BPW17" s="3"/>
-      <c r="BPY17" s="3"/>
-      <c r="BQA17" s="3"/>
-      <c r="BQC17" s="3"/>
-      <c r="BQE17" s="3"/>
-      <c r="BQG17" s="3"/>
-      <c r="BQI17" s="3"/>
-      <c r="BQK17" s="3"/>
-      <c r="BQM17" s="3"/>
-      <c r="BQO17" s="3"/>
-      <c r="BQQ17" s="3"/>
-      <c r="BQS17" s="3"/>
-      <c r="BQU17" s="3"/>
-      <c r="BQW17" s="3"/>
-      <c r="BQY17" s="3"/>
-      <c r="BRA17" s="3"/>
-      <c r="BRC17" s="3"/>
-      <c r="BRE17" s="3"/>
-      <c r="BRG17" s="3"/>
-      <c r="BRI17" s="3"/>
-      <c r="BRK17" s="3"/>
-      <c r="BRM17" s="3"/>
-      <c r="BRO17" s="3"/>
-      <c r="BRQ17" s="3"/>
-      <c r="BRS17" s="3"/>
-      <c r="BRU17" s="3"/>
-      <c r="BRW17" s="3"/>
-      <c r="BRY17" s="3"/>
-      <c r="BSA17" s="3"/>
-      <c r="BSC17" s="3"/>
-      <c r="BSE17" s="3"/>
-      <c r="BSG17" s="3"/>
-      <c r="BSI17" s="3"/>
-      <c r="BSK17" s="3"/>
-      <c r="BSM17" s="3"/>
-      <c r="BSO17" s="3"/>
-      <c r="BSQ17" s="3"/>
-      <c r="BSS17" s="3"/>
-      <c r="BSU17" s="3"/>
-      <c r="BSW17" s="3"/>
-      <c r="BSY17" s="3"/>
-      <c r="BTA17" s="3"/>
-      <c r="BTC17" s="3"/>
-      <c r="BTE17" s="3"/>
-      <c r="BTG17" s="3"/>
-      <c r="BTI17" s="3"/>
-      <c r="BTK17" s="3"/>
-      <c r="BTM17" s="3"/>
-      <c r="BTO17" s="3"/>
-      <c r="BTQ17" s="3"/>
-      <c r="BTS17" s="3"/>
-      <c r="BTU17" s="3"/>
-      <c r="BTW17" s="3"/>
-      <c r="BTY17" s="3"/>
-      <c r="BUA17" s="3"/>
-      <c r="BUC17" s="3"/>
-      <c r="BUE17" s="3"/>
-      <c r="BUG17" s="3"/>
-      <c r="BUI17" s="3"/>
-      <c r="BUK17" s="3"/>
-      <c r="BUM17" s="3"/>
-      <c r="BUO17" s="3"/>
-      <c r="BUQ17" s="3"/>
-      <c r="BUS17" s="3"/>
-      <c r="BUU17" s="3"/>
-      <c r="BUW17" s="3"/>
-      <c r="BUY17" s="3"/>
-      <c r="BVA17" s="3"/>
-      <c r="BVC17" s="3"/>
-      <c r="BVE17" s="3"/>
-      <c r="BVG17" s="3"/>
-      <c r="BVI17" s="3"/>
-      <c r="BVK17" s="3"/>
-      <c r="BVM17" s="3"/>
-      <c r="BVO17" s="3"/>
-      <c r="BVQ17" s="3"/>
-      <c r="BVS17" s="3"/>
-      <c r="BVU17" s="3"/>
-      <c r="BVW17" s="3"/>
-      <c r="BVY17" s="3"/>
-      <c r="BWA17" s="3"/>
-      <c r="BWC17" s="3"/>
-      <c r="BWE17" s="3"/>
-      <c r="BWG17" s="3"/>
-      <c r="BWI17" s="3"/>
-      <c r="BWK17" s="3"/>
-      <c r="BWM17" s="3"/>
-      <c r="BWO17" s="3"/>
-      <c r="BWQ17" s="3"/>
-      <c r="BWS17" s="3"/>
-      <c r="BWU17" s="3"/>
-      <c r="BWW17" s="3"/>
-      <c r="BWY17" s="3"/>
-      <c r="BXA17" s="3"/>
-      <c r="BXC17" s="3"/>
-      <c r="BXE17" s="3"/>
-      <c r="BXG17" s="3"/>
-      <c r="BXI17" s="3"/>
-      <c r="BXK17" s="3"/>
-      <c r="BXM17" s="3"/>
-      <c r="BXO17" s="3"/>
-      <c r="BXQ17" s="3"/>
-      <c r="BXS17" s="3"/>
-      <c r="BXU17" s="3"/>
-      <c r="BXW17" s="3"/>
-      <c r="BXY17" s="3"/>
-      <c r="BYA17" s="3"/>
-      <c r="BYC17" s="3"/>
-      <c r="BYE17" s="3"/>
-      <c r="BYG17" s="3"/>
-      <c r="BYI17" s="3"/>
-      <c r="BYK17" s="3"/>
-      <c r="BYM17" s="3"/>
-      <c r="BYO17" s="3"/>
-      <c r="BYQ17" s="3"/>
-      <c r="BYS17" s="3"/>
-      <c r="BYU17" s="3"/>
-      <c r="BYW17" s="3"/>
-      <c r="BYY17" s="3"/>
-      <c r="BZA17" s="3"/>
-      <c r="BZC17" s="3"/>
-      <c r="BZE17" s="3"/>
-      <c r="BZG17" s="3"/>
-      <c r="BZI17" s="3"/>
-      <c r="BZK17" s="3"/>
-      <c r="BZM17" s="3"/>
-      <c r="BZO17" s="3"/>
-      <c r="BZQ17" s="3"/>
-      <c r="BZS17" s="3"/>
-      <c r="BZU17" s="3"/>
-      <c r="BZW17" s="3"/>
-      <c r="BZY17" s="3"/>
-      <c r="CAA17" s="3"/>
-      <c r="CAC17" s="3"/>
-      <c r="CAE17" s="3"/>
-      <c r="CAG17" s="3"/>
-      <c r="CAI17" s="3"/>
-      <c r="CAK17" s="3"/>
-      <c r="CAM17" s="3"/>
-      <c r="CAO17" s="3"/>
-      <c r="CAQ17" s="3"/>
-      <c r="CAS17" s="3"/>
-      <c r="CAU17" s="3"/>
-      <c r="CAW17" s="3"/>
-      <c r="CAY17" s="3"/>
-      <c r="CBA17" s="3"/>
-      <c r="CBC17" s="3"/>
-      <c r="CBE17" s="3"/>
-      <c r="CBG17" s="3"/>
-      <c r="CBI17" s="3"/>
-      <c r="CBK17" s="3"/>
-      <c r="CBM17" s="3"/>
-      <c r="CBO17" s="3"/>
-      <c r="CBQ17" s="3"/>
-      <c r="CBS17" s="3"/>
-      <c r="CBU17" s="3"/>
-      <c r="CBW17" s="3"/>
-      <c r="CBY17" s="3"/>
-      <c r="CCA17" s="3"/>
-      <c r="CCC17" s="3"/>
-      <c r="CCE17" s="3"/>
-      <c r="CCG17" s="3"/>
-      <c r="CCI17" s="3"/>
-      <c r="CCK17" s="3"/>
-      <c r="CCM17" s="3"/>
-      <c r="CCO17" s="3"/>
-      <c r="CCQ17" s="3"/>
-      <c r="CCS17" s="3"/>
-      <c r="CCU17" s="3"/>
-      <c r="CCW17" s="3"/>
-      <c r="CCY17" s="3"/>
-      <c r="CDA17" s="3"/>
-      <c r="CDC17" s="3"/>
-      <c r="CDE17" s="3"/>
-      <c r="CDG17" s="3"/>
-      <c r="CDI17" s="3"/>
-      <c r="CDK17" s="3"/>
-      <c r="CDM17" s="3"/>
-      <c r="CDO17" s="3"/>
-      <c r="CDQ17" s="3"/>
-      <c r="CDS17" s="3"/>
-      <c r="CDU17" s="3"/>
-      <c r="CDW17" s="3"/>
-      <c r="CDY17" s="3"/>
-      <c r="CEA17" s="3"/>
-      <c r="CEC17" s="3"/>
-      <c r="CEE17" s="3"/>
-      <c r="CEG17" s="3"/>
-      <c r="CEI17" s="3"/>
-      <c r="CEK17" s="3"/>
-      <c r="CEM17" s="3"/>
-      <c r="CEO17" s="3"/>
-      <c r="CEQ17" s="3"/>
-      <c r="CES17" s="3"/>
-      <c r="CEU17" s="3"/>
-      <c r="CEW17" s="3"/>
-      <c r="CEY17" s="3"/>
-      <c r="CFA17" s="3"/>
-      <c r="CFC17" s="3"/>
-      <c r="CFE17" s="3"/>
-      <c r="CFG17" s="3"/>
-      <c r="CFI17" s="3"/>
-      <c r="CFK17" s="3"/>
-      <c r="CFM17" s="3"/>
-      <c r="CFO17" s="3"/>
-      <c r="CFQ17" s="3"/>
-      <c r="CFS17" s="3"/>
-      <c r="CFU17" s="3"/>
-      <c r="CFW17" s="3"/>
-      <c r="CFY17" s="3"/>
-      <c r="CGA17" s="3"/>
-      <c r="CGC17" s="3"/>
-      <c r="CGE17" s="3"/>
-      <c r="CGG17" s="3"/>
-      <c r="CGI17" s="3"/>
-      <c r="CGK17" s="3"/>
-      <c r="CGM17" s="3"/>
-      <c r="CGO17" s="3"/>
-      <c r="CGQ17" s="3"/>
-      <c r="CGS17" s="3"/>
-      <c r="CGU17" s="3"/>
-      <c r="CGW17" s="3"/>
-      <c r="CGY17" s="3"/>
-      <c r="CHA17" s="3"/>
-      <c r="CHC17" s="3"/>
-      <c r="CHE17" s="3"/>
-      <c r="CHG17" s="3"/>
-      <c r="CHI17" s="3"/>
-      <c r="CHK17" s="3"/>
-      <c r="CHM17" s="3"/>
-      <c r="CHO17" s="3"/>
-      <c r="CHQ17" s="3"/>
-      <c r="CHS17" s="3"/>
-      <c r="CHU17" s="3"/>
-      <c r="CHW17" s="3"/>
-      <c r="CHY17" s="3"/>
-      <c r="CIA17" s="3"/>
-      <c r="CIC17" s="3"/>
-      <c r="CIE17" s="3"/>
-      <c r="CIG17" s="3"/>
-      <c r="CII17" s="3"/>
-      <c r="CIK17" s="3"/>
-      <c r="CIM17" s="3"/>
-      <c r="CIO17" s="3"/>
-      <c r="CIQ17" s="3"/>
-      <c r="CIS17" s="3"/>
-      <c r="CIU17" s="3"/>
-      <c r="CIW17" s="3"/>
-      <c r="CIY17" s="3"/>
-      <c r="CJA17" s="3"/>
-      <c r="CJC17" s="3"/>
-      <c r="CJE17" s="3"/>
-      <c r="CJG17" s="3"/>
-      <c r="CJI17" s="3"/>
-      <c r="CJK17" s="3"/>
-      <c r="CJM17" s="3"/>
-      <c r="CJO17" s="3"/>
-      <c r="CJQ17" s="3"/>
-      <c r="CJS17" s="3"/>
-      <c r="CJU17" s="3"/>
-      <c r="CJW17" s="3"/>
-      <c r="CJY17" s="3"/>
-      <c r="CKA17" s="3"/>
-      <c r="CKC17" s="3"/>
-      <c r="CKE17" s="3"/>
-      <c r="CKG17" s="3"/>
-      <c r="CKI17" s="3"/>
-      <c r="CKK17" s="3"/>
-      <c r="CKM17" s="3"/>
-      <c r="CKO17" s="3"/>
-      <c r="CKQ17" s="3"/>
-      <c r="CKS17" s="3"/>
-      <c r="CKU17" s="3"/>
-      <c r="CKW17" s="3"/>
-      <c r="CKY17" s="3"/>
-      <c r="CLA17" s="3"/>
-      <c r="CLC17" s="3"/>
-      <c r="CLE17" s="3"/>
-      <c r="CLG17" s="3"/>
-      <c r="CLI17" s="3"/>
-      <c r="CLK17" s="3"/>
-      <c r="CLM17" s="3"/>
-      <c r="CLO17" s="3"/>
-      <c r="CLQ17" s="3"/>
-      <c r="CLS17" s="3"/>
-      <c r="CLU17" s="3"/>
-      <c r="CLW17" s="3"/>
-      <c r="CLY17" s="3"/>
-      <c r="CMA17" s="3"/>
-      <c r="CMC17" s="3"/>
-      <c r="CME17" s="3"/>
-      <c r="CMG17" s="3"/>
-      <c r="CMI17" s="3"/>
-      <c r="CMK17" s="3"/>
-      <c r="CMM17" s="3"/>
-      <c r="CMO17" s="3"/>
-      <c r="CMQ17" s="3"/>
-      <c r="CMS17" s="3"/>
-      <c r="CMU17" s="3"/>
-      <c r="CMW17" s="3"/>
-      <c r="CMY17" s="3"/>
-      <c r="CNA17" s="3"/>
-      <c r="CNC17" s="3"/>
-      <c r="CNE17" s="3"/>
-      <c r="CNG17" s="3"/>
-      <c r="CNI17" s="3"/>
-      <c r="CNK17" s="3"/>
-      <c r="CNM17" s="3"/>
-      <c r="CNO17" s="3"/>
-      <c r="CNQ17" s="3"/>
-      <c r="CNS17" s="3"/>
-      <c r="CNU17" s="3"/>
-      <c r="CNW17" s="3"/>
-      <c r="CNY17" s="3"/>
-      <c r="COA17" s="3"/>
-      <c r="COC17" s="3"/>
-      <c r="COE17" s="3"/>
-      <c r="COG17" s="3"/>
-      <c r="COI17" s="3"/>
-      <c r="COK17" s="3"/>
-      <c r="COM17" s="3"/>
-      <c r="COO17" s="3"/>
-      <c r="COQ17" s="3"/>
-      <c r="COS17" s="3"/>
-      <c r="COU17" s="3"/>
-      <c r="COW17" s="3"/>
-      <c r="COY17" s="3"/>
-      <c r="CPA17" s="3"/>
-      <c r="CPC17" s="3"/>
-      <c r="CPE17" s="3"/>
-      <c r="CPG17" s="3"/>
-      <c r="CPI17" s="3"/>
-      <c r="CPK17" s="3"/>
-      <c r="CPM17" s="3"/>
-      <c r="CPO17" s="3"/>
-      <c r="CPQ17" s="3"/>
-      <c r="CPS17" s="3"/>
-      <c r="CPU17" s="3"/>
-      <c r="CPW17" s="3"/>
-      <c r="CPY17" s="3"/>
-      <c r="CQA17" s="3"/>
-      <c r="CQC17" s="3"/>
-      <c r="CQE17" s="3"/>
-      <c r="CQG17" s="3"/>
-      <c r="CQI17" s="3"/>
-      <c r="CQK17" s="3"/>
-      <c r="CQM17" s="3"/>
-      <c r="CQO17" s="3"/>
-      <c r="CQQ17" s="3"/>
-      <c r="CQS17" s="3"/>
-      <c r="CQU17" s="3"/>
-      <c r="CQW17" s="3"/>
-      <c r="CQY17" s="3"/>
-      <c r="CRA17" s="3"/>
-      <c r="CRC17" s="3"/>
-      <c r="CRE17" s="3"/>
-      <c r="CRG17" s="3"/>
-      <c r="CRI17" s="3"/>
-      <c r="CRK17" s="3"/>
-      <c r="CRM17" s="3"/>
-      <c r="CRO17" s="3"/>
-      <c r="CRQ17" s="3"/>
-      <c r="CRS17" s="3"/>
-      <c r="CRU17" s="3"/>
-      <c r="CRW17" s="3"/>
-      <c r="CRY17" s="3"/>
-      <c r="CSA17" s="3"/>
-      <c r="CSC17" s="3"/>
-      <c r="CSE17" s="3"/>
-      <c r="CSG17" s="3"/>
-      <c r="CSI17" s="3"/>
-      <c r="CSK17" s="3"/>
-      <c r="CSM17" s="3"/>
-      <c r="CSO17" s="3"/>
-      <c r="CSQ17" s="3"/>
-      <c r="CSS17" s="3"/>
-      <c r="CSU17" s="3"/>
-      <c r="CSW17" s="3"/>
-      <c r="CSY17" s="3"/>
-      <c r="CTA17" s="3"/>
-      <c r="CTC17" s="3"/>
-      <c r="CTE17" s="3"/>
-      <c r="CTG17" s="3"/>
-      <c r="CTI17" s="3"/>
-      <c r="CTK17" s="3"/>
-      <c r="CTM17" s="3"/>
-      <c r="CTO17" s="3"/>
-      <c r="CTQ17" s="3"/>
-      <c r="CTS17" s="3"/>
-      <c r="CTU17" s="3"/>
-      <c r="CTW17" s="3"/>
-      <c r="CTY17" s="3"/>
-      <c r="CUA17" s="3"/>
-      <c r="CUC17" s="3"/>
-      <c r="CUE17" s="3"/>
-      <c r="CUG17" s="3"/>
-      <c r="CUI17" s="3"/>
-      <c r="CUK17" s="3"/>
-      <c r="CUM17" s="3"/>
-      <c r="CUO17" s="3"/>
-      <c r="CUQ17" s="3"/>
-      <c r="CUS17" s="3"/>
-      <c r="CUU17" s="3"/>
-      <c r="CUW17" s="3"/>
-      <c r="CUY17" s="3"/>
-      <c r="CVA17" s="3"/>
-      <c r="CVC17" s="3"/>
-      <c r="CVE17" s="3"/>
-      <c r="CVG17" s="3"/>
-      <c r="CVI17" s="3"/>
-      <c r="CVK17" s="3"/>
-      <c r="CVM17" s="3"/>
-      <c r="CVO17" s="3"/>
-      <c r="CVQ17" s="3"/>
-      <c r="CVS17" s="3"/>
-      <c r="CVU17" s="3"/>
-      <c r="CVW17" s="3"/>
-      <c r="CVY17" s="3"/>
-      <c r="CWA17" s="3"/>
-      <c r="CWC17" s="3"/>
-      <c r="CWE17" s="3"/>
-      <c r="CWG17" s="3"/>
-      <c r="CWI17" s="3"/>
-      <c r="CWK17" s="3"/>
-      <c r="CWM17" s="3"/>
-      <c r="CWO17" s="3"/>
-      <c r="CWQ17" s="3"/>
-      <c r="CWS17" s="3"/>
-      <c r="CWU17" s="3"/>
-      <c r="CWW17" s="3"/>
-      <c r="CWY17" s="3"/>
-      <c r="CXA17" s="3"/>
-      <c r="CXC17" s="3"/>
-      <c r="CXE17" s="3"/>
-      <c r="CXG17" s="3"/>
-      <c r="CXI17" s="3"/>
-      <c r="CXK17" s="3"/>
-      <c r="CXM17" s="3"/>
-      <c r="CXO17" s="3"/>
-      <c r="CXQ17" s="3"/>
-      <c r="CXS17" s="3"/>
-      <c r="CXU17" s="3"/>
-      <c r="CXW17" s="3"/>
-      <c r="CXY17" s="3"/>
-      <c r="CYA17" s="3"/>
-      <c r="CYC17" s="3"/>
-      <c r="CYE17" s="3"/>
-      <c r="CYG17" s="3"/>
-      <c r="CYI17" s="3"/>
-      <c r="CYK17" s="3"/>
-      <c r="CYM17" s="3"/>
-      <c r="CYO17" s="3"/>
-      <c r="CYQ17" s="3"/>
-      <c r="CYS17" s="3"/>
-      <c r="CYU17" s="3"/>
-      <c r="CYW17" s="3"/>
-      <c r="CYY17" s="3"/>
-      <c r="CZA17" s="3"/>
-      <c r="CZC17" s="3"/>
-      <c r="CZE17" s="3"/>
-      <c r="CZG17" s="3"/>
-      <c r="CZI17" s="3"/>
-      <c r="CZK17" s="3"/>
-      <c r="CZM17" s="3"/>
-      <c r="CZO17" s="3"/>
-      <c r="CZQ17" s="3"/>
-      <c r="CZS17" s="3"/>
-      <c r="CZU17" s="3"/>
-      <c r="CZW17" s="3"/>
-      <c r="CZY17" s="3"/>
-      <c r="DAA17" s="3"/>
-      <c r="DAC17" s="3"/>
-      <c r="DAE17" s="3"/>
-      <c r="DAG17" s="3"/>
-      <c r="DAI17" s="3"/>
-      <c r="DAK17" s="3"/>
-      <c r="DAM17" s="3"/>
-      <c r="DAO17" s="3"/>
-      <c r="DAQ17" s="3"/>
-      <c r="DAS17" s="3"/>
-      <c r="DAU17" s="3"/>
-      <c r="DAW17" s="3"/>
-      <c r="DAY17" s="3"/>
-      <c r="DBA17" s="3"/>
-      <c r="DBC17" s="3"/>
-      <c r="DBE17" s="3"/>
-      <c r="DBG17" s="3"/>
-      <c r="DBI17" s="3"/>
-      <c r="DBK17" s="3"/>
-      <c r="DBM17" s="3"/>
-      <c r="DBO17" s="3"/>
-      <c r="DBQ17" s="3"/>
-      <c r="DBS17" s="3"/>
-      <c r="DBU17" s="3"/>
-      <c r="DBW17" s="3"/>
-      <c r="DBY17" s="3"/>
-      <c r="DCA17" s="3"/>
-      <c r="DCC17" s="3"/>
-      <c r="DCE17" s="3"/>
-      <c r="DCG17" s="3"/>
-      <c r="DCI17" s="3"/>
-      <c r="DCK17" s="3"/>
-      <c r="DCM17" s="3"/>
-      <c r="DCO17" s="3"/>
-      <c r="DCQ17" s="3"/>
-      <c r="DCS17" s="3"/>
-      <c r="DCU17" s="3"/>
-      <c r="DCW17" s="3"/>
-      <c r="DCY17" s="3"/>
-      <c r="DDA17" s="3"/>
-      <c r="DDC17" s="3"/>
-      <c r="DDE17" s="3"/>
-      <c r="DDG17" s="3"/>
-      <c r="DDI17" s="3"/>
-      <c r="DDK17" s="3"/>
-      <c r="DDM17" s="3"/>
-      <c r="DDO17" s="3"/>
-      <c r="DDQ17" s="3"/>
-      <c r="DDS17" s="3"/>
-      <c r="DDU17" s="3"/>
-      <c r="DDW17" s="3"/>
-      <c r="DDY17" s="3"/>
-      <c r="DEA17" s="3"/>
-      <c r="DEC17" s="3"/>
-      <c r="DEE17" s="3"/>
-      <c r="DEG17" s="3"/>
-      <c r="DEI17" s="3"/>
-      <c r="DEK17" s="3"/>
-      <c r="DEM17" s="3"/>
-      <c r="DEO17" s="3"/>
-      <c r="DEQ17" s="3"/>
-      <c r="DES17" s="3"/>
-      <c r="DEU17" s="3"/>
-      <c r="DEW17" s="3"/>
-      <c r="DEY17" s="3"/>
-      <c r="DFA17" s="3"/>
-      <c r="DFC17" s="3"/>
-      <c r="DFE17" s="3"/>
-      <c r="DFG17" s="3"/>
-      <c r="DFI17" s="3"/>
-      <c r="DFK17" s="3"/>
-      <c r="DFM17" s="3"/>
-      <c r="DFO17" s="3"/>
-      <c r="DFQ17" s="3"/>
-      <c r="DFS17" s="3"/>
-      <c r="DFU17" s="3"/>
-      <c r="DFW17" s="3"/>
-      <c r="DFY17" s="3"/>
-      <c r="DGA17" s="3"/>
-      <c r="DGC17" s="3"/>
-      <c r="DGE17" s="3"/>
-      <c r="DGG17" s="3"/>
-      <c r="DGI17" s="3"/>
-      <c r="DGK17" s="3"/>
-      <c r="DGM17" s="3"/>
-      <c r="DGO17" s="3"/>
-      <c r="DGQ17" s="3"/>
-      <c r="DGS17" s="3"/>
-      <c r="DGU17" s="3"/>
-      <c r="DGW17" s="3"/>
-      <c r="DGY17" s="3"/>
-      <c r="DHA17" s="3"/>
-      <c r="DHC17" s="3"/>
-      <c r="DHE17" s="3"/>
-      <c r="DHG17" s="3"/>
-      <c r="DHI17" s="3"/>
-      <c r="DHK17" s="3"/>
-      <c r="DHM17" s="3"/>
-      <c r="DHO17" s="3"/>
-      <c r="DHQ17" s="3"/>
-      <c r="DHS17" s="3"/>
-      <c r="DHU17" s="3"/>
-      <c r="DHW17" s="3"/>
-      <c r="DHY17" s="3"/>
-      <c r="DIA17" s="3"/>
-      <c r="DIC17" s="3"/>
-      <c r="DIE17" s="3"/>
-      <c r="DIG17" s="3"/>
-      <c r="DII17" s="3"/>
-      <c r="DIK17" s="3"/>
-      <c r="DIM17" s="3"/>
-      <c r="DIO17" s="3"/>
-      <c r="DIQ17" s="3"/>
-      <c r="DIS17" s="3"/>
-      <c r="DIU17" s="3"/>
-      <c r="DIW17" s="3"/>
-      <c r="DIY17" s="3"/>
-      <c r="DJA17" s="3"/>
-      <c r="DJC17" s="3"/>
-      <c r="DJE17" s="3"/>
-      <c r="DJG17" s="3"/>
-      <c r="DJI17" s="3"/>
-      <c r="DJK17" s="3"/>
-      <c r="DJM17" s="3"/>
-      <c r="DJO17" s="3"/>
-      <c r="DJQ17" s="3"/>
-      <c r="DJS17" s="3"/>
-      <c r="DJU17" s="3"/>
-      <c r="DJW17" s="3"/>
-      <c r="DJY17" s="3"/>
-      <c r="DKA17" s="3"/>
-      <c r="DKC17" s="3"/>
-      <c r="DKE17" s="3"/>
-      <c r="DKG17" s="3"/>
-      <c r="DKI17" s="3"/>
-      <c r="DKK17" s="3"/>
-      <c r="DKM17" s="3"/>
-      <c r="DKO17" s="3"/>
-      <c r="DKQ17" s="3"/>
-      <c r="DKS17" s="3"/>
-      <c r="DKU17" s="3"/>
-      <c r="DKW17" s="3"/>
-      <c r="DKY17" s="3"/>
-      <c r="DLA17" s="3"/>
-      <c r="DLC17" s="3"/>
-      <c r="DLE17" s="3"/>
-      <c r="DLG17" s="3"/>
-      <c r="DLI17" s="3"/>
-      <c r="DLK17" s="3"/>
-      <c r="DLM17" s="3"/>
-      <c r="DLO17" s="3"/>
-      <c r="DLQ17" s="3"/>
-      <c r="DLS17" s="3"/>
-      <c r="DLU17" s="3"/>
-      <c r="DLW17" s="3"/>
-      <c r="DLY17" s="3"/>
-      <c r="DMA17" s="3"/>
-      <c r="DMC17" s="3"/>
-      <c r="DME17" s="3"/>
-      <c r="DMG17" s="3"/>
-      <c r="DMI17" s="3"/>
-      <c r="DMK17" s="3"/>
-      <c r="DMM17" s="3"/>
-      <c r="DMO17" s="3"/>
-      <c r="DMQ17" s="3"/>
-      <c r="DMS17" s="3"/>
-      <c r="DMU17" s="3"/>
-      <c r="DMW17" s="3"/>
-      <c r="DMY17" s="3"/>
-      <c r="DNA17" s="3"/>
-      <c r="DNC17" s="3"/>
-      <c r="DNE17" s="3"/>
-      <c r="DNG17" s="3"/>
-      <c r="DNI17" s="3"/>
-      <c r="DNK17" s="3"/>
-      <c r="DNM17" s="3"/>
-      <c r="DNO17" s="3"/>
-      <c r="DNQ17" s="3"/>
-      <c r="DNS17" s="3"/>
-      <c r="DNU17" s="3"/>
-      <c r="DNW17" s="3"/>
-      <c r="DNY17" s="3"/>
-      <c r="DOA17" s="3"/>
-      <c r="DOC17" s="3"/>
-      <c r="DOE17" s="3"/>
-      <c r="DOG17" s="3"/>
-      <c r="DOI17" s="3"/>
-      <c r="DOK17" s="3"/>
-      <c r="DOM17" s="3"/>
-      <c r="DOO17" s="3"/>
-      <c r="DOQ17" s="3"/>
-      <c r="DOS17" s="3"/>
-      <c r="DOU17" s="3"/>
-      <c r="DOW17" s="3"/>
-      <c r="DOY17" s="3"/>
-      <c r="DPA17" s="3"/>
-      <c r="DPC17" s="3"/>
-      <c r="DPE17" s="3"/>
-      <c r="DPG17" s="3"/>
-      <c r="DPI17" s="3"/>
-      <c r="DPK17" s="3"/>
-      <c r="DPM17" s="3"/>
-      <c r="DPO17" s="3"/>
-      <c r="DPQ17" s="3"/>
-      <c r="DPS17" s="3"/>
-      <c r="DPU17" s="3"/>
-      <c r="DPW17" s="3"/>
-      <c r="DPY17" s="3"/>
-      <c r="DQA17" s="3"/>
-      <c r="DQC17" s="3"/>
-      <c r="DQE17" s="3"/>
-      <c r="DQG17" s="3"/>
-      <c r="DQI17" s="3"/>
-      <c r="DQK17" s="3"/>
-      <c r="DQM17" s="3"/>
-      <c r="DQO17" s="3"/>
-      <c r="DQQ17" s="3"/>
-      <c r="DQS17" s="3"/>
-      <c r="DQU17" s="3"/>
-      <c r="DQW17" s="3"/>
-      <c r="DQY17" s="3"/>
-      <c r="DRA17" s="3"/>
-      <c r="DRC17" s="3"/>
-      <c r="DRE17" s="3"/>
-      <c r="DRG17" s="3"/>
-      <c r="DRI17" s="3"/>
-      <c r="DRK17" s="3"/>
-      <c r="DRM17" s="3"/>
-      <c r="DRO17" s="3"/>
-      <c r="DRQ17" s="3"/>
-      <c r="DRS17" s="3"/>
-      <c r="DRU17" s="3"/>
-      <c r="DRW17" s="3"/>
-      <c r="DRY17" s="3"/>
-      <c r="DSA17" s="3"/>
-      <c r="DSC17" s="3"/>
-      <c r="DSE17" s="3"/>
-      <c r="DSG17" s="3"/>
-      <c r="DSI17" s="3"/>
-      <c r="DSK17" s="3"/>
-      <c r="DSM17" s="3"/>
-      <c r="DSO17" s="3"/>
-      <c r="DSQ17" s="3"/>
-      <c r="DSS17" s="3"/>
-      <c r="DSU17" s="3"/>
-      <c r="DSW17" s="3"/>
-      <c r="DSY17" s="3"/>
-      <c r="DTA17" s="3"/>
-      <c r="DTC17" s="3"/>
-      <c r="DTE17" s="3"/>
-      <c r="DTG17" s="3"/>
-      <c r="DTI17" s="3"/>
-      <c r="DTK17" s="3"/>
-      <c r="DTM17" s="3"/>
-      <c r="DTO17" s="3"/>
-      <c r="DTQ17" s="3"/>
-      <c r="DTS17" s="3"/>
-      <c r="DTU17" s="3"/>
-      <c r="DTW17" s="3"/>
-      <c r="DTY17" s="3"/>
-      <c r="DUA17" s="3"/>
-      <c r="DUC17" s="3"/>
-      <c r="DUE17" s="3"/>
-      <c r="DUG17" s="3"/>
-      <c r="DUI17" s="3"/>
-      <c r="DUK17" s="3"/>
-      <c r="DUM17" s="3"/>
-      <c r="DUO17" s="3"/>
-      <c r="DUQ17" s="3"/>
-      <c r="DUS17" s="3"/>
-      <c r="DUU17" s="3"/>
-      <c r="DUW17" s="3"/>
-      <c r="DUY17" s="3"/>
-      <c r="DVA17" s="3"/>
-      <c r="DVC17" s="3"/>
-      <c r="DVE17" s="3"/>
-      <c r="DVG17" s="3"/>
-      <c r="DVI17" s="3"/>
-      <c r="DVK17" s="3"/>
-      <c r="DVM17" s="3"/>
-      <c r="DVO17" s="3"/>
-      <c r="DVQ17" s="3"/>
-      <c r="DVS17" s="3"/>
-      <c r="DVU17" s="3"/>
-      <c r="DVW17" s="3"/>
-      <c r="DVY17" s="3"/>
-      <c r="DWA17" s="3"/>
-      <c r="DWC17" s="3"/>
-      <c r="DWE17" s="3"/>
-      <c r="DWG17" s="3"/>
-      <c r="DWI17" s="3"/>
-      <c r="DWK17" s="3"/>
-      <c r="DWM17" s="3"/>
-      <c r="DWO17" s="3"/>
-      <c r="DWQ17" s="3"/>
-      <c r="DWS17" s="3"/>
-      <c r="DWU17" s="3"/>
-      <c r="DWW17" s="3"/>
-      <c r="DWY17" s="3"/>
-      <c r="DXA17" s="3"/>
-      <c r="DXC17" s="3"/>
-      <c r="DXE17" s="3"/>
-      <c r="DXG17" s="3"/>
-      <c r="DXI17" s="3"/>
-      <c r="DXK17" s="3"/>
-      <c r="DXM17" s="3"/>
-      <c r="DXO17" s="3"/>
-      <c r="DXQ17" s="3"/>
-      <c r="DXS17" s="3"/>
-      <c r="DXU17" s="3"/>
-      <c r="DXW17" s="3"/>
-      <c r="DXY17" s="3"/>
-      <c r="DYA17" s="3"/>
-      <c r="DYC17" s="3"/>
-      <c r="DYE17" s="3"/>
-      <c r="DYG17" s="3"/>
-      <c r="DYI17" s="3"/>
-      <c r="DYK17" s="3"/>
-      <c r="DYM17" s="3"/>
-      <c r="DYO17" s="3"/>
-      <c r="DYQ17" s="3"/>
-      <c r="DYS17" s="3"/>
-      <c r="DYU17" s="3"/>
-      <c r="DYW17" s="3"/>
-      <c r="DYY17" s="3"/>
-      <c r="DZA17" s="3"/>
-      <c r="DZC17" s="3"/>
-      <c r="DZE17" s="3"/>
-      <c r="DZG17" s="3"/>
-      <c r="DZI17" s="3"/>
-      <c r="DZK17" s="3"/>
-      <c r="DZM17" s="3"/>
-      <c r="DZO17" s="3"/>
-      <c r="DZQ17" s="3"/>
-      <c r="DZS17" s="3"/>
-      <c r="DZU17" s="3"/>
-      <c r="DZW17" s="3"/>
-      <c r="DZY17" s="3"/>
-      <c r="EAA17" s="3"/>
-      <c r="EAC17" s="3"/>
-      <c r="EAE17" s="3"/>
-      <c r="EAG17" s="3"/>
-      <c r="EAI17" s="3"/>
-      <c r="EAK17" s="3"/>
-      <c r="EAM17" s="3"/>
-      <c r="EAO17" s="3"/>
-      <c r="EAQ17" s="3"/>
-      <c r="EAS17" s="3"/>
-      <c r="EAU17" s="3"/>
-      <c r="EAW17" s="3"/>
-      <c r="EAY17" s="3"/>
-      <c r="EBA17" s="3"/>
-      <c r="EBC17" s="3"/>
-      <c r="EBE17" s="3"/>
-      <c r="EBG17" s="3"/>
-      <c r="EBI17" s="3"/>
-      <c r="EBK17" s="3"/>
-      <c r="EBM17" s="3"/>
-      <c r="EBO17" s="3"/>
-      <c r="EBQ17" s="3"/>
-      <c r="EBS17" s="3"/>
-      <c r="EBU17" s="3"/>
-      <c r="EBW17" s="3"/>
-      <c r="EBY17" s="3"/>
-      <c r="ECA17" s="3"/>
-      <c r="ECC17" s="3"/>
-      <c r="ECE17" s="3"/>
-      <c r="ECG17" s="3"/>
-      <c r="ECI17" s="3"/>
-      <c r="ECK17" s="3"/>
-      <c r="ECM17" s="3"/>
-      <c r="ECO17" s="3"/>
-      <c r="ECQ17" s="3"/>
-      <c r="ECS17" s="3"/>
-      <c r="ECU17" s="3"/>
-      <c r="ECW17" s="3"/>
-      <c r="ECY17" s="3"/>
-      <c r="EDA17" s="3"/>
-      <c r="EDC17" s="3"/>
-      <c r="EDE17" s="3"/>
-      <c r="EDG17" s="3"/>
-      <c r="EDI17" s="3"/>
-      <c r="EDK17" s="3"/>
-      <c r="EDM17" s="3"/>
-      <c r="EDO17" s="3"/>
-      <c r="EDQ17" s="3"/>
-      <c r="EDS17" s="3"/>
-      <c r="EDU17" s="3"/>
-      <c r="EDW17" s="3"/>
-      <c r="EDY17" s="3"/>
-      <c r="EEA17" s="3"/>
-      <c r="EEC17" s="3"/>
-      <c r="EEE17" s="3"/>
-      <c r="EEG17" s="3"/>
-      <c r="EEI17" s="3"/>
-      <c r="EEK17" s="3"/>
-      <c r="EEM17" s="3"/>
-      <c r="EEO17" s="3"/>
-      <c r="EEQ17" s="3"/>
-      <c r="EES17" s="3"/>
-      <c r="EEU17" s="3"/>
-      <c r="EEW17" s="3"/>
-      <c r="EEY17" s="3"/>
-      <c r="EFA17" s="3"/>
-      <c r="EFC17" s="3"/>
-      <c r="EFE17" s="3"/>
-      <c r="EFG17" s="3"/>
-      <c r="EFI17" s="3"/>
-      <c r="EFK17" s="3"/>
-      <c r="EFM17" s="3"/>
-      <c r="EFO17" s="3"/>
-      <c r="EFQ17" s="3"/>
-      <c r="EFS17" s="3"/>
-      <c r="EFU17" s="3"/>
-      <c r="EFW17" s="3"/>
-      <c r="EFY17" s="3"/>
-      <c r="EGA17" s="3"/>
-      <c r="EGC17" s="3"/>
-      <c r="EGE17" s="3"/>
-      <c r="EGG17" s="3"/>
-      <c r="EGI17" s="3"/>
-      <c r="EGK17" s="3"/>
-      <c r="EGM17" s="3"/>
-      <c r="EGO17" s="3"/>
-      <c r="EGQ17" s="3"/>
-      <c r="EGS17" s="3"/>
-      <c r="EGU17" s="3"/>
-      <c r="EGW17" s="3"/>
-      <c r="EGY17" s="3"/>
-      <c r="EHA17" s="3"/>
-      <c r="EHC17" s="3"/>
-      <c r="EHE17" s="3"/>
-      <c r="EHG17" s="3"/>
-      <c r="EHI17" s="3"/>
-      <c r="EHK17" s="3"/>
-      <c r="EHM17" s="3"/>
-      <c r="EHO17" s="3"/>
-      <c r="EHQ17" s="3"/>
-      <c r="EHS17" s="3"/>
-      <c r="EHU17" s="3"/>
-      <c r="EHW17" s="3"/>
-      <c r="EHY17" s="3"/>
-      <c r="EIA17" s="3"/>
-      <c r="EIC17" s="3"/>
-      <c r="EIE17" s="3"/>
-      <c r="EIG17" s="3"/>
-      <c r="EII17" s="3"/>
-      <c r="EIK17" s="3"/>
-      <c r="EIM17" s="3"/>
-      <c r="EIO17" s="3"/>
-      <c r="EIQ17" s="3"/>
-      <c r="EIS17" s="3"/>
-      <c r="EIU17" s="3"/>
-      <c r="EIW17" s="3"/>
-      <c r="EIY17" s="3"/>
-      <c r="EJA17" s="3"/>
-      <c r="EJC17" s="3"/>
-      <c r="EJE17" s="3"/>
-      <c r="EJG17" s="3"/>
-      <c r="EJI17" s="3"/>
-      <c r="EJK17" s="3"/>
-      <c r="EJM17" s="3"/>
-      <c r="EJO17" s="3"/>
-      <c r="EJQ17" s="3"/>
-      <c r="EJS17" s="3"/>
-      <c r="EJU17" s="3"/>
-      <c r="EJW17" s="3"/>
-      <c r="EJY17" s="3"/>
-      <c r="EKA17" s="3"/>
-      <c r="EKC17" s="3"/>
-      <c r="EKE17" s="3"/>
-      <c r="EKG17" s="3"/>
-      <c r="EKI17" s="3"/>
-      <c r="EKK17" s="3"/>
-      <c r="EKM17" s="3"/>
-      <c r="EKO17" s="3"/>
-      <c r="EKQ17" s="3"/>
-      <c r="EKS17" s="3"/>
-      <c r="EKU17" s="3"/>
-      <c r="EKW17" s="3"/>
-      <c r="EKY17" s="3"/>
-      <c r="ELA17" s="3"/>
-      <c r="ELC17" s="3"/>
-      <c r="ELE17" s="3"/>
-      <c r="ELG17" s="3"/>
-      <c r="ELI17" s="3"/>
-      <c r="ELK17" s="3"/>
-      <c r="ELM17" s="3"/>
-      <c r="ELO17" s="3"/>
-      <c r="ELQ17" s="3"/>
-      <c r="ELS17" s="3"/>
-      <c r="ELU17" s="3"/>
-      <c r="ELW17" s="3"/>
-      <c r="ELY17" s="3"/>
-      <c r="EMA17" s="3"/>
-      <c r="EMC17" s="3"/>
-      <c r="EME17" s="3"/>
-      <c r="EMG17" s="3"/>
-      <c r="EMI17" s="3"/>
-      <c r="EMK17" s="3"/>
-      <c r="EMM17" s="3"/>
-      <c r="EMO17" s="3"/>
-      <c r="EMQ17" s="3"/>
-      <c r="EMS17" s="3"/>
-      <c r="EMU17" s="3"/>
-      <c r="EMW17" s="3"/>
-      <c r="EMY17" s="3"/>
-      <c r="ENA17" s="3"/>
-      <c r="ENC17" s="3"/>
-      <c r="ENE17" s="3"/>
-      <c r="ENG17" s="3"/>
-      <c r="ENI17" s="3"/>
-      <c r="ENK17" s="3"/>
-      <c r="ENM17" s="3"/>
-      <c r="ENO17" s="3"/>
-      <c r="ENQ17" s="3"/>
-      <c r="ENS17" s="3"/>
-      <c r="ENU17" s="3"/>
-      <c r="ENW17" s="3"/>
-      <c r="ENY17" s="3"/>
-      <c r="EOA17" s="3"/>
-      <c r="EOC17" s="3"/>
-      <c r="EOE17" s="3"/>
-      <c r="EOG17" s="3"/>
-      <c r="EOI17" s="3"/>
-      <c r="EOK17" s="3"/>
-      <c r="EOM17" s="3"/>
-      <c r="EOO17" s="3"/>
-      <c r="EOQ17" s="3"/>
-      <c r="EOS17" s="3"/>
-      <c r="EOU17" s="3"/>
-      <c r="EOW17" s="3"/>
-      <c r="EOY17" s="3"/>
-      <c r="EPA17" s="3"/>
-      <c r="EPC17" s="3"/>
-      <c r="EPE17" s="3"/>
-      <c r="EPG17" s="3"/>
-      <c r="EPI17" s="3"/>
-      <c r="EPK17" s="3"/>
-      <c r="EPM17" s="3"/>
-      <c r="EPO17" s="3"/>
-      <c r="EPQ17" s="3"/>
-      <c r="EPS17" s="3"/>
-      <c r="EPU17" s="3"/>
-      <c r="EPW17" s="3"/>
-      <c r="EPY17" s="3"/>
-      <c r="EQA17" s="3"/>
-      <c r="EQC17" s="3"/>
-      <c r="EQE17" s="3"/>
-      <c r="EQG17" s="3"/>
-      <c r="EQI17" s="3"/>
-      <c r="EQK17" s="3"/>
-      <c r="EQM17" s="3"/>
-      <c r="EQO17" s="3"/>
-      <c r="EQQ17" s="3"/>
-      <c r="EQS17" s="3"/>
-      <c r="EQU17" s="3"/>
-      <c r="EQW17" s="3"/>
-      <c r="EQY17" s="3"/>
-      <c r="ERA17" s="3"/>
-      <c r="ERC17" s="3"/>
-      <c r="ERE17" s="3"/>
-      <c r="ERG17" s="3"/>
-      <c r="ERI17" s="3"/>
-      <c r="ERK17" s="3"/>
-      <c r="ERM17" s="3"/>
-      <c r="ERO17" s="3"/>
-      <c r="ERQ17" s="3"/>
-      <c r="ERS17" s="3"/>
-      <c r="ERU17" s="3"/>
-      <c r="ERW17" s="3"/>
-      <c r="ERY17" s="3"/>
-      <c r="ESA17" s="3"/>
-      <c r="ESC17" s="3"/>
-      <c r="ESE17" s="3"/>
-      <c r="ESG17" s="3"/>
-      <c r="ESI17" s="3"/>
-      <c r="ESK17" s="3"/>
-      <c r="ESM17" s="3"/>
-      <c r="ESO17" s="3"/>
-      <c r="ESQ17" s="3"/>
-      <c r="ESS17" s="3"/>
-      <c r="ESU17" s="3"/>
-      <c r="ESW17" s="3"/>
-      <c r="ESY17" s="3"/>
-      <c r="ETA17" s="3"/>
-      <c r="ETC17" s="3"/>
-      <c r="ETE17" s="3"/>
-      <c r="ETG17" s="3"/>
-      <c r="ETI17" s="3"/>
-      <c r="ETK17" s="3"/>
-      <c r="ETM17" s="3"/>
-      <c r="ETO17" s="3"/>
-      <c r="ETQ17" s="3"/>
-      <c r="ETS17" s="3"/>
-      <c r="ETU17" s="3"/>
-      <c r="ETW17" s="3"/>
-      <c r="ETY17" s="3"/>
-      <c r="EUA17" s="3"/>
-      <c r="EUC17" s="3"/>
-      <c r="EUE17" s="3"/>
-      <c r="EUG17" s="3"/>
-      <c r="EUI17" s="3"/>
-      <c r="EUK17" s="3"/>
-      <c r="EUM17" s="3"/>
-      <c r="EUO17" s="3"/>
-      <c r="EUQ17" s="3"/>
-      <c r="EUS17" s="3"/>
-      <c r="EUU17" s="3"/>
-      <c r="EUW17" s="3"/>
-      <c r="EUY17" s="3"/>
-      <c r="EVA17" s="3"/>
-      <c r="EVC17" s="3"/>
-      <c r="EVE17" s="3"/>
-      <c r="EVG17" s="3"/>
-      <c r="EVI17" s="3"/>
-      <c r="EVK17" s="3"/>
-      <c r="EVM17" s="3"/>
-      <c r="EVO17" s="3"/>
-      <c r="EVQ17" s="3"/>
-      <c r="EVS17" s="3"/>
-      <c r="EVU17" s="3"/>
-      <c r="EVW17" s="3"/>
-      <c r="EVY17" s="3"/>
-      <c r="EWA17" s="3"/>
-      <c r="EWC17" s="3"/>
-      <c r="EWE17" s="3"/>
-      <c r="EWG17" s="3"/>
-      <c r="EWI17" s="3"/>
-      <c r="EWK17" s="3"/>
-      <c r="EWM17" s="3"/>
-      <c r="EWO17" s="3"/>
-      <c r="EWQ17" s="3"/>
-      <c r="EWS17" s="3"/>
-      <c r="EWU17" s="3"/>
-      <c r="EWW17" s="3"/>
-      <c r="EWY17" s="3"/>
-      <c r="EXA17" s="3"/>
-      <c r="EXC17" s="3"/>
-      <c r="EXE17" s="3"/>
-      <c r="EXG17" s="3"/>
-      <c r="EXI17" s="3"/>
-      <c r="EXK17" s="3"/>
-      <c r="EXM17" s="3"/>
-      <c r="EXO17" s="3"/>
-      <c r="EXQ17" s="3"/>
-      <c r="EXS17" s="3"/>
-      <c r="EXU17" s="3"/>
-      <c r="EXW17" s="3"/>
-      <c r="EXY17" s="3"/>
-      <c r="EYA17" s="3"/>
-      <c r="EYC17" s="3"/>
-      <c r="EYE17" s="3"/>
-      <c r="EYG17" s="3"/>
-      <c r="EYI17" s="3"/>
-      <c r="EYK17" s="3"/>
-      <c r="EYM17" s="3"/>
-      <c r="EYO17" s="3"/>
-      <c r="EYQ17" s="3"/>
-      <c r="EYS17" s="3"/>
-      <c r="EYU17" s="3"/>
-      <c r="EYW17" s="3"/>
-      <c r="EYY17" s="3"/>
-      <c r="EZA17" s="3"/>
-      <c r="EZC17" s="3"/>
-      <c r="EZE17" s="3"/>
-      <c r="EZG17" s="3"/>
-      <c r="EZI17" s="3"/>
-      <c r="EZK17" s="3"/>
-      <c r="EZM17" s="3"/>
-      <c r="EZO17" s="3"/>
-      <c r="EZQ17" s="3"/>
-      <c r="EZS17" s="3"/>
-      <c r="EZU17" s="3"/>
-      <c r="EZW17" s="3"/>
-      <c r="EZY17" s="3"/>
-      <c r="FAA17" s="3"/>
-      <c r="FAC17" s="3"/>
-      <c r="FAE17" s="3"/>
-      <c r="FAG17" s="3"/>
-      <c r="FAI17" s="3"/>
-      <c r="FAK17" s="3"/>
-      <c r="FAM17" s="3"/>
-      <c r="FAO17" s="3"/>
-      <c r="FAQ17" s="3"/>
-      <c r="FAS17" s="3"/>
-      <c r="FAU17" s="3"/>
-      <c r="FAW17" s="3"/>
-      <c r="FAY17" s="3"/>
-      <c r="FBA17" s="3"/>
-      <c r="FBC17" s="3"/>
-      <c r="FBE17" s="3"/>
-      <c r="FBG17" s="3"/>
-      <c r="FBI17" s="3"/>
-      <c r="FBK17" s="3"/>
-      <c r="FBM17" s="3"/>
-      <c r="FBO17" s="3"/>
-      <c r="FBQ17" s="3"/>
-      <c r="FBS17" s="3"/>
-      <c r="FBU17" s="3"/>
-      <c r="FBW17" s="3"/>
-      <c r="FBY17" s="3"/>
-      <c r="FCA17" s="3"/>
-      <c r="FCC17" s="3"/>
-      <c r="FCE17" s="3"/>
-      <c r="FCG17" s="3"/>
-      <c r="FCI17" s="3"/>
-      <c r="FCK17" s="3"/>
-      <c r="FCM17" s="3"/>
-      <c r="FCO17" s="3"/>
-      <c r="FCQ17" s="3"/>
-      <c r="FCS17" s="3"/>
-      <c r="FCU17" s="3"/>
-      <c r="FCW17" s="3"/>
-      <c r="FCY17" s="3"/>
-      <c r="FDA17" s="3"/>
-      <c r="FDC17" s="3"/>
-      <c r="FDE17" s="3"/>
-      <c r="FDG17" s="3"/>
-      <c r="FDI17" s="3"/>
-      <c r="FDK17" s="3"/>
-      <c r="FDM17" s="3"/>
-      <c r="FDO17" s="3"/>
-      <c r="FDQ17" s="3"/>
-      <c r="FDS17" s="3"/>
-      <c r="FDU17" s="3"/>
-      <c r="FDW17" s="3"/>
-      <c r="FDY17" s="3"/>
-      <c r="FEA17" s="3"/>
-      <c r="FEC17" s="3"/>
-      <c r="FEE17" s="3"/>
-      <c r="FEG17" s="3"/>
-      <c r="FEI17" s="3"/>
-      <c r="FEK17" s="3"/>
-      <c r="FEM17" s="3"/>
-      <c r="FEO17" s="3"/>
-      <c r="FEQ17" s="3"/>
-      <c r="FES17" s="3"/>
-      <c r="FEU17" s="3"/>
-      <c r="FEW17" s="3"/>
-      <c r="FEY17" s="3"/>
-      <c r="FFA17" s="3"/>
-      <c r="FFC17" s="3"/>
-      <c r="FFE17" s="3"/>
-      <c r="FFG17" s="3"/>
-      <c r="FFI17" s="3"/>
-      <c r="FFK17" s="3"/>
-      <c r="FFM17" s="3"/>
-      <c r="FFO17" s="3"/>
-      <c r="FFQ17" s="3"/>
-      <c r="FFS17" s="3"/>
-      <c r="FFU17" s="3"/>
-      <c r="FFW17" s="3"/>
-      <c r="FFY17" s="3"/>
-      <c r="FGA17" s="3"/>
-      <c r="FGC17" s="3"/>
-      <c r="FGE17" s="3"/>
-      <c r="FGG17" s="3"/>
-      <c r="FGI17" s="3"/>
-      <c r="FGK17" s="3"/>
-      <c r="FGM17" s="3"/>
-      <c r="FGO17" s="3"/>
-      <c r="FGQ17" s="3"/>
-      <c r="FGS17" s="3"/>
-      <c r="FGU17" s="3"/>
-      <c r="FGW17" s="3"/>
-      <c r="FGY17" s="3"/>
-      <c r="FHA17" s="3"/>
-      <c r="FHC17" s="3"/>
-      <c r="FHE17" s="3"/>
-      <c r="FHG17" s="3"/>
-      <c r="FHI17" s="3"/>
-      <c r="FHK17" s="3"/>
-      <c r="FHM17" s="3"/>
-      <c r="FHO17" s="3"/>
-      <c r="FHQ17" s="3"/>
-      <c r="FHS17" s="3"/>
-      <c r="FHU17" s="3"/>
-      <c r="FHW17" s="3"/>
-      <c r="FHY17" s="3"/>
-      <c r="FIA17" s="3"/>
-      <c r="FIC17" s="3"/>
-      <c r="FIE17" s="3"/>
-      <c r="FIG17" s="3"/>
-      <c r="FII17" s="3"/>
-      <c r="FIK17" s="3"/>
-      <c r="FIM17" s="3"/>
-      <c r="FIO17" s="3"/>
-      <c r="FIQ17" s="3"/>
-      <c r="FIS17" s="3"/>
-      <c r="FIU17" s="3"/>
-      <c r="FIW17" s="3"/>
-      <c r="FIY17" s="3"/>
-      <c r="FJA17" s="3"/>
-      <c r="FJC17" s="3"/>
-      <c r="FJE17" s="3"/>
-      <c r="FJG17" s="3"/>
-      <c r="FJI17" s="3"/>
-      <c r="FJK17" s="3"/>
-      <c r="FJM17" s="3"/>
-      <c r="FJO17" s="3"/>
-      <c r="FJQ17" s="3"/>
-      <c r="FJS17" s="3"/>
-      <c r="FJU17" s="3"/>
-      <c r="FJW17" s="3"/>
-      <c r="FJY17" s="3"/>
-      <c r="FKA17" s="3"/>
-      <c r="FKC17" s="3"/>
-      <c r="FKE17" s="3"/>
-      <c r="FKG17" s="3"/>
-      <c r="FKI17" s="3"/>
-      <c r="FKK17" s="3"/>
-      <c r="FKM17" s="3"/>
-      <c r="FKO17" s="3"/>
-      <c r="FKQ17" s="3"/>
-      <c r="FKS17" s="3"/>
-      <c r="FKU17" s="3"/>
-      <c r="FKW17" s="3"/>
-      <c r="FKY17" s="3"/>
-      <c r="FLA17" s="3"/>
-      <c r="FLC17" s="3"/>
-      <c r="FLE17" s="3"/>
-      <c r="FLG17" s="3"/>
-      <c r="FLI17" s="3"/>
-      <c r="FLK17" s="3"/>
-      <c r="FLM17" s="3"/>
-      <c r="FLO17" s="3"/>
-      <c r="FLQ17" s="3"/>
-      <c r="FLS17" s="3"/>
-      <c r="FLU17" s="3"/>
-      <c r="FLW17" s="3"/>
-      <c r="FLY17" s="3"/>
-      <c r="FMA17" s="3"/>
-      <c r="FMC17" s="3"/>
-      <c r="FME17" s="3"/>
-      <c r="FMG17" s="3"/>
-      <c r="FMI17" s="3"/>
-      <c r="FMK17" s="3"/>
-      <c r="FMM17" s="3"/>
-      <c r="FMO17" s="3"/>
-      <c r="FMQ17" s="3"/>
-      <c r="FMS17" s="3"/>
-      <c r="FMU17" s="3"/>
-      <c r="FMW17" s="3"/>
-      <c r="FMY17" s="3"/>
-      <c r="FNA17" s="3"/>
-      <c r="FNC17" s="3"/>
-      <c r="FNE17" s="3"/>
-      <c r="FNG17" s="3"/>
-      <c r="FNI17" s="3"/>
-      <c r="FNK17" s="3"/>
-      <c r="FNM17" s="3"/>
-      <c r="FNO17" s="3"/>
-      <c r="FNQ17" s="3"/>
-      <c r="FNS17" s="3"/>
-      <c r="FNU17" s="3"/>
-      <c r="FNW17" s="3"/>
-      <c r="FNY17" s="3"/>
-      <c r="FOA17" s="3"/>
-      <c r="FOC17" s="3"/>
-      <c r="FOE17" s="3"/>
-      <c r="FOG17" s="3"/>
-      <c r="FOI17" s="3"/>
-      <c r="FOK17" s="3"/>
-      <c r="FOM17" s="3"/>
-      <c r="FOO17" s="3"/>
-      <c r="FOQ17" s="3"/>
-      <c r="FOS17" s="3"/>
-      <c r="FOU17" s="3"/>
-      <c r="FOW17" s="3"/>
-      <c r="FOY17" s="3"/>
-      <c r="FPA17" s="3"/>
-      <c r="FPC17" s="3"/>
-      <c r="FPE17" s="3"/>
-      <c r="FPG17" s="3"/>
-      <c r="FPI17" s="3"/>
-      <c r="FPK17" s="3"/>
-      <c r="FPM17" s="3"/>
-      <c r="FPO17" s="3"/>
-      <c r="FPQ17" s="3"/>
-      <c r="FPS17" s="3"/>
-      <c r="FPU17" s="3"/>
-      <c r="FPW17" s="3"/>
-      <c r="FPY17" s="3"/>
-      <c r="FQA17" s="3"/>
-      <c r="FQC17" s="3"/>
-      <c r="FQE17" s="3"/>
-      <c r="FQG17" s="3"/>
-      <c r="FQI17" s="3"/>
-      <c r="FQK17" s="3"/>
-      <c r="FQM17" s="3"/>
-      <c r="FQO17" s="3"/>
-      <c r="FQQ17" s="3"/>
-      <c r="FQS17" s="3"/>
-      <c r="FQU17" s="3"/>
-      <c r="FQW17" s="3"/>
-      <c r="FQY17" s="3"/>
-      <c r="FRA17" s="3"/>
-      <c r="FRC17" s="3"/>
-      <c r="FRE17" s="3"/>
-      <c r="FRG17" s="3"/>
-      <c r="FRI17" s="3"/>
-      <c r="FRK17" s="3"/>
-      <c r="FRM17" s="3"/>
-      <c r="FRO17" s="3"/>
-      <c r="FRQ17" s="3"/>
-      <c r="FRS17" s="3"/>
-      <c r="FRU17" s="3"/>
-      <c r="FRW17" s="3"/>
-      <c r="FRY17" s="3"/>
-      <c r="FSA17" s="3"/>
-      <c r="FSC17" s="3"/>
-      <c r="FSE17" s="3"/>
-      <c r="FSG17" s="3"/>
-      <c r="FSI17" s="3"/>
-      <c r="FSK17" s="3"/>
-      <c r="FSM17" s="3"/>
-      <c r="FSO17" s="3"/>
-      <c r="FSQ17" s="3"/>
-      <c r="FSS17" s="3"/>
-      <c r="FSU17" s="3"/>
-      <c r="FSW17" s="3"/>
-      <c r="FSY17" s="3"/>
-      <c r="FTA17" s="3"/>
-      <c r="FTC17" s="3"/>
-      <c r="FTE17" s="3"/>
-      <c r="FTG17" s="3"/>
-      <c r="FTI17" s="3"/>
-      <c r="FTK17" s="3"/>
-      <c r="FTM17" s="3"/>
-      <c r="FTO17" s="3"/>
-      <c r="FTQ17" s="3"/>
-      <c r="FTS17" s="3"/>
-      <c r="FTU17" s="3"/>
-      <c r="FTW17" s="3"/>
-      <c r="FTY17" s="3"/>
-      <c r="FUA17" s="3"/>
-      <c r="FUC17" s="3"/>
-      <c r="FUE17" s="3"/>
-      <c r="FUG17" s="3"/>
-      <c r="FUI17" s="3"/>
-      <c r="FUK17" s="3"/>
-      <c r="FUM17" s="3"/>
-      <c r="FUO17" s="3"/>
-      <c r="FUQ17" s="3"/>
-      <c r="FUS17" s="3"/>
-      <c r="FUU17" s="3"/>
-      <c r="FUW17" s="3"/>
-      <c r="FUY17" s="3"/>
-      <c r="FVA17" s="3"/>
-      <c r="FVC17" s="3"/>
-      <c r="FVE17" s="3"/>
-      <c r="FVG17" s="3"/>
-      <c r="FVI17" s="3"/>
-      <c r="FVK17" s="3"/>
-      <c r="FVM17" s="3"/>
-      <c r="FVO17" s="3"/>
-      <c r="FVQ17" s="3"/>
-      <c r="FVS17" s="3"/>
-      <c r="FVU17" s="3"/>
-      <c r="FVW17" s="3"/>
-      <c r="FVY17" s="3"/>
-      <c r="FWA17" s="3"/>
-      <c r="FWC17" s="3"/>
-      <c r="FWE17" s="3"/>
-      <c r="FWG17" s="3"/>
-      <c r="FWI17" s="3"/>
-      <c r="FWK17" s="3"/>
-      <c r="FWM17" s="3"/>
-      <c r="FWO17" s="3"/>
-      <c r="FWQ17" s="3"/>
-      <c r="FWS17" s="3"/>
-      <c r="FWU17" s="3"/>
-      <c r="FWW17" s="3"/>
-      <c r="FWY17" s="3"/>
-      <c r="FXA17" s="3"/>
-      <c r="FXC17" s="3"/>
-      <c r="FXE17" s="3"/>
-      <c r="FXG17" s="3"/>
-      <c r="FXI17" s="3"/>
-      <c r="FXK17" s="3"/>
-      <c r="FXM17" s="3"/>
-      <c r="FXO17" s="3"/>
-      <c r="FXQ17" s="3"/>
-      <c r="FXS17" s="3"/>
-      <c r="FXU17" s="3"/>
-      <c r="FXW17" s="3"/>
-      <c r="FXY17" s="3"/>
-      <c r="FYA17" s="3"/>
-      <c r="FYC17" s="3"/>
-      <c r="FYE17" s="3"/>
-      <c r="FYG17" s="3"/>
-      <c r="FYI17" s="3"/>
-      <c r="FYK17" s="3"/>
-      <c r="FYM17" s="3"/>
-      <c r="FYO17" s="3"/>
-      <c r="FYQ17" s="3"/>
-      <c r="FYS17" s="3"/>
-      <c r="FYU17" s="3"/>
-      <c r="FYW17" s="3"/>
-      <c r="FYY17" s="3"/>
-      <c r="FZA17" s="3"/>
-      <c r="FZC17" s="3"/>
-      <c r="FZE17" s="3"/>
-      <c r="FZG17" s="3"/>
-      <c r="FZI17" s="3"/>
-      <c r="FZK17" s="3"/>
-      <c r="FZM17" s="3"/>
-      <c r="FZO17" s="3"/>
-      <c r="FZQ17" s="3"/>
-      <c r="FZS17" s="3"/>
-      <c r="FZU17" s="3"/>
-      <c r="FZW17" s="3"/>
-      <c r="FZY17" s="3"/>
-      <c r="GAA17" s="3"/>
-      <c r="GAC17" s="3"/>
-      <c r="GAE17" s="3"/>
-      <c r="GAG17" s="3"/>
-      <c r="GAI17" s="3"/>
-      <c r="GAK17" s="3"/>
-      <c r="GAM17" s="3"/>
-      <c r="GAO17" s="3"/>
-      <c r="GAQ17" s="3"/>
-      <c r="GAS17" s="3"/>
-      <c r="GAU17" s="3"/>
-      <c r="GAW17" s="3"/>
-      <c r="GAY17" s="3"/>
-      <c r="GBA17" s="3"/>
-      <c r="GBC17" s="3"/>
-      <c r="GBE17" s="3"/>
-      <c r="GBG17" s="3"/>
-      <c r="GBI17" s="3"/>
-      <c r="GBK17" s="3"/>
-      <c r="GBM17" s="3"/>
-      <c r="GBO17" s="3"/>
-      <c r="GBQ17" s="3"/>
-      <c r="GBS17" s="3"/>
-      <c r="GBU17" s="3"/>
-      <c r="GBW17" s="3"/>
-      <c r="GBY17" s="3"/>
-      <c r="GCA17" s="3"/>
-      <c r="GCC17" s="3"/>
-      <c r="GCE17" s="3"/>
-      <c r="GCG17" s="3"/>
-      <c r="GCI17" s="3"/>
-      <c r="GCK17" s="3"/>
-      <c r="GCM17" s="3"/>
-      <c r="GCO17" s="3"/>
-      <c r="GCQ17" s="3"/>
-      <c r="GCS17" s="3"/>
-      <c r="GCU17" s="3"/>
-      <c r="GCW17" s="3"/>
-      <c r="GCY17" s="3"/>
-      <c r="GDA17" s="3"/>
-      <c r="GDC17" s="3"/>
-      <c r="GDE17" s="3"/>
-      <c r="GDG17" s="3"/>
-      <c r="GDI17" s="3"/>
-      <c r="GDK17" s="3"/>
-      <c r="GDM17" s="3"/>
-      <c r="GDO17" s="3"/>
-      <c r="GDQ17" s="3"/>
-      <c r="GDS17" s="3"/>
-      <c r="GDU17" s="3"/>
-      <c r="GDW17" s="3"/>
-      <c r="GDY17" s="3"/>
-      <c r="GEA17" s="3"/>
-      <c r="GEC17" s="3"/>
-      <c r="GEE17" s="3"/>
-      <c r="GEG17" s="3"/>
-      <c r="GEI17" s="3"/>
-      <c r="GEK17" s="3"/>
-      <c r="GEM17" s="3"/>
-      <c r="GEO17" s="3"/>
-      <c r="GEQ17" s="3"/>
-      <c r="GES17" s="3"/>
-      <c r="GEU17" s="3"/>
-      <c r="GEW17" s="3"/>
-      <c r="GEY17" s="3"/>
-      <c r="GFA17" s="3"/>
-      <c r="GFC17" s="3"/>
-      <c r="GFE17" s="3"/>
-      <c r="GFG17" s="3"/>
-      <c r="GFI17" s="3"/>
-      <c r="GFK17" s="3"/>
-      <c r="GFM17" s="3"/>
-      <c r="GFO17" s="3"/>
-      <c r="GFQ17" s="3"/>
-      <c r="GFS17" s="3"/>
-      <c r="GFU17" s="3"/>
-      <c r="GFW17" s="3"/>
-      <c r="GFY17" s="3"/>
-      <c r="GGA17" s="3"/>
-      <c r="GGC17" s="3"/>
-      <c r="GGE17" s="3"/>
-      <c r="GGG17" s="3"/>
-      <c r="GGI17" s="3"/>
-      <c r="GGK17" s="3"/>
-      <c r="GGM17" s="3"/>
-      <c r="GGO17" s="3"/>
-      <c r="GGQ17" s="3"/>
-      <c r="GGS17" s="3"/>
-      <c r="GGU17" s="3"/>
-      <c r="GGW17" s="3"/>
-      <c r="GGY17" s="3"/>
-      <c r="GHA17" s="3"/>
-      <c r="GHC17" s="3"/>
-      <c r="GHE17" s="3"/>
-      <c r="GHG17" s="3"/>
-      <c r="GHI17" s="3"/>
-      <c r="GHK17" s="3"/>
-      <c r="GHM17" s="3"/>
-      <c r="GHO17" s="3"/>
-      <c r="GHQ17" s="3"/>
-      <c r="GHS17" s="3"/>
-      <c r="GHU17" s="3"/>
-      <c r="GHW17" s="3"/>
-      <c r="GHY17" s="3"/>
-      <c r="GIA17" s="3"/>
-      <c r="GIC17" s="3"/>
-      <c r="GIE17" s="3"/>
-      <c r="GIG17" s="3"/>
-      <c r="GII17" s="3"/>
-      <c r="GIK17" s="3"/>
-      <c r="GIM17" s="3"/>
-      <c r="GIO17" s="3"/>
-      <c r="GIQ17" s="3"/>
-      <c r="GIS17" s="3"/>
-      <c r="GIU17" s="3"/>
-      <c r="GIW17" s="3"/>
-      <c r="GIY17" s="3"/>
-      <c r="GJA17" s="3"/>
-      <c r="GJC17" s="3"/>
-      <c r="GJE17" s="3"/>
-      <c r="GJG17" s="3"/>
-      <c r="GJI17" s="3"/>
-      <c r="GJK17" s="3"/>
-      <c r="GJM17" s="3"/>
-      <c r="GJO17" s="3"/>
-      <c r="GJQ17" s="3"/>
-      <c r="GJS17" s="3"/>
-      <c r="GJU17" s="3"/>
-      <c r="GJW17" s="3"/>
-      <c r="GJY17" s="3"/>
-      <c r="GKA17" s="3"/>
-      <c r="GKC17" s="3"/>
-      <c r="GKE17" s="3"/>
-      <c r="GKG17" s="3"/>
-      <c r="GKI17" s="3"/>
-      <c r="GKK17" s="3"/>
-      <c r="GKM17" s="3"/>
-      <c r="GKO17" s="3"/>
-      <c r="GKQ17" s="3"/>
-      <c r="GKS17" s="3"/>
-      <c r="GKU17" s="3"/>
-      <c r="GKW17" s="3"/>
-      <c r="GKY17" s="3"/>
-      <c r="GLA17" s="3"/>
-      <c r="GLC17" s="3"/>
-      <c r="GLE17" s="3"/>
-      <c r="GLG17" s="3"/>
-      <c r="GLI17" s="3"/>
-      <c r="GLK17" s="3"/>
-      <c r="GLM17" s="3"/>
-      <c r="GLO17" s="3"/>
-      <c r="GLQ17" s="3"/>
-      <c r="GLS17" s="3"/>
-      <c r="GLU17" s="3"/>
-      <c r="GLW17" s="3"/>
-      <c r="GLY17" s="3"/>
-      <c r="GMA17" s="3"/>
-      <c r="GMC17" s="3"/>
-      <c r="GME17" s="3"/>
-      <c r="GMG17" s="3"/>
-      <c r="GMI17" s="3"/>
-      <c r="GMK17" s="3"/>
-      <c r="GMM17" s="3"/>
-      <c r="GMO17" s="3"/>
-      <c r="GMQ17" s="3"/>
-      <c r="GMS17" s="3"/>
-      <c r="GMU17" s="3"/>
-      <c r="GMW17" s="3"/>
-      <c r="GMY17" s="3"/>
-      <c r="GNA17" s="3"/>
-      <c r="GNC17" s="3"/>
-      <c r="GNE17" s="3"/>
-      <c r="GNG17" s="3"/>
-      <c r="GNI17" s="3"/>
-      <c r="GNK17" s="3"/>
-      <c r="GNM17" s="3"/>
-      <c r="GNO17" s="3"/>
-      <c r="GNQ17" s="3"/>
-      <c r="GNS17" s="3"/>
-      <c r="GNU17" s="3"/>
-      <c r="GNW17" s="3"/>
-      <c r="GNY17" s="3"/>
-      <c r="GOA17" s="3"/>
-      <c r="GOC17" s="3"/>
-      <c r="GOE17" s="3"/>
-      <c r="GOG17" s="3"/>
-      <c r="GOI17" s="3"/>
-      <c r="GOK17" s="3"/>
-      <c r="GOM17" s="3"/>
-      <c r="GOO17" s="3"/>
-      <c r="GOQ17" s="3"/>
-      <c r="GOS17" s="3"/>
-      <c r="GOU17" s="3"/>
-      <c r="GOW17" s="3"/>
-      <c r="GOY17" s="3"/>
-      <c r="GPA17" s="3"/>
-      <c r="GPC17" s="3"/>
-      <c r="GPE17" s="3"/>
-      <c r="GPG17" s="3"/>
-      <c r="GPI17" s="3"/>
-      <c r="GPK17" s="3"/>
-      <c r="GPM17" s="3"/>
-      <c r="GPO17" s="3"/>
-      <c r="GPQ17" s="3"/>
-      <c r="GPS17" s="3"/>
-      <c r="GPU17" s="3"/>
-      <c r="GPW17" s="3"/>
-      <c r="GPY17" s="3"/>
-      <c r="GQA17" s="3"/>
-      <c r="GQC17" s="3"/>
-      <c r="GQE17" s="3"/>
-      <c r="GQG17" s="3"/>
-      <c r="GQI17" s="3"/>
-      <c r="GQK17" s="3"/>
-      <c r="GQM17" s="3"/>
-      <c r="GQO17" s="3"/>
-      <c r="GQQ17" s="3"/>
-      <c r="GQS17" s="3"/>
-      <c r="GQU17" s="3"/>
-      <c r="GQW17" s="3"/>
-      <c r="GQY17" s="3"/>
-      <c r="GRA17" s="3"/>
-      <c r="GRC17" s="3"/>
-      <c r="GRE17" s="3"/>
-      <c r="GRG17" s="3"/>
-      <c r="GRI17" s="3"/>
-      <c r="GRK17" s="3"/>
-      <c r="GRM17" s="3"/>
-      <c r="GRO17" s="3"/>
-      <c r="GRQ17" s="3"/>
-      <c r="GRS17" s="3"/>
-      <c r="GRU17" s="3"/>
-      <c r="GRW17" s="3"/>
-      <c r="GRY17" s="3"/>
-      <c r="GSA17" s="3"/>
-      <c r="GSC17" s="3"/>
-      <c r="GSE17" s="3"/>
-      <c r="GSG17" s="3"/>
-      <c r="GSI17" s="3"/>
-      <c r="GSK17" s="3"/>
-      <c r="GSM17" s="3"/>
-      <c r="GSO17" s="3"/>
-      <c r="GSQ17" s="3"/>
-      <c r="GSS17" s="3"/>
-      <c r="GSU17" s="3"/>
-      <c r="GSW17" s="3"/>
-      <c r="GSY17" s="3"/>
-      <c r="GTA17" s="3"/>
-      <c r="GTC17" s="3"/>
-      <c r="GTE17" s="3"/>
-      <c r="GTG17" s="3"/>
-      <c r="GTI17" s="3"/>
-      <c r="GTK17" s="3"/>
-      <c r="GTM17" s="3"/>
-      <c r="GTO17" s="3"/>
-      <c r="GTQ17" s="3"/>
-      <c r="GTS17" s="3"/>
-      <c r="GTU17" s="3"/>
-      <c r="GTW17" s="3"/>
-      <c r="GTY17" s="3"/>
-      <c r="GUA17" s="3"/>
-      <c r="GUC17" s="3"/>
-      <c r="GUE17" s="3"/>
-      <c r="GUG17" s="3"/>
-      <c r="GUI17" s="3"/>
-      <c r="GUK17" s="3"/>
-      <c r="GUM17" s="3"/>
-      <c r="GUO17" s="3"/>
-      <c r="GUQ17" s="3"/>
-      <c r="GUS17" s="3"/>
-      <c r="GUU17" s="3"/>
-      <c r="GUW17" s="3"/>
-      <c r="GUY17" s="3"/>
-      <c r="GVA17" s="3"/>
-      <c r="GVC17" s="3"/>
-      <c r="GVE17" s="3"/>
-      <c r="GVG17" s="3"/>
-      <c r="GVI17" s="3"/>
-      <c r="GVK17" s="3"/>
-      <c r="GVM17" s="3"/>
-      <c r="GVO17" s="3"/>
-      <c r="GVQ17" s="3"/>
-      <c r="GVS17" s="3"/>
-      <c r="GVU17" s="3"/>
-      <c r="GVW17" s="3"/>
-      <c r="GVY17" s="3"/>
-      <c r="GWA17" s="3"/>
-      <c r="GWC17" s="3"/>
-      <c r="GWE17" s="3"/>
-      <c r="GWG17" s="3"/>
-      <c r="GWI17" s="3"/>
-      <c r="GWK17" s="3"/>
-      <c r="GWM17" s="3"/>
-      <c r="GWO17" s="3"/>
-      <c r="GWQ17" s="3"/>
-      <c r="GWS17" s="3"/>
-      <c r="GWU17" s="3"/>
-      <c r="GWW17" s="3"/>
-      <c r="GWY17" s="3"/>
-      <c r="GXA17" s="3"/>
-      <c r="GXC17" s="3"/>
-      <c r="GXE17" s="3"/>
-      <c r="GXG17" s="3"/>
-      <c r="GXI17" s="3"/>
-      <c r="GXK17" s="3"/>
-      <c r="GXM17" s="3"/>
-      <c r="GXO17" s="3"/>
-      <c r="GXQ17" s="3"/>
-      <c r="GXS17" s="3"/>
-      <c r="GXU17" s="3"/>
-      <c r="GXW17" s="3"/>
-      <c r="GXY17" s="3"/>
-      <c r="GYA17" s="3"/>
-      <c r="GYC17" s="3"/>
-      <c r="GYE17" s="3"/>
-      <c r="GYG17" s="3"/>
-      <c r="GYI17" s="3"/>
-      <c r="GYK17" s="3"/>
-      <c r="GYM17" s="3"/>
-      <c r="GYO17" s="3"/>
-      <c r="GYQ17" s="3"/>
-      <c r="GYS17" s="3"/>
-      <c r="GYU17" s="3"/>
-      <c r="GYW17" s="3"/>
-      <c r="GYY17" s="3"/>
-      <c r="GZA17" s="3"/>
-      <c r="GZC17" s="3"/>
-      <c r="GZE17" s="3"/>
-      <c r="GZG17" s="3"/>
-      <c r="GZI17" s="3"/>
-      <c r="GZK17" s="3"/>
-      <c r="GZM17" s="3"/>
-      <c r="GZO17" s="3"/>
-      <c r="GZQ17" s="3"/>
-      <c r="GZS17" s="3"/>
-      <c r="GZU17" s="3"/>
-      <c r="GZW17" s="3"/>
-      <c r="GZY17" s="3"/>
-      <c r="HAA17" s="3"/>
-      <c r="HAC17" s="3"/>
-      <c r="HAE17" s="3"/>
-      <c r="HAG17" s="3"/>
-      <c r="HAI17" s="3"/>
-      <c r="HAK17" s="3"/>
-      <c r="HAM17" s="3"/>
-      <c r="HAO17" s="3"/>
-      <c r="HAQ17" s="3"/>
-      <c r="HAS17" s="3"/>
-      <c r="HAU17" s="3"/>
-      <c r="HAW17" s="3"/>
-      <c r="HAY17" s="3"/>
-      <c r="HBA17" s="3"/>
-      <c r="HBC17" s="3"/>
-      <c r="HBE17" s="3"/>
-      <c r="HBG17" s="3"/>
-      <c r="HBI17" s="3"/>
-      <c r="HBK17" s="3"/>
-      <c r="HBM17" s="3"/>
-      <c r="HBO17" s="3"/>
-      <c r="HBQ17" s="3"/>
-      <c r="HBS17" s="3"/>
-      <c r="HBU17" s="3"/>
-      <c r="HBW17" s="3"/>
-      <c r="HBY17" s="3"/>
-      <c r="HCA17" s="3"/>
-      <c r="HCC17" s="3"/>
-      <c r="HCE17" s="3"/>
-      <c r="HCG17" s="3"/>
-      <c r="HCI17" s="3"/>
-      <c r="HCK17" s="3"/>
-      <c r="HCM17" s="3"/>
-      <c r="HCO17" s="3"/>
-      <c r="HCQ17" s="3"/>
-      <c r="HCS17" s="3"/>
-      <c r="HCU17" s="3"/>
-      <c r="HCW17" s="3"/>
-      <c r="HCY17" s="3"/>
-      <c r="HDA17" s="3"/>
-      <c r="HDC17" s="3"/>
-      <c r="HDE17" s="3"/>
-      <c r="HDG17" s="3"/>
-      <c r="HDI17" s="3"/>
-      <c r="HDK17" s="3"/>
-      <c r="HDM17" s="3"/>
-      <c r="HDO17" s="3"/>
-      <c r="HDQ17" s="3"/>
-      <c r="HDS17" s="3"/>
-      <c r="HDU17" s="3"/>
-      <c r="HDW17" s="3"/>
-      <c r="HDY17" s="3"/>
-      <c r="HEA17" s="3"/>
-      <c r="HEC17" s="3"/>
-      <c r="HEE17" s="3"/>
-      <c r="HEG17" s="3"/>
-      <c r="HEI17" s="3"/>
-      <c r="HEK17" s="3"/>
-      <c r="HEM17" s="3"/>
-      <c r="HEO17" s="3"/>
-      <c r="HEQ17" s="3"/>
-      <c r="HES17" s="3"/>
-      <c r="HEU17" s="3"/>
-      <c r="HEW17" s="3"/>
-      <c r="HEY17" s="3"/>
-      <c r="HFA17" s="3"/>
-      <c r="HFC17" s="3"/>
-      <c r="HFE17" s="3"/>
-      <c r="HFG17" s="3"/>
-      <c r="HFI17" s="3"/>
-      <c r="HFK17" s="3"/>
-      <c r="HFM17" s="3"/>
-      <c r="HFO17" s="3"/>
-      <c r="HFQ17" s="3"/>
-      <c r="HFS17" s="3"/>
-      <c r="HFU17" s="3"/>
-      <c r="HFW17" s="3"/>
-      <c r="HFY17" s="3"/>
-      <c r="HGA17" s="3"/>
-      <c r="HGC17" s="3"/>
-      <c r="HGE17" s="3"/>
-      <c r="HGG17" s="3"/>
-      <c r="HGI17" s="3"/>
-      <c r="HGK17" s="3"/>
-      <c r="HGM17" s="3"/>
-      <c r="HGO17" s="3"/>
-      <c r="HGQ17" s="3"/>
-      <c r="HGS17" s="3"/>
-      <c r="HGU17" s="3"/>
-      <c r="HGW17" s="3"/>
-      <c r="HGY17" s="3"/>
-      <c r="HHA17" s="3"/>
-      <c r="HHC17" s="3"/>
-      <c r="HHE17" s="3"/>
-      <c r="HHG17" s="3"/>
-      <c r="HHI17" s="3"/>
-      <c r="HHK17" s="3"/>
-      <c r="HHM17" s="3"/>
-      <c r="HHO17" s="3"/>
-      <c r="HHQ17" s="3"/>
-      <c r="HHS17" s="3"/>
-      <c r="HHU17" s="3"/>
-      <c r="HHW17" s="3"/>
-      <c r="HHY17" s="3"/>
-      <c r="HIA17" s="3"/>
-      <c r="HIC17" s="3"/>
-      <c r="HIE17" s="3"/>
-      <c r="HIG17" s="3"/>
-      <c r="HII17" s="3"/>
-      <c r="HIK17" s="3"/>
-      <c r="HIM17" s="3"/>
-      <c r="HIO17" s="3"/>
-      <c r="HIQ17" s="3"/>
-      <c r="HIS17" s="3"/>
-      <c r="HIU17" s="3"/>
-      <c r="HIW17" s="3"/>
-      <c r="HIY17" s="3"/>
-      <c r="HJA17" s="3"/>
-      <c r="HJC17" s="3"/>
-      <c r="HJE17" s="3"/>
-      <c r="HJG17" s="3"/>
-      <c r="HJI17" s="3"/>
-      <c r="HJK17" s="3"/>
-      <c r="HJM17" s="3"/>
-      <c r="HJO17" s="3"/>
-      <c r="HJQ17" s="3"/>
-      <c r="HJS17" s="3"/>
-      <c r="HJU17" s="3"/>
-      <c r="HJW17" s="3"/>
-      <c r="HJY17" s="3"/>
-      <c r="HKA17" s="3"/>
-      <c r="HKC17" s="3"/>
-      <c r="HKE17" s="3"/>
-      <c r="HKG17" s="3"/>
-      <c r="HKI17" s="3"/>
-      <c r="HKK17" s="3"/>
-      <c r="HKM17" s="3"/>
-      <c r="HKO17" s="3"/>
-      <c r="HKQ17" s="3"/>
-      <c r="HKS17" s="3"/>
-      <c r="HKU17" s="3"/>
-      <c r="HKW17" s="3"/>
-      <c r="HKY17" s="3"/>
-      <c r="HLA17" s="3"/>
-      <c r="HLC17" s="3"/>
-      <c r="HLE17" s="3"/>
-      <c r="HLG17" s="3"/>
-      <c r="HLI17" s="3"/>
-      <c r="HLK17" s="3"/>
-      <c r="HLM17" s="3"/>
-      <c r="HLO17" s="3"/>
-      <c r="HLQ17" s="3"/>
-      <c r="HLS17" s="3"/>
-      <c r="HLU17" s="3"/>
-      <c r="HLW17" s="3"/>
-      <c r="HLY17" s="3"/>
-      <c r="HMA17" s="3"/>
-      <c r="HMC17" s="3"/>
-      <c r="HME17" s="3"/>
-      <c r="HMG17" s="3"/>
-      <c r="HMI17" s="3"/>
-      <c r="HMK17" s="3"/>
-      <c r="HMM17" s="3"/>
-      <c r="HMO17" s="3"/>
-      <c r="HMQ17" s="3"/>
-      <c r="HMS17" s="3"/>
-      <c r="HMU17" s="3"/>
-      <c r="HMW17" s="3"/>
-      <c r="HMY17" s="3"/>
-      <c r="HNA17" s="3"/>
-      <c r="HNC17" s="3"/>
-      <c r="HNE17" s="3"/>
-      <c r="HNG17" s="3"/>
-      <c r="HNI17" s="3"/>
-      <c r="HNK17" s="3"/>
-      <c r="HNM17" s="3"/>
-      <c r="HNO17" s="3"/>
-      <c r="HNQ17" s="3"/>
-      <c r="HNS17" s="3"/>
-      <c r="HNU17" s="3"/>
-      <c r="HNW17" s="3"/>
-      <c r="HNY17" s="3"/>
-      <c r="HOA17" s="3"/>
-      <c r="HOC17" s="3"/>
-      <c r="HOE17" s="3"/>
-      <c r="HOG17" s="3"/>
-      <c r="HOI17" s="3"/>
-      <c r="HOK17" s="3"/>
-      <c r="HOM17" s="3"/>
-      <c r="HOO17" s="3"/>
-      <c r="HOQ17" s="3"/>
-      <c r="HOS17" s="3"/>
-      <c r="HOU17" s="3"/>
-      <c r="HOW17" s="3"/>
-      <c r="HOY17" s="3"/>
-      <c r="HPA17" s="3"/>
-      <c r="HPC17" s="3"/>
-      <c r="HPE17" s="3"/>
-      <c r="HPG17" s="3"/>
-      <c r="HPI17" s="3"/>
-      <c r="HPK17" s="3"/>
-      <c r="HPM17" s="3"/>
-      <c r="HPO17" s="3"/>
-      <c r="HPQ17" s="3"/>
-      <c r="HPS17" s="3"/>
-      <c r="HPU17" s="3"/>
-      <c r="HPW17" s="3"/>
-      <c r="HPY17" s="3"/>
-      <c r="HQA17" s="3"/>
-      <c r="HQC17" s="3"/>
-      <c r="HQE17" s="3"/>
-      <c r="HQG17" s="3"/>
-      <c r="HQI17" s="3"/>
-      <c r="HQK17" s="3"/>
-      <c r="HQM17" s="3"/>
-      <c r="HQO17" s="3"/>
-      <c r="HQQ17" s="3"/>
-      <c r="HQS17" s="3"/>
-      <c r="HQU17" s="3"/>
-      <c r="HQW17" s="3"/>
-      <c r="HQY17" s="3"/>
-      <c r="HRA17" s="3"/>
-      <c r="HRC17" s="3"/>
-      <c r="HRE17" s="3"/>
-      <c r="HRG17" s="3"/>
-      <c r="HRI17" s="3"/>
-      <c r="HRK17" s="3"/>
-      <c r="HRM17" s="3"/>
-      <c r="HRO17" s="3"/>
-      <c r="HRQ17" s="3"/>
-      <c r="HRS17" s="3"/>
-      <c r="HRU17" s="3"/>
-      <c r="HRW17" s="3"/>
-      <c r="HRY17" s="3"/>
-      <c r="HSA17" s="3"/>
-      <c r="HSC17" s="3"/>
-      <c r="HSE17" s="3"/>
-      <c r="HSG17" s="3"/>
-      <c r="HSI17" s="3"/>
-      <c r="HSK17" s="3"/>
-      <c r="HSM17" s="3"/>
-      <c r="HSO17" s="3"/>
-      <c r="HSQ17" s="3"/>
-      <c r="HSS17" s="3"/>
-      <c r="HSU17" s="3"/>
-      <c r="HSW17" s="3"/>
-      <c r="HSY17" s="3"/>
-      <c r="HTA17" s="3"/>
-      <c r="HTC17" s="3"/>
-      <c r="HTE17" s="3"/>
-      <c r="HTG17" s="3"/>
-      <c r="HTI17" s="3"/>
-      <c r="HTK17" s="3"/>
-      <c r="HTM17" s="3"/>
-      <c r="HTO17" s="3"/>
-      <c r="HTQ17" s="3"/>
-      <c r="HTS17" s="3"/>
-      <c r="HTU17" s="3"/>
-      <c r="HTW17" s="3"/>
-      <c r="HTY17" s="3"/>
-      <c r="HUA17" s="3"/>
-      <c r="HUC17" s="3"/>
-      <c r="HUE17" s="3"/>
-      <c r="HUG17" s="3"/>
-      <c r="HUI17" s="3"/>
-      <c r="HUK17" s="3"/>
-      <c r="HUM17" s="3"/>
-      <c r="HUO17" s="3"/>
-      <c r="HUQ17" s="3"/>
-      <c r="HUS17" s="3"/>
-      <c r="HUU17" s="3"/>
-      <c r="HUW17" s="3"/>
-      <c r="HUY17" s="3"/>
-      <c r="HVA17" s="3"/>
-      <c r="HVC17" s="3"/>
-      <c r="HVE17" s="3"/>
-      <c r="HVG17" s="3"/>
-      <c r="HVI17" s="3"/>
-      <c r="HVK17" s="3"/>
-      <c r="HVM17" s="3"/>
-      <c r="HVO17" s="3"/>
-      <c r="HVQ17" s="3"/>
-      <c r="HVS17" s="3"/>
-      <c r="HVU17" s="3"/>
-      <c r="HVW17" s="3"/>
-      <c r="HVY17" s="3"/>
-      <c r="HWA17" s="3"/>
-      <c r="HWC17" s="3"/>
-      <c r="HWE17" s="3"/>
-      <c r="HWG17" s="3"/>
-      <c r="HWI17" s="3"/>
-      <c r="HWK17" s="3"/>
-      <c r="HWM17" s="3"/>
-      <c r="HWO17" s="3"/>
-      <c r="HWQ17" s="3"/>
-      <c r="HWS17" s="3"/>
-      <c r="HWU17" s="3"/>
-      <c r="HWW17" s="3"/>
-      <c r="HWY17" s="3"/>
-      <c r="HXA17" s="3"/>
-      <c r="HXC17" s="3"/>
-      <c r="HXE17" s="3"/>
-      <c r="HXG17" s="3"/>
-      <c r="HXI17" s="3"/>
-      <c r="HXK17" s="3"/>
-      <c r="HXM17" s="3"/>
-      <c r="HXO17" s="3"/>
-      <c r="HXQ17" s="3"/>
-      <c r="HXS17" s="3"/>
-      <c r="HXU17" s="3"/>
-      <c r="HXW17" s="3"/>
-      <c r="HXY17" s="3"/>
-      <c r="HYA17" s="3"/>
-      <c r="HYC17" s="3"/>
-      <c r="HYE17" s="3"/>
-      <c r="HYG17" s="3"/>
-      <c r="HYI17" s="3"/>
-      <c r="HYK17" s="3"/>
-      <c r="HYM17" s="3"/>
-      <c r="HYO17" s="3"/>
-      <c r="HYQ17" s="3"/>
-      <c r="HYS17" s="3"/>
-      <c r="HYU17" s="3"/>
-      <c r="HYW17" s="3"/>
-      <c r="HYY17" s="3"/>
-      <c r="HZA17" s="3"/>
-      <c r="HZC17" s="3"/>
-      <c r="HZE17" s="3"/>
-      <c r="HZG17" s="3"/>
-      <c r="HZI17" s="3"/>
-      <c r="HZK17" s="3"/>
-      <c r="HZM17" s="3"/>
-      <c r="HZO17" s="3"/>
-      <c r="HZQ17" s="3"/>
-      <c r="HZS17" s="3"/>
-      <c r="HZU17" s="3"/>
-      <c r="HZW17" s="3"/>
-      <c r="HZY17" s="3"/>
-      <c r="IAA17" s="3"/>
-      <c r="IAC17" s="3"/>
-      <c r="IAE17" s="3"/>
-      <c r="IAG17" s="3"/>
-      <c r="IAI17" s="3"/>
-      <c r="IAK17" s="3"/>
-      <c r="IAM17" s="3"/>
-      <c r="IAO17" s="3"/>
-      <c r="IAQ17" s="3"/>
-      <c r="IAS17" s="3"/>
-      <c r="IAU17" s="3"/>
-      <c r="IAW17" s="3"/>
-      <c r="IAY17" s="3"/>
-      <c r="IBA17" s="3"/>
-      <c r="IBC17" s="3"/>
-      <c r="IBE17" s="3"/>
-      <c r="IBG17" s="3"/>
-      <c r="IBI17" s="3"/>
-      <c r="IBK17" s="3"/>
-      <c r="IBM17" s="3"/>
-      <c r="IBO17" s="3"/>
-      <c r="IBQ17" s="3"/>
-      <c r="IBS17" s="3"/>
-      <c r="IBU17" s="3"/>
-      <c r="IBW17" s="3"/>
-      <c r="IBY17" s="3"/>
-      <c r="ICA17" s="3"/>
-      <c r="ICC17" s="3"/>
-      <c r="ICE17" s="3"/>
-      <c r="ICG17" s="3"/>
-      <c r="ICI17" s="3"/>
-      <c r="ICK17" s="3"/>
-      <c r="ICM17" s="3"/>
-      <c r="ICO17" s="3"/>
-      <c r="ICQ17" s="3"/>
-      <c r="ICS17" s="3"/>
-      <c r="ICU17" s="3"/>
-      <c r="ICW17" s="3"/>
-      <c r="ICY17" s="3"/>
-      <c r="IDA17" s="3"/>
-      <c r="IDC17" s="3"/>
-      <c r="IDE17" s="3"/>
-      <c r="IDG17" s="3"/>
-      <c r="IDI17" s="3"/>
-      <c r="IDK17" s="3"/>
-      <c r="IDM17" s="3"/>
-      <c r="IDO17" s="3"/>
-      <c r="IDQ17" s="3"/>
-      <c r="IDS17" s="3"/>
-      <c r="IDU17" s="3"/>
-      <c r="IDW17" s="3"/>
-      <c r="IDY17" s="3"/>
-      <c r="IEA17" s="3"/>
-      <c r="IEC17" s="3"/>
-      <c r="IEE17" s="3"/>
-      <c r="IEG17" s="3"/>
-      <c r="IEI17" s="3"/>
-      <c r="IEK17" s="3"/>
-      <c r="IEM17" s="3"/>
-      <c r="IEO17" s="3"/>
-      <c r="IEQ17" s="3"/>
-      <c r="IES17" s="3"/>
-      <c r="IEU17" s="3"/>
-      <c r="IEW17" s="3"/>
-      <c r="IEY17" s="3"/>
-      <c r="IFA17" s="3"/>
-      <c r="IFC17" s="3"/>
-      <c r="IFE17" s="3"/>
-      <c r="IFG17" s="3"/>
-      <c r="IFI17" s="3"/>
-      <c r="IFK17" s="3"/>
-      <c r="IFM17" s="3"/>
-      <c r="IFO17" s="3"/>
-      <c r="IFQ17" s="3"/>
-      <c r="IFS17" s="3"/>
-      <c r="IFU17" s="3"/>
-      <c r="IFW17" s="3"/>
-      <c r="IFY17" s="3"/>
-      <c r="IGA17" s="3"/>
-      <c r="IGC17" s="3"/>
-      <c r="IGE17" s="3"/>
-      <c r="IGG17" s="3"/>
-      <c r="IGI17" s="3"/>
-      <c r="IGK17" s="3"/>
-      <c r="IGM17" s="3"/>
-      <c r="IGO17" s="3"/>
-      <c r="IGQ17" s="3"/>
-      <c r="IGS17" s="3"/>
-      <c r="IGU17" s="3"/>
-      <c r="IGW17" s="3"/>
-      <c r="IGY17" s="3"/>
-      <c r="IHA17" s="3"/>
-      <c r="IHC17" s="3"/>
-      <c r="IHE17" s="3"/>
-      <c r="IHG17" s="3"/>
-      <c r="IHI17" s="3"/>
-      <c r="IHK17" s="3"/>
-      <c r="IHM17" s="3"/>
-      <c r="IHO17" s="3"/>
-      <c r="IHQ17" s="3"/>
-      <c r="IHS17" s="3"/>
-      <c r="IHU17" s="3"/>
-      <c r="IHW17" s="3"/>
-      <c r="IHY17" s="3"/>
-      <c r="IIA17" s="3"/>
-      <c r="IIC17" s="3"/>
-      <c r="IIE17" s="3"/>
-      <c r="IIG17" s="3"/>
-      <c r="III17" s="3"/>
-      <c r="IIK17" s="3"/>
-      <c r="IIM17" s="3"/>
-      <c r="IIO17" s="3"/>
-      <c r="IIQ17" s="3"/>
-      <c r="IIS17" s="3"/>
-      <c r="IIU17" s="3"/>
-      <c r="IIW17" s="3"/>
-      <c r="IIY17" s="3"/>
-      <c r="IJA17" s="3"/>
-      <c r="IJC17" s="3"/>
-      <c r="IJE17" s="3"/>
-      <c r="IJG17" s="3"/>
-      <c r="IJI17" s="3"/>
-      <c r="IJK17" s="3"/>
-      <c r="IJM17" s="3"/>
-      <c r="IJO17" s="3"/>
-      <c r="IJQ17" s="3"/>
-      <c r="IJS17" s="3"/>
-      <c r="IJU17" s="3"/>
-      <c r="IJW17" s="3"/>
-      <c r="IJY17" s="3"/>
-      <c r="IKA17" s="3"/>
-      <c r="IKC17" s="3"/>
-      <c r="IKE17" s="3"/>
-      <c r="IKG17" s="3"/>
-      <c r="IKI17" s="3"/>
-      <c r="IKK17" s="3"/>
-      <c r="IKM17" s="3"/>
-      <c r="IKO17" s="3"/>
-      <c r="IKQ17" s="3"/>
-      <c r="IKS17" s="3"/>
-      <c r="IKU17" s="3"/>
-      <c r="IKW17" s="3"/>
-      <c r="IKY17" s="3"/>
-      <c r="ILA17" s="3"/>
-      <c r="ILC17" s="3"/>
-      <c r="ILE17" s="3"/>
-      <c r="ILG17" s="3"/>
-      <c r="ILI17" s="3"/>
-      <c r="ILK17" s="3"/>
-      <c r="ILM17" s="3"/>
-      <c r="ILO17" s="3"/>
-      <c r="ILQ17" s="3"/>
-      <c r="ILS17" s="3"/>
-      <c r="ILU17" s="3"/>
-      <c r="ILW17" s="3"/>
-      <c r="ILY17" s="3"/>
-      <c r="IMA17" s="3"/>
-      <c r="IMC17" s="3"/>
-      <c r="IME17" s="3"/>
-      <c r="IMG17" s="3"/>
-      <c r="IMI17" s="3"/>
-      <c r="IMK17" s="3"/>
-      <c r="IMM17" s="3"/>
-      <c r="IMO17" s="3"/>
-      <c r="IMQ17" s="3"/>
-      <c r="IMS17" s="3"/>
-      <c r="IMU17" s="3"/>
-      <c r="IMW17" s="3"/>
-      <c r="IMY17" s="3"/>
-      <c r="INA17" s="3"/>
-      <c r="INC17" s="3"/>
-      <c r="INE17" s="3"/>
-      <c r="ING17" s="3"/>
-      <c r="INI17" s="3"/>
-      <c r="INK17" s="3"/>
-      <c r="INM17" s="3"/>
-      <c r="INO17" s="3"/>
-      <c r="INQ17" s="3"/>
-      <c r="INS17" s="3"/>
-      <c r="INU17" s="3"/>
-      <c r="INW17" s="3"/>
-      <c r="INY17" s="3"/>
-      <c r="IOA17" s="3"/>
-      <c r="IOC17" s="3"/>
-      <c r="IOE17" s="3"/>
-      <c r="IOG17" s="3"/>
-      <c r="IOI17" s="3"/>
-      <c r="IOK17" s="3"/>
-      <c r="IOM17" s="3"/>
-      <c r="IOO17" s="3"/>
-      <c r="IOQ17" s="3"/>
-      <c r="IOS17" s="3"/>
-      <c r="IOU17" s="3"/>
-      <c r="IOW17" s="3"/>
-      <c r="IOY17" s="3"/>
-      <c r="IPA17" s="3"/>
-      <c r="IPC17" s="3"/>
-      <c r="IPE17" s="3"/>
-      <c r="IPG17" s="3"/>
-      <c r="IPI17" s="3"/>
-      <c r="IPK17" s="3"/>
-      <c r="IPM17" s="3"/>
-      <c r="IPO17" s="3"/>
-      <c r="IPQ17" s="3"/>
-      <c r="IPS17" s="3"/>
-      <c r="IPU17" s="3"/>
-      <c r="IPW17" s="3"/>
-      <c r="IPY17" s="3"/>
-      <c r="IQA17" s="3"/>
-      <c r="IQC17" s="3"/>
-      <c r="IQE17" s="3"/>
-      <c r="IQG17" s="3"/>
-      <c r="IQI17" s="3"/>
-      <c r="IQK17" s="3"/>
-      <c r="IQM17" s="3"/>
-      <c r="IQO17" s="3"/>
-      <c r="IQQ17" s="3"/>
-      <c r="IQS17" s="3"/>
-      <c r="IQU17" s="3"/>
-      <c r="IQW17" s="3"/>
-      <c r="IQY17" s="3"/>
-      <c r="IRA17" s="3"/>
-      <c r="IRC17" s="3"/>
-      <c r="IRE17" s="3"/>
-      <c r="IRG17" s="3"/>
-      <c r="IRI17" s="3"/>
-      <c r="IRK17" s="3"/>
-      <c r="IRM17" s="3"/>
-      <c r="IRO17" s="3"/>
-      <c r="IRQ17" s="3"/>
-      <c r="IRS17" s="3"/>
-      <c r="IRU17" s="3"/>
-      <c r="IRW17" s="3"/>
-      <c r="IRY17" s="3"/>
-      <c r="ISA17" s="3"/>
-      <c r="ISC17" s="3"/>
-      <c r="ISE17" s="3"/>
-      <c r="ISG17" s="3"/>
-      <c r="ISI17" s="3"/>
-      <c r="ISK17" s="3"/>
-      <c r="ISM17" s="3"/>
-      <c r="ISO17" s="3"/>
-      <c r="ISQ17" s="3"/>
-      <c r="ISS17" s="3"/>
-      <c r="ISU17" s="3"/>
-      <c r="ISW17" s="3"/>
-      <c r="ISY17" s="3"/>
-      <c r="ITA17" s="3"/>
-      <c r="ITC17" s="3"/>
-      <c r="ITE17" s="3"/>
-      <c r="ITG17" s="3"/>
-      <c r="ITI17" s="3"/>
-      <c r="ITK17" s="3"/>
-      <c r="ITM17" s="3"/>
-      <c r="ITO17" s="3"/>
-      <c r="ITQ17" s="3"/>
-      <c r="ITS17" s="3"/>
-      <c r="ITU17" s="3"/>
-      <c r="ITW17" s="3"/>
-      <c r="ITY17" s="3"/>
-      <c r="IUA17" s="3"/>
-      <c r="IUC17" s="3"/>
-      <c r="IUE17" s="3"/>
-      <c r="IUG17" s="3"/>
-      <c r="IUI17" s="3"/>
-      <c r="IUK17" s="3"/>
-      <c r="IUM17" s="3"/>
-      <c r="IUO17" s="3"/>
-      <c r="IUQ17" s="3"/>
-      <c r="IUS17" s="3"/>
-      <c r="IUU17" s="3"/>
-      <c r="IUW17" s="3"/>
-      <c r="IUY17" s="3"/>
-      <c r="IVA17" s="3"/>
-      <c r="IVC17" s="3"/>
-      <c r="IVE17" s="3"/>
-      <c r="IVG17" s="3"/>
-      <c r="IVI17" s="3"/>
-      <c r="IVK17" s="3"/>
-      <c r="IVM17" s="3"/>
-      <c r="IVO17" s="3"/>
-      <c r="IVQ17" s="3"/>
-      <c r="IVS17" s="3"/>
-      <c r="IVU17" s="3"/>
-      <c r="IVW17" s="3"/>
-      <c r="IVY17" s="3"/>
-      <c r="IWA17" s="3"/>
-      <c r="IWC17" s="3"/>
-      <c r="IWE17" s="3"/>
-      <c r="IWG17" s="3"/>
-      <c r="IWI17" s="3"/>
-      <c r="IWK17" s="3"/>
-      <c r="IWM17" s="3"/>
-      <c r="IWO17" s="3"/>
-      <c r="IWQ17" s="3"/>
-      <c r="IWS17" s="3"/>
-      <c r="IWU17" s="3"/>
-      <c r="IWW17" s="3"/>
-      <c r="IWY17" s="3"/>
-      <c r="IXA17" s="3"/>
-      <c r="IXC17" s="3"/>
-      <c r="IXE17" s="3"/>
-      <c r="IXG17" s="3"/>
-      <c r="IXI17" s="3"/>
-      <c r="IXK17" s="3"/>
-      <c r="IXM17" s="3"/>
-      <c r="IXO17" s="3"/>
-      <c r="IXQ17" s="3"/>
-      <c r="IXS17" s="3"/>
-      <c r="IXU17" s="3"/>
-      <c r="IXW17" s="3"/>
-      <c r="IXY17" s="3"/>
-      <c r="IYA17" s="3"/>
-      <c r="IYC17" s="3"/>
-      <c r="IYE17" s="3"/>
-      <c r="IYG17" s="3"/>
-      <c r="IYI17" s="3"/>
-      <c r="IYK17" s="3"/>
-      <c r="IYM17" s="3"/>
-      <c r="IYO17" s="3"/>
-      <c r="IYQ17" s="3"/>
-      <c r="IYS17" s="3"/>
-      <c r="IYU17" s="3"/>
-      <c r="IYW17" s="3"/>
-      <c r="IYY17" s="3"/>
-      <c r="IZA17" s="3"/>
-      <c r="IZC17" s="3"/>
-      <c r="IZE17" s="3"/>
-      <c r="IZG17" s="3"/>
-      <c r="IZI17" s="3"/>
-      <c r="IZK17" s="3"/>
-      <c r="IZM17" s="3"/>
-      <c r="IZO17" s="3"/>
-      <c r="IZQ17" s="3"/>
-      <c r="IZS17" s="3"/>
-      <c r="IZU17" s="3"/>
-      <c r="IZW17" s="3"/>
-      <c r="IZY17" s="3"/>
-      <c r="JAA17" s="3"/>
-      <c r="JAC17" s="3"/>
-      <c r="JAE17" s="3"/>
-      <c r="JAG17" s="3"/>
-      <c r="JAI17" s="3"/>
-      <c r="JAK17" s="3"/>
-      <c r="JAM17" s="3"/>
-      <c r="JAO17" s="3"/>
-      <c r="JAQ17" s="3"/>
-      <c r="JAS17" s="3"/>
-      <c r="JAU17" s="3"/>
-      <c r="JAW17" s="3"/>
-      <c r="JAY17" s="3"/>
-      <c r="JBA17" s="3"/>
-      <c r="JBC17" s="3"/>
-      <c r="JBE17" s="3"/>
-      <c r="JBG17" s="3"/>
-      <c r="JBI17" s="3"/>
-      <c r="JBK17" s="3"/>
-      <c r="JBM17" s="3"/>
-      <c r="JBO17" s="3"/>
-      <c r="JBQ17" s="3"/>
-      <c r="JBS17" s="3"/>
-      <c r="JBU17" s="3"/>
-      <c r="JBW17" s="3"/>
-      <c r="JBY17" s="3"/>
-      <c r="JCA17" s="3"/>
-      <c r="JCC17" s="3"/>
-      <c r="JCE17" s="3"/>
-      <c r="JCG17" s="3"/>
-      <c r="JCI17" s="3"/>
-      <c r="JCK17" s="3"/>
-      <c r="JCM17" s="3"/>
-      <c r="JCO17" s="3"/>
-      <c r="JCQ17" s="3"/>
-      <c r="JCS17" s="3"/>
-      <c r="JCU17" s="3"/>
-      <c r="JCW17" s="3"/>
-      <c r="JCY17" s="3"/>
-      <c r="JDA17" s="3"/>
-      <c r="JDC17" s="3"/>
-      <c r="JDE17" s="3"/>
-      <c r="JDG17" s="3"/>
-      <c r="JDI17" s="3"/>
-      <c r="JDK17" s="3"/>
-      <c r="JDM17" s="3"/>
-      <c r="JDO17" s="3"/>
-      <c r="JDQ17" s="3"/>
-      <c r="JDS17" s="3"/>
-      <c r="JDU17" s="3"/>
-      <c r="JDW17" s="3"/>
-      <c r="JDY17" s="3"/>
-      <c r="JEA17" s="3"/>
-      <c r="JEC17" s="3"/>
-      <c r="JEE17" s="3"/>
-      <c r="JEG17" s="3"/>
-      <c r="JEI17" s="3"/>
-      <c r="JEK17" s="3"/>
-      <c r="JEM17" s="3"/>
-      <c r="JEO17" s="3"/>
-      <c r="JEQ17" s="3"/>
-      <c r="JES17" s="3"/>
-      <c r="JEU17" s="3"/>
-      <c r="JEW17" s="3"/>
-      <c r="JEY17" s="3"/>
-      <c r="JFA17" s="3"/>
-      <c r="JFC17" s="3"/>
-      <c r="JFE17" s="3"/>
-      <c r="JFG17" s="3"/>
-      <c r="JFI17" s="3"/>
-      <c r="JFK17" s="3"/>
-      <c r="JFM17" s="3"/>
-      <c r="JFO17" s="3"/>
-      <c r="JFQ17" s="3"/>
-      <c r="JFS17" s="3"/>
-      <c r="JFU17" s="3"/>
-      <c r="JFW17" s="3"/>
-      <c r="JFY17" s="3"/>
-      <c r="JGA17" s="3"/>
-      <c r="JGC17" s="3"/>
-      <c r="JGE17" s="3"/>
-      <c r="JGG17" s="3"/>
-      <c r="JGI17" s="3"/>
-      <c r="JGK17" s="3"/>
-      <c r="JGM17" s="3"/>
-      <c r="JGO17" s="3"/>
-      <c r="JGQ17" s="3"/>
-      <c r="JGS17" s="3"/>
-      <c r="JGU17" s="3"/>
-      <c r="JGW17" s="3"/>
-      <c r="JGY17" s="3"/>
-      <c r="JHA17" s="3"/>
-      <c r="JHC17" s="3"/>
-      <c r="JHE17" s="3"/>
-      <c r="JHG17" s="3"/>
-      <c r="JHI17" s="3"/>
-      <c r="JHK17" s="3"/>
-      <c r="JHM17" s="3"/>
-      <c r="JHO17" s="3"/>
-      <c r="JHQ17" s="3"/>
-      <c r="JHS17" s="3"/>
-      <c r="JHU17" s="3"/>
-      <c r="JHW17" s="3"/>
-      <c r="JHY17" s="3"/>
-      <c r="JIA17" s="3"/>
-      <c r="JIC17" s="3"/>
-      <c r="JIE17" s="3"/>
-      <c r="JIG17" s="3"/>
-      <c r="JII17" s="3"/>
-      <c r="JIK17" s="3"/>
-      <c r="JIM17" s="3"/>
-      <c r="JIO17" s="3"/>
-      <c r="JIQ17" s="3"/>
-      <c r="JIS17" s="3"/>
-      <c r="JIU17" s="3"/>
-      <c r="JIW17" s="3"/>
-      <c r="JIY17" s="3"/>
-      <c r="JJA17" s="3"/>
-      <c r="JJC17" s="3"/>
-      <c r="JJE17" s="3"/>
-      <c r="JJG17" s="3"/>
-      <c r="JJI17" s="3"/>
-      <c r="JJK17" s="3"/>
-      <c r="JJM17" s="3"/>
-      <c r="JJO17" s="3"/>
-      <c r="JJQ17" s="3"/>
-      <c r="JJS17" s="3"/>
-      <c r="JJU17" s="3"/>
-      <c r="JJW17" s="3"/>
-      <c r="JJY17" s="3"/>
-      <c r="JKA17" s="3"/>
-      <c r="JKC17" s="3"/>
-      <c r="JKE17" s="3"/>
-      <c r="JKG17" s="3"/>
-      <c r="JKI17" s="3"/>
-      <c r="JKK17" s="3"/>
-      <c r="JKM17" s="3"/>
-      <c r="JKO17" s="3"/>
-      <c r="JKQ17" s="3"/>
-      <c r="JKS17" s="3"/>
-      <c r="JKU17" s="3"/>
-      <c r="JKW17" s="3"/>
-      <c r="JKY17" s="3"/>
-      <c r="JLA17" s="3"/>
-      <c r="JLC17" s="3"/>
-      <c r="JLE17" s="3"/>
-      <c r="JLG17" s="3"/>
-      <c r="JLI17" s="3"/>
-      <c r="JLK17" s="3"/>
-      <c r="JLM17" s="3"/>
-      <c r="JLO17" s="3"/>
-      <c r="JLQ17" s="3"/>
-      <c r="JLS17" s="3"/>
-      <c r="JLU17" s="3"/>
-      <c r="JLW17" s="3"/>
-      <c r="JLY17" s="3"/>
-      <c r="JMA17" s="3"/>
-      <c r="JMC17" s="3"/>
-      <c r="JME17" s="3"/>
-      <c r="JMG17" s="3"/>
-      <c r="JMI17" s="3"/>
-      <c r="JMK17" s="3"/>
-      <c r="JMM17" s="3"/>
-      <c r="JMO17" s="3"/>
-      <c r="JMQ17" s="3"/>
-      <c r="JMS17" s="3"/>
-      <c r="JMU17" s="3"/>
-      <c r="JMW17" s="3"/>
-      <c r="JMY17" s="3"/>
-      <c r="JNA17" s="3"/>
-      <c r="JNC17" s="3"/>
-      <c r="JNE17" s="3"/>
-      <c r="JNG17" s="3"/>
-      <c r="JNI17" s="3"/>
-      <c r="JNK17" s="3"/>
-      <c r="JNM17" s="3"/>
-      <c r="JNO17" s="3"/>
-      <c r="JNQ17" s="3"/>
-      <c r="JNS17" s="3"/>
-      <c r="JNU17" s="3"/>
-      <c r="JNW17" s="3"/>
-      <c r="JNY17" s="3"/>
-      <c r="JOA17" s="3"/>
-      <c r="JOC17" s="3"/>
-      <c r="JOE17" s="3"/>
-      <c r="JOG17" s="3"/>
-      <c r="JOI17" s="3"/>
-      <c r="JOK17" s="3"/>
-      <c r="JOM17" s="3"/>
-      <c r="JOO17" s="3"/>
-      <c r="JOQ17" s="3"/>
-      <c r="JOS17" s="3"/>
-      <c r="JOU17" s="3"/>
-      <c r="JOW17" s="3"/>
-      <c r="JOY17" s="3"/>
-      <c r="JPA17" s="3"/>
-      <c r="JPC17" s="3"/>
-      <c r="JPE17" s="3"/>
-      <c r="JPG17" s="3"/>
-      <c r="JPI17" s="3"/>
-      <c r="JPK17" s="3"/>
-      <c r="JPM17" s="3"/>
-      <c r="JPO17" s="3"/>
-      <c r="JPQ17" s="3"/>
-      <c r="JPS17" s="3"/>
-      <c r="JPU17" s="3"/>
-      <c r="JPW17" s="3"/>
-      <c r="JPY17" s="3"/>
-      <c r="JQA17" s="3"/>
-      <c r="JQC17" s="3"/>
-      <c r="JQE17" s="3"/>
-      <c r="JQG17" s="3"/>
-      <c r="JQI17" s="3"/>
-      <c r="JQK17" s="3"/>
-      <c r="JQM17" s="3"/>
-      <c r="JQO17" s="3"/>
-      <c r="JQQ17" s="3"/>
-      <c r="JQS17" s="3"/>
-      <c r="JQU17" s="3"/>
-      <c r="JQW17" s="3"/>
-      <c r="JQY17" s="3"/>
-      <c r="JRA17" s="3"/>
-      <c r="JRC17" s="3"/>
-      <c r="JRE17" s="3"/>
-      <c r="JRG17" s="3"/>
-      <c r="JRI17" s="3"/>
-      <c r="JRK17" s="3"/>
-      <c r="JRM17" s="3"/>
-      <c r="JRO17" s="3"/>
-      <c r="JRQ17" s="3"/>
-      <c r="JRS17" s="3"/>
-      <c r="JRU17" s="3"/>
-      <c r="JRW17" s="3"/>
-      <c r="JRY17" s="3"/>
-      <c r="JSA17" s="3"/>
-      <c r="JSC17" s="3"/>
-      <c r="JSE17" s="3"/>
-      <c r="JSG17" s="3"/>
-      <c r="JSI17" s="3"/>
-      <c r="JSK17" s="3"/>
-      <c r="JSM17" s="3"/>
-      <c r="JSO17" s="3"/>
-      <c r="JSQ17" s="3"/>
-      <c r="JSS17" s="3"/>
-      <c r="JSU17" s="3"/>
-      <c r="JSW17" s="3"/>
-      <c r="JSY17" s="3"/>
-      <c r="JTA17" s="3"/>
-      <c r="JTC17" s="3"/>
-      <c r="JTE17" s="3"/>
-      <c r="JTG17" s="3"/>
-      <c r="JTI17" s="3"/>
-      <c r="JTK17" s="3"/>
-      <c r="JTM17" s="3"/>
-      <c r="JTO17" s="3"/>
-      <c r="JTQ17" s="3"/>
-      <c r="JTS17" s="3"/>
-      <c r="JTU17" s="3"/>
-      <c r="JTW17" s="3"/>
-      <c r="JTY17" s="3"/>
-      <c r="JUA17" s="3"/>
-      <c r="JUC17" s="3"/>
-      <c r="JUE17" s="3"/>
-      <c r="JUG17" s="3"/>
-      <c r="JUI17" s="3"/>
-      <c r="JUK17" s="3"/>
-      <c r="JUM17" s="3"/>
-      <c r="JUO17" s="3"/>
-      <c r="JUQ17" s="3"/>
-      <c r="JUS17" s="3"/>
-      <c r="JUU17" s="3"/>
-      <c r="JUW17" s="3"/>
-      <c r="JUY17" s="3"/>
-      <c r="JVA17" s="3"/>
-      <c r="JVC17" s="3"/>
-      <c r="JVE17" s="3"/>
-      <c r="JVG17" s="3"/>
-      <c r="JVI17" s="3"/>
-      <c r="JVK17" s="3"/>
-      <c r="JVM17" s="3"/>
-      <c r="JVO17" s="3"/>
-      <c r="JVQ17" s="3"/>
-      <c r="JVS17" s="3"/>
-      <c r="JVU17" s="3"/>
-      <c r="JVW17" s="3"/>
-      <c r="JVY17" s="3"/>
-      <c r="JWA17" s="3"/>
-      <c r="JWC17" s="3"/>
-      <c r="JWE17" s="3"/>
-      <c r="JWG17" s="3"/>
-      <c r="JWI17" s="3"/>
-      <c r="JWK17" s="3"/>
-      <c r="JWM17" s="3"/>
-      <c r="JWO17" s="3"/>
-      <c r="JWQ17" s="3"/>
-      <c r="JWS17" s="3"/>
-      <c r="JWU17" s="3"/>
-      <c r="JWW17" s="3"/>
-      <c r="JWY17" s="3"/>
-      <c r="JXA17" s="3"/>
-      <c r="JXC17" s="3"/>
-      <c r="JXE17" s="3"/>
-      <c r="JXG17" s="3"/>
-      <c r="JXI17" s="3"/>
-      <c r="JXK17" s="3"/>
-      <c r="JXM17" s="3"/>
-      <c r="JXO17" s="3"/>
-      <c r="JXQ17" s="3"/>
-      <c r="JXS17" s="3"/>
-      <c r="JXU17" s="3"/>
-      <c r="JXW17" s="3"/>
-      <c r="JXY17" s="3"/>
-      <c r="JYA17" s="3"/>
-      <c r="JYC17" s="3"/>
-      <c r="JYE17" s="3"/>
-      <c r="JYG17" s="3"/>
-      <c r="JYI17" s="3"/>
-      <c r="JYK17" s="3"/>
-      <c r="JYM17" s="3"/>
-      <c r="JYO17" s="3"/>
-      <c r="JYQ17" s="3"/>
-      <c r="JYS17" s="3"/>
-      <c r="JYU17" s="3"/>
-      <c r="JYW17" s="3"/>
-      <c r="JYY17" s="3"/>
-      <c r="JZA17" s="3"/>
-      <c r="JZC17" s="3"/>
-      <c r="JZE17" s="3"/>
-      <c r="JZG17" s="3"/>
-      <c r="JZI17" s="3"/>
-      <c r="JZK17" s="3"/>
-      <c r="JZM17" s="3"/>
-      <c r="JZO17" s="3"/>
-      <c r="JZQ17" s="3"/>
-      <c r="JZS17" s="3"/>
-      <c r="JZU17" s="3"/>
-      <c r="JZW17" s="3"/>
-      <c r="JZY17" s="3"/>
-      <c r="KAA17" s="3"/>
-      <c r="KAC17" s="3"/>
-      <c r="KAE17" s="3"/>
-      <c r="KAG17" s="3"/>
-      <c r="KAI17" s="3"/>
-      <c r="KAK17" s="3"/>
-      <c r="KAM17" s="3"/>
-      <c r="KAO17" s="3"/>
-      <c r="KAQ17" s="3"/>
-      <c r="KAS17" s="3"/>
-      <c r="KAU17" s="3"/>
-      <c r="KAW17" s="3"/>
-      <c r="KAY17" s="3"/>
-      <c r="KBA17" s="3"/>
-      <c r="KBC17" s="3"/>
-      <c r="KBE17" s="3"/>
-      <c r="KBG17" s="3"/>
-      <c r="KBI17" s="3"/>
-      <c r="KBK17" s="3"/>
-      <c r="KBM17" s="3"/>
-      <c r="KBO17" s="3"/>
-      <c r="KBQ17" s="3"/>
-      <c r="KBS17" s="3"/>
-      <c r="KBU17" s="3"/>
-      <c r="KBW17" s="3"/>
-      <c r="KBY17" s="3"/>
-      <c r="KCA17" s="3"/>
-      <c r="KCC17" s="3"/>
-      <c r="KCE17" s="3"/>
-      <c r="KCG17" s="3"/>
-      <c r="KCI17" s="3"/>
-      <c r="KCK17" s="3"/>
-      <c r="KCM17" s="3"/>
-      <c r="KCO17" s="3"/>
-      <c r="KCQ17" s="3"/>
-      <c r="KCS17" s="3"/>
-      <c r="KCU17" s="3"/>
-      <c r="KCW17" s="3"/>
-      <c r="KCY17" s="3"/>
-      <c r="KDA17" s="3"/>
-      <c r="KDC17" s="3"/>
-      <c r="KDE17" s="3"/>
-      <c r="KDG17" s="3"/>
-      <c r="KDI17" s="3"/>
-      <c r="KDK17" s="3"/>
-      <c r="KDM17" s="3"/>
-      <c r="KDO17" s="3"/>
-      <c r="KDQ17" s="3"/>
-      <c r="KDS17" s="3"/>
-      <c r="KDU17" s="3"/>
-      <c r="KDW17" s="3"/>
-      <c r="KDY17" s="3"/>
-      <c r="KEA17" s="3"/>
-      <c r="KEC17" s="3"/>
-      <c r="KEE17" s="3"/>
-      <c r="KEG17" s="3"/>
-      <c r="KEI17" s="3"/>
-      <c r="KEK17" s="3"/>
-      <c r="KEM17" s="3"/>
-      <c r="KEO17" s="3"/>
-      <c r="KEQ17" s="3"/>
-      <c r="KES17" s="3"/>
-      <c r="KEU17" s="3"/>
-      <c r="KEW17" s="3"/>
-      <c r="KEY17" s="3"/>
-      <c r="KFA17" s="3"/>
-      <c r="KFC17" s="3"/>
-      <c r="KFE17" s="3"/>
-      <c r="KFG17" s="3"/>
-      <c r="KFI17" s="3"/>
-      <c r="KFK17" s="3"/>
-      <c r="KFM17" s="3"/>
-      <c r="KFO17" s="3"/>
-      <c r="KFQ17" s="3"/>
-      <c r="KFS17" s="3"/>
-      <c r="KFU17" s="3"/>
-      <c r="KFW17" s="3"/>
-      <c r="KFY17" s="3"/>
-      <c r="KGA17" s="3"/>
-      <c r="KGC17" s="3"/>
-      <c r="KGE17" s="3"/>
-      <c r="KGG17" s="3"/>
-      <c r="KGI17" s="3"/>
-      <c r="KGK17" s="3"/>
-      <c r="KGM17" s="3"/>
-      <c r="KGO17" s="3"/>
-      <c r="KGQ17" s="3"/>
-      <c r="KGS17" s="3"/>
-      <c r="KGU17" s="3"/>
-      <c r="KGW17" s="3"/>
-      <c r="KGY17" s="3"/>
-      <c r="KHA17" s="3"/>
-      <c r="KHC17" s="3"/>
-      <c r="KHE17" s="3"/>
-      <c r="KHG17" s="3"/>
-      <c r="KHI17" s="3"/>
-      <c r="KHK17" s="3"/>
-      <c r="KHM17" s="3"/>
-      <c r="KHO17" s="3"/>
-      <c r="KHQ17" s="3"/>
-      <c r="KHS17" s="3"/>
-      <c r="KHU17" s="3"/>
-      <c r="KHW17" s="3"/>
-      <c r="KHY17" s="3"/>
-      <c r="KIA17" s="3"/>
-      <c r="KIC17" s="3"/>
-      <c r="KIE17" s="3"/>
-      <c r="KIG17" s="3"/>
-      <c r="KII17" s="3"/>
-      <c r="KIK17" s="3"/>
-      <c r="KIM17" s="3"/>
-      <c r="KIO17" s="3"/>
-      <c r="KIQ17" s="3"/>
-      <c r="KIS17" s="3"/>
-      <c r="KIU17" s="3"/>
-      <c r="KIW17" s="3"/>
-      <c r="KIY17" s="3"/>
-      <c r="KJA17" s="3"/>
-      <c r="KJC17" s="3"/>
-      <c r="KJE17" s="3"/>
-      <c r="KJG17" s="3"/>
-      <c r="KJI17" s="3"/>
-      <c r="KJK17" s="3"/>
-      <c r="KJM17" s="3"/>
-      <c r="KJO17" s="3"/>
-      <c r="KJQ17" s="3"/>
-      <c r="KJS17" s="3"/>
-      <c r="KJU17" s="3"/>
-      <c r="KJW17" s="3"/>
-      <c r="KJY17" s="3"/>
-      <c r="KKA17" s="3"/>
-      <c r="KKC17" s="3"/>
-      <c r="KKE17" s="3"/>
-      <c r="KKG17" s="3"/>
-      <c r="KKI17" s="3"/>
-      <c r="KKK17" s="3"/>
-      <c r="KKM17" s="3"/>
-      <c r="KKO17" s="3"/>
-      <c r="KKQ17" s="3"/>
-      <c r="KKS17" s="3"/>
-      <c r="KKU17" s="3"/>
-      <c r="KKW17" s="3"/>
-      <c r="KKY17" s="3"/>
-      <c r="KLA17" s="3"/>
-      <c r="KLC17" s="3"/>
-      <c r="KLE17" s="3"/>
-      <c r="KLG17" s="3"/>
-      <c r="KLI17" s="3"/>
-      <c r="KLK17" s="3"/>
-      <c r="KLM17" s="3"/>
-      <c r="KLO17" s="3"/>
-      <c r="KLQ17" s="3"/>
-      <c r="KLS17" s="3"/>
-      <c r="KLU17" s="3"/>
-      <c r="KLW17" s="3"/>
-      <c r="KLY17" s="3"/>
-      <c r="KMA17" s="3"/>
-      <c r="KMC17" s="3"/>
-      <c r="KME17" s="3"/>
-      <c r="KMG17" s="3"/>
-      <c r="KMI17" s="3"/>
-      <c r="KMK17" s="3"/>
-      <c r="KMM17" s="3"/>
-      <c r="KMO17" s="3"/>
-      <c r="KMQ17" s="3"/>
-      <c r="KMS17" s="3"/>
-      <c r="KMU17" s="3"/>
-      <c r="KMW17" s="3"/>
-      <c r="KMY17" s="3"/>
-      <c r="KNA17" s="3"/>
-      <c r="KNC17" s="3"/>
-      <c r="KNE17" s="3"/>
-      <c r="KNG17" s="3"/>
-      <c r="KNI17" s="3"/>
-      <c r="KNK17" s="3"/>
-      <c r="KNM17" s="3"/>
-      <c r="KNO17" s="3"/>
-      <c r="KNQ17" s="3"/>
-      <c r="KNS17" s="3"/>
-      <c r="KNU17" s="3"/>
-      <c r="KNW17" s="3"/>
-      <c r="KNY17" s="3"/>
-      <c r="KOA17" s="3"/>
-      <c r="KOC17" s="3"/>
-      <c r="KOE17" s="3"/>
-      <c r="KOG17" s="3"/>
-      <c r="KOI17" s="3"/>
-      <c r="KOK17" s="3"/>
-      <c r="KOM17" s="3"/>
-      <c r="KOO17" s="3"/>
-      <c r="KOQ17" s="3"/>
-      <c r="KOS17" s="3"/>
-      <c r="KOU17" s="3"/>
-      <c r="KOW17" s="3"/>
-      <c r="KOY17" s="3"/>
-      <c r="KPA17" s="3"/>
-      <c r="KPC17" s="3"/>
-      <c r="KPE17" s="3"/>
-      <c r="KPG17" s="3"/>
-      <c r="KPI17" s="3"/>
-      <c r="KPK17" s="3"/>
-      <c r="KPM17" s="3"/>
-      <c r="KPO17" s="3"/>
-      <c r="KPQ17" s="3"/>
-      <c r="KPS17" s="3"/>
-      <c r="KPU17" s="3"/>
-      <c r="KPW17" s="3"/>
-      <c r="KPY17" s="3"/>
-      <c r="KQA17" s="3"/>
-      <c r="KQC17" s="3"/>
-      <c r="KQE17" s="3"/>
-      <c r="KQG17" s="3"/>
-      <c r="KQI17" s="3"/>
-      <c r="KQK17" s="3"/>
-      <c r="KQM17" s="3"/>
-      <c r="KQO17" s="3"/>
-      <c r="KQQ17" s="3"/>
-      <c r="KQS17" s="3"/>
-      <c r="KQU17" s="3"/>
-      <c r="KQW17" s="3"/>
-      <c r="KQY17" s="3"/>
-      <c r="KRA17" s="3"/>
-      <c r="KRC17" s="3"/>
-      <c r="KRE17" s="3"/>
-      <c r="KRG17" s="3"/>
-      <c r="KRI17" s="3"/>
-      <c r="KRK17" s="3"/>
-      <c r="KRM17" s="3"/>
-      <c r="KRO17" s="3"/>
-      <c r="KRQ17" s="3"/>
-      <c r="KRS17" s="3"/>
-      <c r="KRU17" s="3"/>
-      <c r="KRW17" s="3"/>
-      <c r="KRY17" s="3"/>
-      <c r="KSA17" s="3"/>
-      <c r="KSC17" s="3"/>
-      <c r="KSE17" s="3"/>
-      <c r="KSG17" s="3"/>
-      <c r="KSI17" s="3"/>
-      <c r="KSK17" s="3"/>
-      <c r="KSM17" s="3"/>
-      <c r="KSO17" s="3"/>
-      <c r="KSQ17" s="3"/>
-      <c r="KSS17" s="3"/>
-      <c r="KSU17" s="3"/>
-      <c r="KSW17" s="3"/>
-      <c r="KSY17" s="3"/>
-      <c r="KTA17" s="3"/>
-      <c r="KTC17" s="3"/>
-      <c r="KTE17" s="3"/>
-      <c r="KTG17" s="3"/>
-      <c r="KTI17" s="3"/>
-      <c r="KTK17" s="3"/>
-      <c r="KTM17" s="3"/>
-      <c r="KTO17" s="3"/>
-      <c r="KTQ17" s="3"/>
-      <c r="KTS17" s="3"/>
-      <c r="KTU17" s="3"/>
-      <c r="KTW17" s="3"/>
-      <c r="KTY17" s="3"/>
-      <c r="KUA17" s="3"/>
-      <c r="KUC17" s="3"/>
-      <c r="KUE17" s="3"/>
-      <c r="KUG17" s="3"/>
-      <c r="KUI17" s="3"/>
-      <c r="KUK17" s="3"/>
-      <c r="KUM17" s="3"/>
-      <c r="KUO17" s="3"/>
-      <c r="KUQ17" s="3"/>
-      <c r="KUS17" s="3"/>
-      <c r="KUU17" s="3"/>
-      <c r="KUW17" s="3"/>
-      <c r="KUY17" s="3"/>
-      <c r="KVA17" s="3"/>
-      <c r="KVC17" s="3"/>
-      <c r="KVE17" s="3"/>
-      <c r="KVG17" s="3"/>
-      <c r="KVI17" s="3"/>
-      <c r="KVK17" s="3"/>
-      <c r="KVM17" s="3"/>
-      <c r="KVO17" s="3"/>
-      <c r="KVQ17" s="3"/>
-      <c r="KVS17" s="3"/>
-      <c r="KVU17" s="3"/>
-      <c r="KVW17" s="3"/>
-      <c r="KVY17" s="3"/>
-      <c r="KWA17" s="3"/>
-      <c r="KWC17" s="3"/>
-      <c r="KWE17" s="3"/>
-      <c r="KWG17" s="3"/>
-      <c r="KWI17" s="3"/>
-      <c r="KWK17" s="3"/>
-      <c r="KWM17" s="3"/>
-      <c r="KWO17" s="3"/>
-      <c r="KWQ17" s="3"/>
-      <c r="KWS17" s="3"/>
-      <c r="KWU17" s="3"/>
-      <c r="KWW17" s="3"/>
-      <c r="KWY17" s="3"/>
-      <c r="KXA17" s="3"/>
-      <c r="KXC17" s="3"/>
-      <c r="KXE17" s="3"/>
-      <c r="KXG17" s="3"/>
-      <c r="KXI17" s="3"/>
-      <c r="KXK17" s="3"/>
-      <c r="KXM17" s="3"/>
-      <c r="KXO17" s="3"/>
-      <c r="KXQ17" s="3"/>
-      <c r="KXS17" s="3"/>
-      <c r="KXU17" s="3"/>
-      <c r="KXW17" s="3"/>
-      <c r="KXY17" s="3"/>
-      <c r="KYA17" s="3"/>
-      <c r="KYC17" s="3"/>
-      <c r="KYE17" s="3"/>
-      <c r="KYG17" s="3"/>
-      <c r="KYI17" s="3"/>
-      <c r="KYK17" s="3"/>
-      <c r="KYM17" s="3"/>
-      <c r="KYO17" s="3"/>
-      <c r="KYQ17" s="3"/>
-      <c r="KYS17" s="3"/>
-      <c r="KYU17" s="3"/>
-      <c r="KYW17" s="3"/>
-      <c r="KYY17" s="3"/>
-      <c r="KZA17" s="3"/>
-      <c r="KZC17" s="3"/>
-      <c r="KZE17" s="3"/>
-      <c r="KZG17" s="3"/>
-      <c r="KZI17" s="3"/>
-      <c r="KZK17" s="3"/>
-      <c r="KZM17" s="3"/>
-      <c r="KZO17" s="3"/>
-      <c r="KZQ17" s="3"/>
-      <c r="KZS17" s="3"/>
-      <c r="KZU17" s="3"/>
-      <c r="KZW17" s="3"/>
-      <c r="KZY17" s="3"/>
-      <c r="LAA17" s="3"/>
-      <c r="LAC17" s="3"/>
-      <c r="LAE17" s="3"/>
-      <c r="LAG17" s="3"/>
-      <c r="LAI17" s="3"/>
-      <c r="LAK17" s="3"/>
-      <c r="LAM17" s="3"/>
-      <c r="LAO17" s="3"/>
-      <c r="LAQ17" s="3"/>
-      <c r="LAS17" s="3"/>
-      <c r="LAU17" s="3"/>
-      <c r="LAW17" s="3"/>
-      <c r="LAY17" s="3"/>
-      <c r="LBA17" s="3"/>
-      <c r="LBC17" s="3"/>
-      <c r="LBE17" s="3"/>
-      <c r="LBG17" s="3"/>
-      <c r="LBI17" s="3"/>
-      <c r="LBK17" s="3"/>
-      <c r="LBM17" s="3"/>
-      <c r="LBO17" s="3"/>
-      <c r="LBQ17" s="3"/>
-      <c r="LBS17" s="3"/>
-      <c r="LBU17" s="3"/>
-      <c r="LBW17" s="3"/>
-      <c r="LBY17" s="3"/>
-      <c r="LCA17" s="3"/>
-      <c r="LCC17" s="3"/>
-      <c r="LCE17" s="3"/>
-      <c r="LCG17" s="3"/>
-      <c r="LCI17" s="3"/>
-      <c r="LCK17" s="3"/>
-      <c r="LCM17" s="3"/>
-      <c r="LCO17" s="3"/>
-      <c r="LCQ17" s="3"/>
-      <c r="LCS17" s="3"/>
-      <c r="LCU17" s="3"/>
-      <c r="LCW17" s="3"/>
-      <c r="LCY17" s="3"/>
-      <c r="LDA17" s="3"/>
-      <c r="LDC17" s="3"/>
-      <c r="LDE17" s="3"/>
-      <c r="LDG17" s="3"/>
-      <c r="LDI17" s="3"/>
-      <c r="LDK17" s="3"/>
-      <c r="LDM17" s="3"/>
-      <c r="LDO17" s="3"/>
-      <c r="LDQ17" s="3"/>
-      <c r="LDS17" s="3"/>
-      <c r="LDU17" s="3"/>
-      <c r="LDW17" s="3"/>
-      <c r="LDY17" s="3"/>
-      <c r="LEA17" s="3"/>
-      <c r="LEC17" s="3"/>
-      <c r="LEE17" s="3"/>
-      <c r="LEG17" s="3"/>
-      <c r="LEI17" s="3"/>
-      <c r="LEK17" s="3"/>
-      <c r="LEM17" s="3"/>
-      <c r="LEO17" s="3"/>
-      <c r="LEQ17" s="3"/>
-      <c r="LES17" s="3"/>
-      <c r="LEU17" s="3"/>
-      <c r="LEW17" s="3"/>
-      <c r="LEY17" s="3"/>
-      <c r="LFA17" s="3"/>
-      <c r="LFC17" s="3"/>
-      <c r="LFE17" s="3"/>
-      <c r="LFG17" s="3"/>
-      <c r="LFI17" s="3"/>
-      <c r="LFK17" s="3"/>
-      <c r="LFM17" s="3"/>
-      <c r="LFO17" s="3"/>
-      <c r="LFQ17" s="3"/>
-      <c r="LFS17" s="3"/>
-      <c r="LFU17" s="3"/>
-      <c r="LFW17" s="3"/>
-      <c r="LFY17" s="3"/>
-      <c r="LGA17" s="3"/>
-      <c r="LGC17" s="3"/>
-      <c r="LGE17" s="3"/>
-      <c r="LGG17" s="3"/>
-      <c r="LGI17" s="3"/>
-      <c r="LGK17" s="3"/>
-      <c r="LGM17" s="3"/>
-      <c r="LGO17" s="3"/>
-      <c r="LGQ17" s="3"/>
-      <c r="LGS17" s="3"/>
-      <c r="LGU17" s="3"/>
-      <c r="LGW17" s="3"/>
-      <c r="LGY17" s="3"/>
-      <c r="LHA17" s="3"/>
-      <c r="LHC17" s="3"/>
-      <c r="LHE17" s="3"/>
-      <c r="LHG17" s="3"/>
-      <c r="LHI17" s="3"/>
-      <c r="LHK17" s="3"/>
-      <c r="LHM17" s="3"/>
-      <c r="LHO17" s="3"/>
-      <c r="LHQ17" s="3"/>
-      <c r="LHS17" s="3"/>
-      <c r="LHU17" s="3"/>
-      <c r="LHW17" s="3"/>
-      <c r="LHY17" s="3"/>
-      <c r="LIA17" s="3"/>
-      <c r="LIC17" s="3"/>
-      <c r="LIE17" s="3"/>
-      <c r="LIG17" s="3"/>
-      <c r="LII17" s="3"/>
-      <c r="LIK17" s="3"/>
-      <c r="LIM17" s="3"/>
-      <c r="LIO17" s="3"/>
-      <c r="LIQ17" s="3"/>
-      <c r="LIS17" s="3"/>
-      <c r="LIU17" s="3"/>
-      <c r="LIW17" s="3"/>
-      <c r="LIY17" s="3"/>
-      <c r="LJA17" s="3"/>
-      <c r="LJC17" s="3"/>
-      <c r="LJE17" s="3"/>
-      <c r="LJG17" s="3"/>
-      <c r="LJI17" s="3"/>
-      <c r="LJK17" s="3"/>
-      <c r="LJM17" s="3"/>
-      <c r="LJO17" s="3"/>
-      <c r="LJQ17" s="3"/>
-      <c r="LJS17" s="3"/>
-      <c r="LJU17" s="3"/>
-      <c r="LJW17" s="3"/>
-      <c r="LJY17" s="3"/>
-      <c r="LKA17" s="3"/>
-      <c r="LKC17" s="3"/>
-      <c r="LKE17" s="3"/>
-      <c r="LKG17" s="3"/>
-      <c r="LKI17" s="3"/>
-      <c r="LKK17" s="3"/>
-      <c r="LKM17" s="3"/>
-      <c r="LKO17" s="3"/>
-      <c r="LKQ17" s="3"/>
-      <c r="LKS17" s="3"/>
-      <c r="LKU17" s="3"/>
-      <c r="LKW17" s="3"/>
-      <c r="LKY17" s="3"/>
-      <c r="LLA17" s="3"/>
-      <c r="LLC17" s="3"/>
-      <c r="LLE17" s="3"/>
-      <c r="LLG17" s="3"/>
-      <c r="LLI17" s="3"/>
-      <c r="LLK17" s="3"/>
-      <c r="LLM17" s="3"/>
-      <c r="LLO17" s="3"/>
-      <c r="LLQ17" s="3"/>
-      <c r="LLS17" s="3"/>
-      <c r="LLU17" s="3"/>
-      <c r="LLW17" s="3"/>
-      <c r="LLY17" s="3"/>
-      <c r="LMA17" s="3"/>
-      <c r="LMC17" s="3"/>
-      <c r="LME17" s="3"/>
-      <c r="LMG17" s="3"/>
-      <c r="LMI17" s="3"/>
-      <c r="LMK17" s="3"/>
-      <c r="LMM17" s="3"/>
-      <c r="LMO17" s="3"/>
-      <c r="LMQ17" s="3"/>
-      <c r="LMS17" s="3"/>
-      <c r="LMU17" s="3"/>
-      <c r="LMW17" s="3"/>
-      <c r="LMY17" s="3"/>
-      <c r="LNA17" s="3"/>
-      <c r="LNC17" s="3"/>
-      <c r="LNE17" s="3"/>
-      <c r="LNG17" s="3"/>
-      <c r="LNI17" s="3"/>
-      <c r="LNK17" s="3"/>
-      <c r="LNM17" s="3"/>
-      <c r="LNO17" s="3"/>
-      <c r="LNQ17" s="3"/>
-      <c r="LNS17" s="3"/>
-      <c r="LNU17" s="3"/>
-      <c r="LNW17" s="3"/>
-      <c r="LNY17" s="3"/>
-      <c r="LOA17" s="3"/>
-      <c r="LOC17" s="3"/>
-      <c r="LOE17" s="3"/>
-      <c r="LOG17" s="3"/>
-      <c r="LOI17" s="3"/>
-      <c r="LOK17" s="3"/>
-      <c r="LOM17" s="3"/>
-      <c r="LOO17" s="3"/>
-      <c r="LOQ17" s="3"/>
-      <c r="LOS17" s="3"/>
-      <c r="LOU17" s="3"/>
-      <c r="LOW17" s="3"/>
-      <c r="LOY17" s="3"/>
-      <c r="LPA17" s="3"/>
-      <c r="LPC17" s="3"/>
-      <c r="LPE17" s="3"/>
-      <c r="LPG17" s="3"/>
-      <c r="LPI17" s="3"/>
-      <c r="LPK17" s="3"/>
-      <c r="LPM17" s="3"/>
-      <c r="LPO17" s="3"/>
-      <c r="LPQ17" s="3"/>
-      <c r="LPS17" s="3"/>
-      <c r="LPU17" s="3"/>
-      <c r="LPW17" s="3"/>
-      <c r="LPY17" s="3"/>
-      <c r="LQA17" s="3"/>
-      <c r="LQC17" s="3"/>
-      <c r="LQE17" s="3"/>
-      <c r="LQG17" s="3"/>
-      <c r="LQI17" s="3"/>
-      <c r="LQK17" s="3"/>
-      <c r="LQM17" s="3"/>
-      <c r="LQO17" s="3"/>
-      <c r="LQQ17" s="3"/>
-      <c r="LQS17" s="3"/>
-      <c r="LQU17" s="3"/>
-      <c r="LQW17" s="3"/>
-      <c r="LQY17" s="3"/>
-      <c r="LRA17" s="3"/>
-      <c r="LRC17" s="3"/>
-      <c r="LRE17" s="3"/>
-      <c r="LRG17" s="3"/>
-      <c r="LRI17" s="3"/>
-      <c r="LRK17" s="3"/>
-      <c r="LRM17" s="3"/>
-      <c r="LRO17" s="3"/>
-      <c r="LRQ17" s="3"/>
-      <c r="LRS17" s="3"/>
-      <c r="LRU17" s="3"/>
-      <c r="LRW17" s="3"/>
-      <c r="LRY17" s="3"/>
-      <c r="LSA17" s="3"/>
-      <c r="LSC17" s="3"/>
-      <c r="LSE17" s="3"/>
-      <c r="LSG17" s="3"/>
-      <c r="LSI17" s="3"/>
-      <c r="LSK17" s="3"/>
-      <c r="LSM17" s="3"/>
-      <c r="LSO17" s="3"/>
-      <c r="LSQ17" s="3"/>
-      <c r="LSS17" s="3"/>
-      <c r="LSU17" s="3"/>
-      <c r="LSW17" s="3"/>
-      <c r="LSY17" s="3"/>
-      <c r="LTA17" s="3"/>
-      <c r="LTC17" s="3"/>
-      <c r="LTE17" s="3"/>
-      <c r="LTG17" s="3"/>
-      <c r="LTI17" s="3"/>
-      <c r="LTK17" s="3"/>
-      <c r="LTM17" s="3"/>
-      <c r="LTO17" s="3"/>
-      <c r="LTQ17" s="3"/>
-      <c r="LTS17" s="3"/>
-      <c r="LTU17" s="3"/>
-      <c r="LTW17" s="3"/>
-      <c r="LTY17" s="3"/>
-      <c r="LUA17" s="3"/>
-      <c r="LUC17" s="3"/>
-      <c r="LUE17" s="3"/>
-      <c r="LUG17" s="3"/>
-      <c r="LUI17" s="3"/>
-      <c r="LUK17" s="3"/>
-      <c r="LUM17" s="3"/>
-      <c r="LUO17" s="3"/>
-      <c r="LUQ17" s="3"/>
-      <c r="LUS17" s="3"/>
-      <c r="LUU17" s="3"/>
-      <c r="LUW17" s="3"/>
-      <c r="LUY17" s="3"/>
-      <c r="LVA17" s="3"/>
-      <c r="LVC17" s="3"/>
-      <c r="LVE17" s="3"/>
-      <c r="LVG17" s="3"/>
-      <c r="LVI17" s="3"/>
-      <c r="LVK17" s="3"/>
-      <c r="LVM17" s="3"/>
-      <c r="LVO17" s="3"/>
-      <c r="LVQ17" s="3"/>
-      <c r="LVS17" s="3"/>
-      <c r="LVU17" s="3"/>
-      <c r="LVW17" s="3"/>
-      <c r="LVY17" s="3"/>
-      <c r="LWA17" s="3"/>
-      <c r="LWC17" s="3"/>
-      <c r="LWE17" s="3"/>
-      <c r="LWG17" s="3"/>
-      <c r="LWI17" s="3"/>
-      <c r="LWK17" s="3"/>
-      <c r="LWM17" s="3"/>
-      <c r="LWO17" s="3"/>
-      <c r="LWQ17" s="3"/>
-      <c r="LWS17" s="3"/>
-      <c r="LWU17" s="3"/>
-      <c r="LWW17" s="3"/>
-      <c r="LWY17" s="3"/>
-      <c r="LXA17" s="3"/>
-      <c r="LXC17" s="3"/>
-      <c r="LXE17" s="3"/>
-      <c r="LXG17" s="3"/>
-      <c r="LXI17" s="3"/>
-      <c r="LXK17" s="3"/>
-      <c r="LXM17" s="3"/>
-      <c r="LXO17" s="3"/>
-      <c r="LXQ17" s="3"/>
-      <c r="LXS17" s="3"/>
-      <c r="LXU17" s="3"/>
-      <c r="LXW17" s="3"/>
-      <c r="LXY17" s="3"/>
-      <c r="LYA17" s="3"/>
-      <c r="LYC17" s="3"/>
-      <c r="LYE17" s="3"/>
-      <c r="LYG17" s="3"/>
-      <c r="LYI17" s="3"/>
-      <c r="LYK17" s="3"/>
-      <c r="LYM17" s="3"/>
-      <c r="LYO17" s="3"/>
-      <c r="LYQ17" s="3"/>
-      <c r="LYS17" s="3"/>
-      <c r="LYU17" s="3"/>
-      <c r="LYW17" s="3"/>
-      <c r="LYY17" s="3"/>
-      <c r="LZA17" s="3"/>
-      <c r="LZC17" s="3"/>
-      <c r="LZE17" s="3"/>
-      <c r="LZG17" s="3"/>
-      <c r="LZI17" s="3"/>
-      <c r="LZK17" s="3"/>
-      <c r="LZM17" s="3"/>
-      <c r="LZO17" s="3"/>
-      <c r="LZQ17" s="3"/>
-      <c r="LZS17" s="3"/>
-      <c r="LZU17" s="3"/>
-      <c r="LZW17" s="3"/>
-      <c r="LZY17" s="3"/>
-      <c r="MAA17" s="3"/>
-      <c r="MAC17" s="3"/>
-      <c r="MAE17" s="3"/>
-      <c r="MAG17" s="3"/>
-      <c r="MAI17" s="3"/>
-      <c r="MAK17" s="3"/>
-      <c r="MAM17" s="3"/>
-      <c r="MAO17" s="3"/>
-      <c r="MAQ17" s="3"/>
-      <c r="MAS17" s="3"/>
-      <c r="MAU17" s="3"/>
-      <c r="MAW17" s="3"/>
-      <c r="MAY17" s="3"/>
-      <c r="MBA17" s="3"/>
-      <c r="MBC17" s="3"/>
-      <c r="MBE17" s="3"/>
-      <c r="MBG17" s="3"/>
-      <c r="MBI17" s="3"/>
-      <c r="MBK17" s="3"/>
-      <c r="MBM17" s="3"/>
-      <c r="MBO17" s="3"/>
-      <c r="MBQ17" s="3"/>
-      <c r="MBS17" s="3"/>
-      <c r="MBU17" s="3"/>
-      <c r="MBW17" s="3"/>
-      <c r="MBY17" s="3"/>
-      <c r="MCA17" s="3"/>
-      <c r="MCC17" s="3"/>
-      <c r="MCE17" s="3"/>
-      <c r="MCG17" s="3"/>
-      <c r="MCI17" s="3"/>
-      <c r="MCK17" s="3"/>
-      <c r="MCM17" s="3"/>
-      <c r="MCO17" s="3"/>
-      <c r="MCQ17" s="3"/>
-      <c r="MCS17" s="3"/>
-      <c r="MCU17" s="3"/>
-      <c r="MCW17" s="3"/>
-      <c r="MCY17" s="3"/>
-      <c r="MDA17" s="3"/>
-      <c r="MDC17" s="3"/>
-      <c r="MDE17" s="3"/>
-      <c r="MDG17" s="3"/>
-      <c r="MDI17" s="3"/>
-      <c r="MDK17" s="3"/>
-      <c r="MDM17" s="3"/>
-      <c r="MDO17" s="3"/>
-      <c r="MDQ17" s="3"/>
-      <c r="MDS17" s="3"/>
-      <c r="MDU17" s="3"/>
-      <c r="MDW17" s="3"/>
-      <c r="MDY17" s="3"/>
-      <c r="MEA17" s="3"/>
-      <c r="MEC17" s="3"/>
-      <c r="MEE17" s="3"/>
-      <c r="MEG17" s="3"/>
-      <c r="MEI17" s="3"/>
-      <c r="MEK17" s="3"/>
-      <c r="MEM17" s="3"/>
-      <c r="MEO17" s="3"/>
-      <c r="MEQ17" s="3"/>
-      <c r="MES17" s="3"/>
-      <c r="MEU17" s="3"/>
-      <c r="MEW17" s="3"/>
-      <c r="MEY17" s="3"/>
-      <c r="MFA17" s="3"/>
-      <c r="MFC17" s="3"/>
-      <c r="MFE17" s="3"/>
-      <c r="MFG17" s="3"/>
-      <c r="MFI17" s="3"/>
-      <c r="MFK17" s="3"/>
-      <c r="MFM17" s="3"/>
-      <c r="MFO17" s="3"/>
-      <c r="MFQ17" s="3"/>
-      <c r="MFS17" s="3"/>
-      <c r="MFU17" s="3"/>
-      <c r="MFW17" s="3"/>
-      <c r="MFY17" s="3"/>
-      <c r="MGA17" s="3"/>
-      <c r="MGC17" s="3"/>
-      <c r="MGE17" s="3"/>
-      <c r="MGG17" s="3"/>
-      <c r="MGI17" s="3"/>
-      <c r="MGK17" s="3"/>
-      <c r="MGM17" s="3"/>
-      <c r="MGO17" s="3"/>
-      <c r="MGQ17" s="3"/>
-      <c r="MGS17" s="3"/>
-      <c r="MGU17" s="3"/>
-      <c r="MGW17" s="3"/>
-      <c r="MGY17" s="3"/>
-      <c r="MHA17" s="3"/>
-      <c r="MHC17" s="3"/>
-      <c r="MHE17" s="3"/>
-      <c r="MHG17" s="3"/>
-      <c r="MHI17" s="3"/>
-      <c r="MHK17" s="3"/>
-      <c r="MHM17" s="3"/>
-      <c r="MHO17" s="3"/>
-      <c r="MHQ17" s="3"/>
-      <c r="MHS17" s="3"/>
-      <c r="MHU17" s="3"/>
-      <c r="MHW17" s="3"/>
-      <c r="MHY17" s="3"/>
-      <c r="MIA17" s="3"/>
-      <c r="MIC17" s="3"/>
-      <c r="MIE17" s="3"/>
-      <c r="MIG17" s="3"/>
-      <c r="MII17" s="3"/>
-      <c r="MIK17" s="3"/>
-      <c r="MIM17" s="3"/>
-      <c r="MIO17" s="3"/>
-      <c r="MIQ17" s="3"/>
-      <c r="MIS17" s="3"/>
-      <c r="MIU17" s="3"/>
-      <c r="MIW17" s="3"/>
-      <c r="MIY17" s="3"/>
-      <c r="MJA17" s="3"/>
-      <c r="MJC17" s="3"/>
-      <c r="MJE17" s="3"/>
-      <c r="MJG17" s="3"/>
-      <c r="MJI17" s="3"/>
-      <c r="MJK17" s="3"/>
-      <c r="MJM17" s="3"/>
-      <c r="MJO17" s="3"/>
-      <c r="MJQ17" s="3"/>
-      <c r="MJS17" s="3"/>
-      <c r="MJU17" s="3"/>
-      <c r="MJW17" s="3"/>
-      <c r="MJY17" s="3"/>
-      <c r="MKA17" s="3"/>
-      <c r="MKC17" s="3"/>
-      <c r="MKE17" s="3"/>
-      <c r="MKG17" s="3"/>
-      <c r="MKI17" s="3"/>
-      <c r="MKK17" s="3"/>
-      <c r="MKM17" s="3"/>
-      <c r="MKO17" s="3"/>
-      <c r="MKQ17" s="3"/>
-      <c r="MKS17" s="3"/>
-      <c r="MKU17" s="3"/>
-      <c r="MKW17" s="3"/>
-      <c r="MKY17" s="3"/>
-      <c r="MLA17" s="3"/>
-      <c r="MLC17" s="3"/>
-      <c r="MLE17" s="3"/>
-      <c r="MLG17" s="3"/>
-      <c r="MLI17" s="3"/>
-      <c r="MLK17" s="3"/>
-      <c r="MLM17" s="3"/>
-      <c r="MLO17" s="3"/>
-      <c r="MLQ17" s="3"/>
-      <c r="MLS17" s="3"/>
-      <c r="MLU17" s="3"/>
-      <c r="MLW17" s="3"/>
-      <c r="MLY17" s="3"/>
-      <c r="MMA17" s="3"/>
-      <c r="MMC17" s="3"/>
-      <c r="MME17" s="3"/>
-      <c r="MMG17" s="3"/>
-      <c r="MMI17" s="3"/>
-      <c r="MMK17" s="3"/>
-      <c r="MMM17" s="3"/>
-      <c r="MMO17" s="3"/>
-      <c r="MMQ17" s="3"/>
-      <c r="MMS17" s="3"/>
-      <c r="MMU17" s="3"/>
-      <c r="MMW17" s="3"/>
-      <c r="MMY17" s="3"/>
-      <c r="MNA17" s="3"/>
-      <c r="MNC17" s="3"/>
-      <c r="MNE17" s="3"/>
-      <c r="MNG17" s="3"/>
-      <c r="MNI17" s="3"/>
-      <c r="MNK17" s="3"/>
-      <c r="MNM17" s="3"/>
-      <c r="MNO17" s="3"/>
-      <c r="MNQ17" s="3"/>
-      <c r="MNS17" s="3"/>
-      <c r="MNU17" s="3"/>
-      <c r="MNW17" s="3"/>
-      <c r="MNY17" s="3"/>
-      <c r="MOA17" s="3"/>
-      <c r="MOC17" s="3"/>
-      <c r="MOE17" s="3"/>
-      <c r="MOG17" s="3"/>
-      <c r="MOI17" s="3"/>
-      <c r="MOK17" s="3"/>
-      <c r="MOM17" s="3"/>
-      <c r="MOO17" s="3"/>
-      <c r="MOQ17" s="3"/>
-      <c r="MOS17" s="3"/>
-      <c r="MOU17" s="3"/>
-      <c r="MOW17" s="3"/>
-      <c r="MOY17" s="3"/>
-      <c r="MPA17" s="3"/>
-      <c r="MPC17" s="3"/>
-      <c r="MPE17" s="3"/>
-      <c r="MPG17" s="3"/>
-      <c r="MPI17" s="3"/>
-      <c r="MPK17" s="3"/>
-      <c r="MPM17" s="3"/>
-      <c r="MPO17" s="3"/>
-      <c r="MPQ17" s="3"/>
-      <c r="MPS17" s="3"/>
-      <c r="MPU17" s="3"/>
-      <c r="MPW17" s="3"/>
-      <c r="MPY17" s="3"/>
-      <c r="MQA17" s="3"/>
-      <c r="MQC17" s="3"/>
-      <c r="MQE17" s="3"/>
-      <c r="MQG17" s="3"/>
-      <c r="MQI17" s="3"/>
-      <c r="MQK17" s="3"/>
-      <c r="MQM17" s="3"/>
-      <c r="MQO17" s="3"/>
-      <c r="MQQ17" s="3"/>
-      <c r="MQS17" s="3"/>
-      <c r="MQU17" s="3"/>
-      <c r="MQW17" s="3"/>
-      <c r="MQY17" s="3"/>
-      <c r="MRA17" s="3"/>
-      <c r="MRC17" s="3"/>
-      <c r="MRE17" s="3"/>
-      <c r="MRG17" s="3"/>
-      <c r="MRI17" s="3"/>
-      <c r="MRK17" s="3"/>
-      <c r="MRM17" s="3"/>
-      <c r="MRO17" s="3"/>
-      <c r="MRQ17" s="3"/>
-      <c r="MRS17" s="3"/>
-      <c r="MRU17" s="3"/>
-      <c r="MRW17" s="3"/>
-      <c r="MRY17" s="3"/>
-      <c r="MSA17" s="3"/>
-      <c r="MSC17" s="3"/>
-      <c r="MSE17" s="3"/>
-      <c r="MSG17" s="3"/>
-      <c r="MSI17" s="3"/>
-      <c r="MSK17" s="3"/>
-      <c r="MSM17" s="3"/>
-      <c r="MSO17" s="3"/>
-      <c r="MSQ17" s="3"/>
-      <c r="MSS17" s="3"/>
-      <c r="MSU17" s="3"/>
-      <c r="MSW17" s="3"/>
-      <c r="MSY17" s="3"/>
-      <c r="MTA17" s="3"/>
-      <c r="MTC17" s="3"/>
-      <c r="MTE17" s="3"/>
-      <c r="MTG17" s="3"/>
-      <c r="MTI17" s="3"/>
-      <c r="MTK17" s="3"/>
-      <c r="MTM17" s="3"/>
-      <c r="MTO17" s="3"/>
-      <c r="MTQ17" s="3"/>
-      <c r="MTS17" s="3"/>
-      <c r="MTU17" s="3"/>
-      <c r="MTW17" s="3"/>
-      <c r="MTY17" s="3"/>
-      <c r="MUA17" s="3"/>
-      <c r="MUC17" s="3"/>
-      <c r="MUE17" s="3"/>
-      <c r="MUG17" s="3"/>
-      <c r="MUI17" s="3"/>
-      <c r="MUK17" s="3"/>
-      <c r="MUM17" s="3"/>
-      <c r="MUO17" s="3"/>
-      <c r="MUQ17" s="3"/>
-      <c r="MUS17" s="3"/>
-      <c r="MUU17" s="3"/>
-      <c r="MUW17" s="3"/>
-      <c r="MUY17" s="3"/>
-      <c r="MVA17" s="3"/>
-      <c r="MVC17" s="3"/>
-      <c r="MVE17" s="3"/>
-      <c r="MVG17" s="3"/>
-      <c r="MVI17" s="3"/>
-      <c r="MVK17" s="3"/>
-      <c r="MVM17" s="3"/>
-      <c r="MVO17" s="3"/>
-      <c r="MVQ17" s="3"/>
-      <c r="MVS17" s="3"/>
-      <c r="MVU17" s="3"/>
-      <c r="MVW17" s="3"/>
-      <c r="MVY17" s="3"/>
-      <c r="MWA17" s="3"/>
-      <c r="MWC17" s="3"/>
-      <c r="MWE17" s="3"/>
-      <c r="MWG17" s="3"/>
-      <c r="MWI17" s="3"/>
-      <c r="MWK17" s="3"/>
-      <c r="MWM17" s="3"/>
-      <c r="MWO17" s="3"/>
-      <c r="MWQ17" s="3"/>
-      <c r="MWS17" s="3"/>
-      <c r="MWU17" s="3"/>
-      <c r="MWW17" s="3"/>
-      <c r="MWY17" s="3"/>
-      <c r="MXA17" s="3"/>
-      <c r="MXC17" s="3"/>
-      <c r="MXE17" s="3"/>
-      <c r="MXG17" s="3"/>
-      <c r="MXI17" s="3"/>
-      <c r="MXK17" s="3"/>
-      <c r="MXM17" s="3"/>
-      <c r="MXO17" s="3"/>
-      <c r="MXQ17" s="3"/>
-      <c r="MXS17" s="3"/>
-      <c r="MXU17" s="3"/>
-      <c r="MXW17" s="3"/>
-      <c r="MXY17" s="3"/>
-      <c r="MYA17" s="3"/>
-      <c r="MYC17" s="3"/>
-      <c r="MYE17" s="3"/>
-      <c r="MYG17" s="3"/>
-      <c r="MYI17" s="3"/>
-      <c r="MYK17" s="3"/>
-      <c r="MYM17" s="3"/>
-      <c r="MYO17" s="3"/>
-      <c r="MYQ17" s="3"/>
-      <c r="MYS17" s="3"/>
-      <c r="MYU17" s="3"/>
-      <c r="MYW17" s="3"/>
-      <c r="MYY17" s="3"/>
-      <c r="MZA17" s="3"/>
-      <c r="MZC17" s="3"/>
-      <c r="MZE17" s="3"/>
-      <c r="MZG17" s="3"/>
-      <c r="MZI17" s="3"/>
-      <c r="MZK17" s="3"/>
-      <c r="MZM17" s="3"/>
-      <c r="MZO17" s="3"/>
-      <c r="MZQ17" s="3"/>
-      <c r="MZS17" s="3"/>
-      <c r="MZU17" s="3"/>
-      <c r="MZW17" s="3"/>
-      <c r="MZY17" s="3"/>
-      <c r="NAA17" s="3"/>
-      <c r="NAC17" s="3"/>
-      <c r="NAE17" s="3"/>
-      <c r="NAG17" s="3"/>
-      <c r="NAI17" s="3"/>
-      <c r="NAK17" s="3"/>
-      <c r="NAM17" s="3"/>
-      <c r="NAO17" s="3"/>
-      <c r="NAQ17" s="3"/>
-      <c r="NAS17" s="3"/>
-      <c r="NAU17" s="3"/>
-      <c r="NAW17" s="3"/>
-      <c r="NAY17" s="3"/>
-      <c r="NBA17" s="3"/>
-      <c r="NBC17" s="3"/>
-      <c r="NBE17" s="3"/>
-      <c r="NBG17" s="3"/>
-      <c r="NBI17" s="3"/>
-      <c r="NBK17" s="3"/>
-      <c r="NBM17" s="3"/>
-      <c r="NBO17" s="3"/>
-      <c r="NBQ17" s="3"/>
-      <c r="NBS17" s="3"/>
-      <c r="NBU17" s="3"/>
-      <c r="NBW17" s="3"/>
-      <c r="NBY17" s="3"/>
-      <c r="NCA17" s="3"/>
-      <c r="NCC17" s="3"/>
-      <c r="NCE17" s="3"/>
-      <c r="NCG17" s="3"/>
-      <c r="NCI17" s="3"/>
-      <c r="NCK17" s="3"/>
-      <c r="NCM17" s="3"/>
-      <c r="NCO17" s="3"/>
-      <c r="NCQ17" s="3"/>
-      <c r="NCS17" s="3"/>
-      <c r="NCU17" s="3"/>
-      <c r="NCW17" s="3"/>
-      <c r="NCY17" s="3"/>
-      <c r="NDA17" s="3"/>
-      <c r="NDC17" s="3"/>
-      <c r="NDE17" s="3"/>
-      <c r="NDG17" s="3"/>
-      <c r="NDI17" s="3"/>
-      <c r="NDK17" s="3"/>
-      <c r="NDM17" s="3"/>
-      <c r="NDO17" s="3"/>
-      <c r="NDQ17" s="3"/>
-      <c r="NDS17" s="3"/>
-      <c r="NDU17" s="3"/>
-      <c r="NDW17" s="3"/>
-      <c r="NDY17" s="3"/>
-      <c r="NEA17" s="3"/>
-      <c r="NEC17" s="3"/>
-      <c r="NEE17" s="3"/>
-      <c r="NEG17" s="3"/>
-      <c r="NEI17" s="3"/>
-      <c r="NEK17" s="3"/>
-      <c r="NEM17" s="3"/>
-      <c r="NEO17" s="3"/>
-      <c r="NEQ17" s="3"/>
-      <c r="NES17" s="3"/>
-      <c r="NEU17" s="3"/>
-      <c r="NEW17" s="3"/>
-      <c r="NEY17" s="3"/>
-      <c r="NFA17" s="3"/>
-      <c r="NFC17" s="3"/>
-      <c r="NFE17" s="3"/>
-      <c r="NFG17" s="3"/>
-      <c r="NFI17" s="3"/>
-      <c r="NFK17" s="3"/>
-      <c r="NFM17" s="3"/>
-      <c r="NFO17" s="3"/>
-      <c r="NFQ17" s="3"/>
-      <c r="NFS17" s="3"/>
-      <c r="NFU17" s="3"/>
-      <c r="NFW17" s="3"/>
-      <c r="NFY17" s="3"/>
-      <c r="NGA17" s="3"/>
-      <c r="NGC17" s="3"/>
-      <c r="NGE17" s="3"/>
-      <c r="NGG17" s="3"/>
-      <c r="NGI17" s="3"/>
-      <c r="NGK17" s="3"/>
-      <c r="NGM17" s="3"/>
-      <c r="NGO17" s="3"/>
-      <c r="NGQ17" s="3"/>
-      <c r="NGS17" s="3"/>
-      <c r="NGU17" s="3"/>
-      <c r="NGW17" s="3"/>
-      <c r="NGY17" s="3"/>
-      <c r="NHA17" s="3"/>
-      <c r="NHC17" s="3"/>
-      <c r="NHE17" s="3"/>
-      <c r="NHG17" s="3"/>
-      <c r="NHI17" s="3"/>
-      <c r="NHK17" s="3"/>
-      <c r="NHM17" s="3"/>
-      <c r="NHO17" s="3"/>
-      <c r="NHQ17" s="3"/>
-      <c r="NHS17" s="3"/>
-      <c r="NHU17" s="3"/>
-      <c r="NHW17" s="3"/>
-      <c r="NHY17" s="3"/>
-      <c r="NIA17" s="3"/>
-      <c r="NIC17" s="3"/>
-      <c r="NIE17" s="3"/>
-      <c r="NIG17" s="3"/>
-      <c r="NII17" s="3"/>
-      <c r="NIK17" s="3"/>
-      <c r="NIM17" s="3"/>
-      <c r="NIO17" s="3"/>
-      <c r="NIQ17" s="3"/>
-      <c r="NIS17" s="3"/>
-      <c r="NIU17" s="3"/>
-      <c r="NIW17" s="3"/>
-      <c r="NIY17" s="3"/>
-      <c r="NJA17" s="3"/>
-      <c r="NJC17" s="3"/>
-      <c r="NJE17" s="3"/>
-      <c r="NJG17" s="3"/>
-      <c r="NJI17" s="3"/>
-      <c r="NJK17" s="3"/>
-      <c r="NJM17" s="3"/>
-      <c r="NJO17" s="3"/>
-      <c r="NJQ17" s="3"/>
-      <c r="NJS17" s="3"/>
-      <c r="NJU17" s="3"/>
-      <c r="NJW17" s="3"/>
-      <c r="NJY17" s="3"/>
-      <c r="NKA17" s="3"/>
-      <c r="NKC17" s="3"/>
-      <c r="NKE17" s="3"/>
-      <c r="NKG17" s="3"/>
-      <c r="NKI17" s="3"/>
-      <c r="NKK17" s="3"/>
-      <c r="NKM17" s="3"/>
-      <c r="NKO17" s="3"/>
-      <c r="NKQ17" s="3"/>
-      <c r="NKS17" s="3"/>
-      <c r="NKU17" s="3"/>
-      <c r="NKW17" s="3"/>
-      <c r="NKY17" s="3"/>
-      <c r="NLA17" s="3"/>
-      <c r="NLC17" s="3"/>
-      <c r="NLE17" s="3"/>
-      <c r="NLG17" s="3"/>
-      <c r="NLI17" s="3"/>
-      <c r="NLK17" s="3"/>
-      <c r="NLM17" s="3"/>
-      <c r="NLO17" s="3"/>
-      <c r="NLQ17" s="3"/>
-      <c r="NLS17" s="3"/>
-      <c r="NLU17" s="3"/>
-      <c r="NLW17" s="3"/>
-      <c r="NLY17" s="3"/>
-      <c r="NMA17" s="3"/>
-      <c r="NMC17" s="3"/>
-      <c r="NME17" s="3"/>
-      <c r="NMG17" s="3"/>
-      <c r="NMI17" s="3"/>
-      <c r="NMK17" s="3"/>
-      <c r="NMM17" s="3"/>
-      <c r="NMO17" s="3"/>
-      <c r="NMQ17" s="3"/>
-      <c r="NMS17" s="3"/>
-      <c r="NMU17" s="3"/>
-      <c r="NMW17" s="3"/>
-      <c r="NMY17" s="3"/>
-      <c r="NNA17" s="3"/>
-      <c r="NNC17" s="3"/>
-      <c r="NNE17" s="3"/>
-      <c r="NNG17" s="3"/>
-      <c r="NNI17" s="3"/>
-      <c r="NNK17" s="3"/>
-      <c r="NNM17" s="3"/>
-      <c r="NNO17" s="3"/>
-      <c r="NNQ17" s="3"/>
-      <c r="NNS17" s="3"/>
-      <c r="NNU17" s="3"/>
-      <c r="NNW17" s="3"/>
-      <c r="NNY17" s="3"/>
-      <c r="NOA17" s="3"/>
-      <c r="NOC17" s="3"/>
-      <c r="NOE17" s="3"/>
-      <c r="NOG17" s="3"/>
-      <c r="NOI17" s="3"/>
-      <c r="NOK17" s="3"/>
-      <c r="NOM17" s="3"/>
-      <c r="NOO17" s="3"/>
-      <c r="NOQ17" s="3"/>
-      <c r="NOS17" s="3"/>
-      <c r="NOU17" s="3"/>
-      <c r="NOW17" s="3"/>
-      <c r="NOY17" s="3"/>
-      <c r="NPA17" s="3"/>
-      <c r="NPC17" s="3"/>
-      <c r="NPE17" s="3"/>
-      <c r="NPG17" s="3"/>
-      <c r="NPI17" s="3"/>
-      <c r="NPK17" s="3"/>
-      <c r="NPM17" s="3"/>
-      <c r="NPO17" s="3"/>
-      <c r="NPQ17" s="3"/>
-      <c r="NPS17" s="3"/>
-      <c r="NPU17" s="3"/>
-      <c r="NPW17" s="3"/>
-      <c r="NPY17" s="3"/>
-      <c r="NQA17" s="3"/>
-      <c r="NQC17" s="3"/>
-      <c r="NQE17" s="3"/>
-      <c r="NQG17" s="3"/>
-      <c r="NQI17" s="3"/>
-      <c r="NQK17" s="3"/>
-      <c r="NQM17" s="3"/>
-      <c r="NQO17" s="3"/>
-      <c r="NQQ17" s="3"/>
-      <c r="NQS17" s="3"/>
-      <c r="NQU17" s="3"/>
-      <c r="NQW17" s="3"/>
-      <c r="NQY17" s="3"/>
-      <c r="NRA17" s="3"/>
-      <c r="NRC17" s="3"/>
-      <c r="NRE17" s="3"/>
-      <c r="NRG17" s="3"/>
-      <c r="NRI17" s="3"/>
-      <c r="NRK17" s="3"/>
-      <c r="NRM17" s="3"/>
-      <c r="NRO17" s="3"/>
-      <c r="NRQ17" s="3"/>
-      <c r="NRS17" s="3"/>
-      <c r="NRU17" s="3"/>
-      <c r="NRW17" s="3"/>
-      <c r="NRY17" s="3"/>
-      <c r="NSA17" s="3"/>
-      <c r="NSC17" s="3"/>
-      <c r="NSE17" s="3"/>
-      <c r="NSG17" s="3"/>
-      <c r="NSI17" s="3"/>
-      <c r="NSK17" s="3"/>
-      <c r="NSM17" s="3"/>
-      <c r="NSO17" s="3"/>
-      <c r="NSQ17" s="3"/>
-      <c r="NSS17" s="3"/>
-      <c r="NSU17" s="3"/>
-      <c r="NSW17" s="3"/>
-      <c r="NSY17" s="3"/>
-      <c r="NTA17" s="3"/>
-      <c r="NTC17" s="3"/>
-      <c r="NTE17" s="3"/>
-      <c r="NTG17" s="3"/>
-      <c r="NTI17" s="3"/>
-      <c r="NTK17" s="3"/>
-      <c r="NTM17" s="3"/>
-      <c r="NTO17" s="3"/>
-      <c r="NTQ17" s="3"/>
-      <c r="NTS17" s="3"/>
-      <c r="NTU17" s="3"/>
-      <c r="NTW17" s="3"/>
-      <c r="NTY17" s="3"/>
-      <c r="NUA17" s="3"/>
-      <c r="NUC17" s="3"/>
-      <c r="NUE17" s="3"/>
-      <c r="NUG17" s="3"/>
-      <c r="NUI17" s="3"/>
-      <c r="NUK17" s="3"/>
-      <c r="NUM17" s="3"/>
-      <c r="NUO17" s="3"/>
-      <c r="NUQ17" s="3"/>
-      <c r="NUS17" s="3"/>
-      <c r="NUU17" s="3"/>
-      <c r="NUW17" s="3"/>
-      <c r="NUY17" s="3"/>
-      <c r="NVA17" s="3"/>
-      <c r="NVC17" s="3"/>
-      <c r="NVE17" s="3"/>
-      <c r="NVG17" s="3"/>
-      <c r="NVI17" s="3"/>
-      <c r="NVK17" s="3"/>
-      <c r="NVM17" s="3"/>
-      <c r="NVO17" s="3"/>
-      <c r="NVQ17" s="3"/>
-      <c r="NVS17" s="3"/>
-      <c r="NVU17" s="3"/>
-      <c r="NVW17" s="3"/>
-      <c r="NVY17" s="3"/>
-      <c r="NWA17" s="3"/>
-      <c r="NWC17" s="3"/>
-      <c r="NWE17" s="3"/>
-      <c r="NWG17" s="3"/>
-      <c r="NWI17" s="3"/>
-      <c r="NWK17" s="3"/>
-      <c r="NWM17" s="3"/>
-      <c r="NWO17" s="3"/>
-      <c r="NWQ17" s="3"/>
-      <c r="NWS17" s="3"/>
-      <c r="NWU17" s="3"/>
-      <c r="NWW17" s="3"/>
-      <c r="NWY17" s="3"/>
-      <c r="NXA17" s="3"/>
-      <c r="NXC17" s="3"/>
-      <c r="NXE17" s="3"/>
-      <c r="NXG17" s="3"/>
-      <c r="NXI17" s="3"/>
-      <c r="NXK17" s="3"/>
-      <c r="NXM17" s="3"/>
-      <c r="NXO17" s="3"/>
-      <c r="NXQ17" s="3"/>
-      <c r="NXS17" s="3"/>
-      <c r="NXU17" s="3"/>
-      <c r="NXW17" s="3"/>
-      <c r="NXY17" s="3"/>
-      <c r="NYA17" s="3"/>
-      <c r="NYC17" s="3"/>
-      <c r="NYE17" s="3"/>
-      <c r="NYG17" s="3"/>
-      <c r="NYI17" s="3"/>
-      <c r="NYK17" s="3"/>
-      <c r="NYM17" s="3"/>
-      <c r="NYO17" s="3"/>
-      <c r="NYQ17" s="3"/>
-      <c r="NYS17" s="3"/>
-      <c r="NYU17" s="3"/>
-      <c r="NYW17" s="3"/>
-      <c r="NYY17" s="3"/>
-      <c r="NZA17" s="3"/>
-      <c r="NZC17" s="3"/>
-      <c r="NZE17" s="3"/>
-      <c r="NZG17" s="3"/>
-      <c r="NZI17" s="3"/>
-      <c r="NZK17" s="3"/>
-      <c r="NZM17" s="3"/>
-      <c r="NZO17" s="3"/>
-      <c r="NZQ17" s="3"/>
-      <c r="NZS17" s="3"/>
-      <c r="NZU17" s="3"/>
-      <c r="NZW17" s="3"/>
-      <c r="NZY17" s="3"/>
-      <c r="OAA17" s="3"/>
-      <c r="OAC17" s="3"/>
-      <c r="OAE17" s="3"/>
-      <c r="OAG17" s="3"/>
-      <c r="OAI17" s="3"/>
-      <c r="OAK17" s="3"/>
-      <c r="OAM17" s="3"/>
-      <c r="OAO17" s="3"/>
-      <c r="OAQ17" s="3"/>
-      <c r="OAS17" s="3"/>
-      <c r="OAU17" s="3"/>
-      <c r="OAW17" s="3"/>
-      <c r="OAY17" s="3"/>
-      <c r="OBA17" s="3"/>
-      <c r="OBC17" s="3"/>
-      <c r="OBE17" s="3"/>
-      <c r="OBG17" s="3"/>
-      <c r="OBI17" s="3"/>
-      <c r="OBK17" s="3"/>
-      <c r="OBM17" s="3"/>
-      <c r="OBO17" s="3"/>
-      <c r="OBQ17" s="3"/>
-      <c r="OBS17" s="3"/>
-      <c r="OBU17" s="3"/>
-      <c r="OBW17" s="3"/>
-      <c r="OBY17" s="3"/>
-      <c r="OCA17" s="3"/>
-      <c r="OCC17" s="3"/>
-      <c r="OCE17" s="3"/>
-      <c r="OCG17" s="3"/>
-      <c r="OCI17" s="3"/>
-      <c r="OCK17" s="3"/>
-      <c r="OCM17" s="3"/>
-      <c r="OCO17" s="3"/>
-      <c r="OCQ17" s="3"/>
-      <c r="OCS17" s="3"/>
-      <c r="OCU17" s="3"/>
-      <c r="OCW17" s="3"/>
-      <c r="OCY17" s="3"/>
-      <c r="ODA17" s="3"/>
-      <c r="ODC17" s="3"/>
-      <c r="ODE17" s="3"/>
-      <c r="ODG17" s="3"/>
-      <c r="ODI17" s="3"/>
-      <c r="ODK17" s="3"/>
-      <c r="ODM17" s="3"/>
-      <c r="ODO17" s="3"/>
-      <c r="ODQ17" s="3"/>
-      <c r="ODS17" s="3"/>
-      <c r="ODU17" s="3"/>
-      <c r="ODW17" s="3"/>
-      <c r="ODY17" s="3"/>
-      <c r="OEA17" s="3"/>
-      <c r="OEC17" s="3"/>
-      <c r="OEE17" s="3"/>
-      <c r="OEG17" s="3"/>
-      <c r="OEI17" s="3"/>
-      <c r="OEK17" s="3"/>
-      <c r="OEM17" s="3"/>
-      <c r="OEO17" s="3"/>
-      <c r="OEQ17" s="3"/>
-      <c r="OES17" s="3"/>
-      <c r="OEU17" s="3"/>
-      <c r="OEW17" s="3"/>
-      <c r="OEY17" s="3"/>
-      <c r="OFA17" s="3"/>
-      <c r="OFC17" s="3"/>
-      <c r="OFE17" s="3"/>
-      <c r="OFG17" s="3"/>
-      <c r="OFI17" s="3"/>
-      <c r="OFK17" s="3"/>
-      <c r="OFM17" s="3"/>
-      <c r="OFO17" s="3"/>
-      <c r="OFQ17" s="3"/>
-      <c r="OFS17" s="3"/>
-      <c r="OFU17" s="3"/>
-      <c r="OFW17" s="3"/>
-      <c r="OFY17" s="3"/>
-      <c r="OGA17" s="3"/>
-      <c r="OGC17" s="3"/>
-      <c r="OGE17" s="3"/>
-      <c r="OGG17" s="3"/>
-      <c r="OGI17" s="3"/>
-      <c r="OGK17" s="3"/>
-      <c r="OGM17" s="3"/>
-      <c r="OGO17" s="3"/>
-      <c r="OGQ17" s="3"/>
-      <c r="OGS17" s="3"/>
-      <c r="OGU17" s="3"/>
-      <c r="OGW17" s="3"/>
-      <c r="OGY17" s="3"/>
-      <c r="OHA17" s="3"/>
-      <c r="OHC17" s="3"/>
-      <c r="OHE17" s="3"/>
-      <c r="OHG17" s="3"/>
-      <c r="OHI17" s="3"/>
-      <c r="OHK17" s="3"/>
-      <c r="OHM17" s="3"/>
-      <c r="OHO17" s="3"/>
-      <c r="OHQ17" s="3"/>
-      <c r="OHS17" s="3"/>
-      <c r="OHU17" s="3"/>
-      <c r="OHW17" s="3"/>
-      <c r="OHY17" s="3"/>
-      <c r="OIA17" s="3"/>
-      <c r="OIC17" s="3"/>
-      <c r="OIE17" s="3"/>
-      <c r="OIG17" s="3"/>
-      <c r="OII17" s="3"/>
-      <c r="OIK17" s="3"/>
-      <c r="OIM17" s="3"/>
-      <c r="OIO17" s="3"/>
-      <c r="OIQ17" s="3"/>
-      <c r="OIS17" s="3"/>
-      <c r="OIU17" s="3"/>
-      <c r="OIW17" s="3"/>
-      <c r="OIY17" s="3"/>
-      <c r="OJA17" s="3"/>
-      <c r="OJC17" s="3"/>
-      <c r="OJE17" s="3"/>
-      <c r="OJG17" s="3"/>
-      <c r="OJI17" s="3"/>
-      <c r="OJK17" s="3"/>
-      <c r="OJM17" s="3"/>
-      <c r="OJO17" s="3"/>
-      <c r="OJQ17" s="3"/>
-      <c r="OJS17" s="3"/>
-      <c r="OJU17" s="3"/>
-      <c r="OJW17" s="3"/>
-      <c r="OJY17" s="3"/>
-      <c r="OKA17" s="3"/>
-      <c r="OKC17" s="3"/>
-      <c r="OKE17" s="3"/>
-      <c r="OKG17" s="3"/>
-      <c r="OKI17" s="3"/>
-      <c r="OKK17" s="3"/>
-      <c r="OKM17" s="3"/>
-      <c r="OKO17" s="3"/>
-      <c r="OKQ17" s="3"/>
-      <c r="OKS17" s="3"/>
-      <c r="OKU17" s="3"/>
-      <c r="OKW17" s="3"/>
-      <c r="OKY17" s="3"/>
-      <c r="OLA17" s="3"/>
-      <c r="OLC17" s="3"/>
-      <c r="OLE17" s="3"/>
-      <c r="OLG17" s="3"/>
-      <c r="OLI17" s="3"/>
-      <c r="OLK17" s="3"/>
-      <c r="OLM17" s="3"/>
-      <c r="OLO17" s="3"/>
-      <c r="OLQ17" s="3"/>
-      <c r="OLS17" s="3"/>
-      <c r="OLU17" s="3"/>
-      <c r="OLW17" s="3"/>
-      <c r="OLY17" s="3"/>
-      <c r="OMA17" s="3"/>
-      <c r="OMC17" s="3"/>
-      <c r="OME17" s="3"/>
-      <c r="OMG17" s="3"/>
-      <c r="OMI17" s="3"/>
-      <c r="OMK17" s="3"/>
-      <c r="OMM17" s="3"/>
-      <c r="OMO17" s="3"/>
-      <c r="OMQ17" s="3"/>
-      <c r="OMS17" s="3"/>
-      <c r="OMU17" s="3"/>
-      <c r="OMW17" s="3"/>
-      <c r="OMY17" s="3"/>
-      <c r="ONA17" s="3"/>
-      <c r="ONC17" s="3"/>
-      <c r="ONE17" s="3"/>
-      <c r="ONG17" s="3"/>
-      <c r="ONI17" s="3"/>
-      <c r="ONK17" s="3"/>
-      <c r="ONM17" s="3"/>
-      <c r="ONO17" s="3"/>
-      <c r="ONQ17" s="3"/>
-      <c r="ONS17" s="3"/>
-      <c r="ONU17" s="3"/>
-      <c r="ONW17" s="3"/>
-      <c r="ONY17" s="3"/>
-      <c r="OOA17" s="3"/>
-      <c r="OOC17" s="3"/>
-      <c r="OOE17" s="3"/>
-      <c r="OOG17" s="3"/>
-      <c r="OOI17" s="3"/>
-      <c r="OOK17" s="3"/>
-      <c r="OOM17" s="3"/>
-      <c r="OOO17" s="3"/>
-      <c r="OOQ17" s="3"/>
-      <c r="OOS17" s="3"/>
-      <c r="OOU17" s="3"/>
-      <c r="OOW17" s="3"/>
-      <c r="OOY17" s="3"/>
-      <c r="OPA17" s="3"/>
-      <c r="OPC17" s="3"/>
-      <c r="OPE17" s="3"/>
-      <c r="OPG17" s="3"/>
-      <c r="OPI17" s="3"/>
-      <c r="OPK17" s="3"/>
-      <c r="OPM17" s="3"/>
-      <c r="OPO17" s="3"/>
-      <c r="OPQ17" s="3"/>
-      <c r="OPS17" s="3"/>
-      <c r="OPU17" s="3"/>
-      <c r="OPW17" s="3"/>
-      <c r="OPY17" s="3"/>
-      <c r="OQA17" s="3"/>
-      <c r="OQC17" s="3"/>
-      <c r="OQE17" s="3"/>
-      <c r="OQG17" s="3"/>
-      <c r="OQI17" s="3"/>
-      <c r="OQK17" s="3"/>
-      <c r="OQM17" s="3"/>
-      <c r="OQO17" s="3"/>
-      <c r="OQQ17" s="3"/>
-      <c r="OQS17" s="3"/>
-      <c r="OQU17" s="3"/>
-      <c r="OQW17" s="3"/>
-      <c r="OQY17" s="3"/>
-      <c r="ORA17" s="3"/>
-      <c r="ORC17" s="3"/>
-      <c r="ORE17" s="3"/>
-      <c r="ORG17" s="3"/>
-      <c r="ORI17" s="3"/>
-      <c r="ORK17" s="3"/>
-      <c r="ORM17" s="3"/>
-      <c r="ORO17" s="3"/>
-      <c r="ORQ17" s="3"/>
-      <c r="ORS17" s="3"/>
-      <c r="ORU17" s="3"/>
-      <c r="ORW17" s="3"/>
-      <c r="ORY17" s="3"/>
-      <c r="OSA17" s="3"/>
-      <c r="OSC17" s="3"/>
-      <c r="OSE17" s="3"/>
-      <c r="OSG17" s="3"/>
-      <c r="OSI17" s="3"/>
-      <c r="OSK17" s="3"/>
-      <c r="OSM17" s="3"/>
-      <c r="OSO17" s="3"/>
-      <c r="OSQ17" s="3"/>
-      <c r="OSS17" s="3"/>
-      <c r="OSU17" s="3"/>
-      <c r="OSW17" s="3"/>
-      <c r="OSY17" s="3"/>
-      <c r="OTA17" s="3"/>
-      <c r="OTC17" s="3"/>
-      <c r="OTE17" s="3"/>
-      <c r="OTG17" s="3"/>
-      <c r="OTI17" s="3"/>
-      <c r="OTK17" s="3"/>
-      <c r="OTM17" s="3"/>
-      <c r="OTO17" s="3"/>
-      <c r="OTQ17" s="3"/>
-      <c r="OTS17" s="3"/>
-      <c r="OTU17" s="3"/>
-      <c r="OTW17" s="3"/>
-      <c r="OTY17" s="3"/>
-      <c r="OUA17" s="3"/>
-      <c r="OUC17" s="3"/>
-      <c r="OUE17" s="3"/>
-      <c r="OUG17" s="3"/>
-      <c r="OUI17" s="3"/>
-      <c r="OUK17" s="3"/>
-      <c r="OUM17" s="3"/>
-      <c r="OUO17" s="3"/>
-      <c r="OUQ17" s="3"/>
-      <c r="OUS17" s="3"/>
-      <c r="OUU17" s="3"/>
-      <c r="OUW17" s="3"/>
-      <c r="OUY17" s="3"/>
-      <c r="OVA17" s="3"/>
-      <c r="OVC17" s="3"/>
-      <c r="OVE17" s="3"/>
-      <c r="OVG17" s="3"/>
-      <c r="OVI17" s="3"/>
-      <c r="OVK17" s="3"/>
-      <c r="OVM17" s="3"/>
-      <c r="OVO17" s="3"/>
-      <c r="OVQ17" s="3"/>
-      <c r="OVS17" s="3"/>
-      <c r="OVU17" s="3"/>
-      <c r="OVW17" s="3"/>
-      <c r="OVY17" s="3"/>
-      <c r="OWA17" s="3"/>
-      <c r="OWC17" s="3"/>
-      <c r="OWE17" s="3"/>
-      <c r="OWG17" s="3"/>
-      <c r="OWI17" s="3"/>
-      <c r="OWK17" s="3"/>
-      <c r="OWM17" s="3"/>
-      <c r="OWO17" s="3"/>
-      <c r="OWQ17" s="3"/>
-      <c r="OWS17" s="3"/>
-      <c r="OWU17" s="3"/>
-      <c r="OWW17" s="3"/>
-      <c r="OWY17" s="3"/>
-      <c r="OXA17" s="3"/>
-      <c r="OXC17" s="3"/>
-      <c r="OXE17" s="3"/>
-      <c r="OXG17" s="3"/>
-      <c r="OXI17" s="3"/>
-      <c r="OXK17" s="3"/>
-      <c r="OXM17" s="3"/>
-      <c r="OXO17" s="3"/>
-      <c r="OXQ17" s="3"/>
-      <c r="OXS17" s="3"/>
-      <c r="OXU17" s="3"/>
-      <c r="OXW17" s="3"/>
-      <c r="OXY17" s="3"/>
-      <c r="OYA17" s="3"/>
-      <c r="OYC17" s="3"/>
-      <c r="OYE17" s="3"/>
-      <c r="OYG17" s="3"/>
-      <c r="OYI17" s="3"/>
-      <c r="OYK17" s="3"/>
-      <c r="OYM17" s="3"/>
-      <c r="OYO17" s="3"/>
-      <c r="OYQ17" s="3"/>
-      <c r="OYS17" s="3"/>
-      <c r="OYU17" s="3"/>
-      <c r="OYW17" s="3"/>
-      <c r="OYY17" s="3"/>
-      <c r="OZA17" s="3"/>
-      <c r="OZC17" s="3"/>
-      <c r="OZE17" s="3"/>
-      <c r="OZG17" s="3"/>
-      <c r="OZI17" s="3"/>
-      <c r="OZK17" s="3"/>
-      <c r="OZM17" s="3"/>
-      <c r="OZO17" s="3"/>
-      <c r="OZQ17" s="3"/>
-      <c r="OZS17" s="3"/>
-      <c r="OZU17" s="3"/>
-      <c r="OZW17" s="3"/>
-      <c r="OZY17" s="3"/>
-      <c r="PAA17" s="3"/>
-      <c r="PAC17" s="3"/>
-      <c r="PAE17" s="3"/>
-      <c r="PAG17" s="3"/>
-      <c r="PAI17" s="3"/>
-      <c r="PAK17" s="3"/>
-      <c r="PAM17" s="3"/>
-      <c r="PAO17" s="3"/>
-      <c r="PAQ17" s="3"/>
-      <c r="PAS17" s="3"/>
-      <c r="PAU17" s="3"/>
-      <c r="PAW17" s="3"/>
-      <c r="PAY17" s="3"/>
-      <c r="PBA17" s="3"/>
-      <c r="PBC17" s="3"/>
-      <c r="PBE17" s="3"/>
-      <c r="PBG17" s="3"/>
-      <c r="PBI17" s="3"/>
-      <c r="PBK17" s="3"/>
-      <c r="PBM17" s="3"/>
-      <c r="PBO17" s="3"/>
-      <c r="PBQ17" s="3"/>
-      <c r="PBS17" s="3"/>
-      <c r="PBU17" s="3"/>
-      <c r="PBW17" s="3"/>
-      <c r="PBY17" s="3"/>
-      <c r="PCA17" s="3"/>
-      <c r="PCC17" s="3"/>
-      <c r="PCE17" s="3"/>
-      <c r="PCG17" s="3"/>
-      <c r="PCI17" s="3"/>
-      <c r="PCK17" s="3"/>
-      <c r="PCM17" s="3"/>
-      <c r="PCO17" s="3"/>
-      <c r="PCQ17" s="3"/>
-      <c r="PCS17" s="3"/>
-      <c r="PCU17" s="3"/>
-      <c r="PCW17" s="3"/>
-      <c r="PCY17" s="3"/>
-      <c r="PDA17" s="3"/>
-      <c r="PDC17" s="3"/>
-      <c r="PDE17" s="3"/>
-      <c r="PDG17" s="3"/>
-      <c r="PDI17" s="3"/>
-      <c r="PDK17" s="3"/>
-      <c r="PDM17" s="3"/>
-      <c r="PDO17" s="3"/>
-      <c r="PDQ17" s="3"/>
-      <c r="PDS17" s="3"/>
-      <c r="PDU17" s="3"/>
-      <c r="PDW17" s="3"/>
-      <c r="PDY17" s="3"/>
-      <c r="PEA17" s="3"/>
-      <c r="PEC17" s="3"/>
-      <c r="PEE17" s="3"/>
-      <c r="PEG17" s="3"/>
-      <c r="PEI17" s="3"/>
-      <c r="PEK17" s="3"/>
-      <c r="PEM17" s="3"/>
-      <c r="PEO17" s="3"/>
-      <c r="PEQ17" s="3"/>
-      <c r="PES17" s="3"/>
-      <c r="PEU17" s="3"/>
-      <c r="PEW17" s="3"/>
-      <c r="PEY17" s="3"/>
-      <c r="PFA17" s="3"/>
-      <c r="PFC17" s="3"/>
-      <c r="PFE17" s="3"/>
-      <c r="PFG17" s="3"/>
-      <c r="PFI17" s="3"/>
-      <c r="PFK17" s="3"/>
-      <c r="PFM17" s="3"/>
-      <c r="PFO17" s="3"/>
-      <c r="PFQ17" s="3"/>
-      <c r="PFS17" s="3"/>
-      <c r="PFU17" s="3"/>
-      <c r="PFW17" s="3"/>
-      <c r="PFY17" s="3"/>
-      <c r="PGA17" s="3"/>
-      <c r="PGC17" s="3"/>
-      <c r="PGE17" s="3"/>
-      <c r="PGG17" s="3"/>
-      <c r="PGI17" s="3"/>
-      <c r="PGK17" s="3"/>
-      <c r="PGM17" s="3"/>
-      <c r="PGO17" s="3"/>
-      <c r="PGQ17" s="3"/>
-      <c r="PGS17" s="3"/>
-      <c r="PGU17" s="3"/>
-      <c r="PGW17" s="3"/>
-      <c r="PGY17" s="3"/>
-      <c r="PHA17" s="3"/>
-      <c r="PHC17" s="3"/>
-      <c r="PHE17" s="3"/>
-      <c r="PHG17" s="3"/>
-      <c r="PHI17" s="3"/>
-      <c r="PHK17" s="3"/>
-      <c r="PHM17" s="3"/>
-      <c r="PHO17" s="3"/>
-      <c r="PHQ17" s="3"/>
-      <c r="PHS17" s="3"/>
-      <c r="PHU17" s="3"/>
-      <c r="PHW17" s="3"/>
-      <c r="PHY17" s="3"/>
-      <c r="PIA17" s="3"/>
-      <c r="PIC17" s="3"/>
-      <c r="PIE17" s="3"/>
-      <c r="PIG17" s="3"/>
-      <c r="PII17" s="3"/>
-      <c r="PIK17" s="3"/>
-      <c r="PIM17" s="3"/>
-      <c r="PIO17" s="3"/>
-      <c r="PIQ17" s="3"/>
-      <c r="PIS17" s="3"/>
-      <c r="PIU17" s="3"/>
-      <c r="PIW17" s="3"/>
-      <c r="PIY17" s="3"/>
-      <c r="PJA17" s="3"/>
-      <c r="PJC17" s="3"/>
-      <c r="PJE17" s="3"/>
-      <c r="PJG17" s="3"/>
-      <c r="PJI17" s="3"/>
-      <c r="PJK17" s="3"/>
-      <c r="PJM17" s="3"/>
-      <c r="PJO17" s="3"/>
-      <c r="PJQ17" s="3"/>
-      <c r="PJS17" s="3"/>
-      <c r="PJU17" s="3"/>
-      <c r="PJW17" s="3"/>
-      <c r="PJY17" s="3"/>
-      <c r="PKA17" s="3"/>
-      <c r="PKC17" s="3"/>
-      <c r="PKE17" s="3"/>
-      <c r="PKG17" s="3"/>
-      <c r="PKI17" s="3"/>
-      <c r="PKK17" s="3"/>
-      <c r="PKM17" s="3"/>
-      <c r="PKO17" s="3"/>
-      <c r="PKQ17" s="3"/>
-      <c r="PKS17" s="3"/>
-      <c r="PKU17" s="3"/>
-      <c r="PKW17" s="3"/>
-      <c r="PKY17" s="3"/>
-      <c r="PLA17" s="3"/>
-      <c r="PLC17" s="3"/>
-      <c r="PLE17" s="3"/>
-      <c r="PLG17" s="3"/>
-      <c r="PLI17" s="3"/>
-      <c r="PLK17" s="3"/>
-      <c r="PLM17" s="3"/>
-      <c r="PLO17" s="3"/>
-      <c r="PLQ17" s="3"/>
-      <c r="PLS17" s="3"/>
-      <c r="PLU17" s="3"/>
-      <c r="PLW17" s="3"/>
-      <c r="PLY17" s="3"/>
-      <c r="PMA17" s="3"/>
-      <c r="PMC17" s="3"/>
-      <c r="PME17" s="3"/>
-      <c r="PMG17" s="3"/>
-      <c r="PMI17" s="3"/>
-      <c r="PMK17" s="3"/>
-      <c r="PMM17" s="3"/>
-      <c r="PMO17" s="3"/>
-      <c r="PMQ17" s="3"/>
-      <c r="PMS17" s="3"/>
-      <c r="PMU17" s="3"/>
-      <c r="PMW17" s="3"/>
-      <c r="PMY17" s="3"/>
-      <c r="PNA17" s="3"/>
-      <c r="PNC17" s="3"/>
-      <c r="PNE17" s="3"/>
-      <c r="PNG17" s="3"/>
-      <c r="PNI17" s="3"/>
-      <c r="PNK17" s="3"/>
-      <c r="PNM17" s="3"/>
-      <c r="PNO17" s="3"/>
-      <c r="PNQ17" s="3"/>
-      <c r="PNS17" s="3"/>
-      <c r="PNU17" s="3"/>
-      <c r="PNW17" s="3"/>
-      <c r="PNY17" s="3"/>
-      <c r="POA17" s="3"/>
-      <c r="POC17" s="3"/>
-      <c r="POE17" s="3"/>
-      <c r="POG17" s="3"/>
-      <c r="POI17" s="3"/>
-      <c r="POK17" s="3"/>
-      <c r="POM17" s="3"/>
-      <c r="POO17" s="3"/>
-      <c r="POQ17" s="3"/>
-      <c r="POS17" s="3"/>
-      <c r="POU17" s="3"/>
-      <c r="POW17" s="3"/>
-      <c r="POY17" s="3"/>
-      <c r="PPA17" s="3"/>
-      <c r="PPC17" s="3"/>
-      <c r="PPE17" s="3"/>
-      <c r="PPG17" s="3"/>
-      <c r="PPI17" s="3"/>
-      <c r="PPK17" s="3"/>
-      <c r="PPM17" s="3"/>
-      <c r="PPO17" s="3"/>
-      <c r="PPQ17" s="3"/>
-      <c r="PPS17" s="3"/>
-      <c r="PPU17" s="3"/>
-      <c r="PPW17" s="3"/>
-      <c r="PPY17" s="3"/>
-      <c r="PQA17" s="3"/>
-      <c r="PQC17" s="3"/>
-      <c r="PQE17" s="3"/>
-      <c r="PQG17" s="3"/>
-      <c r="PQI17" s="3"/>
-      <c r="PQK17" s="3"/>
-      <c r="PQM17" s="3"/>
-      <c r="PQO17" s="3"/>
-      <c r="PQQ17" s="3"/>
-      <c r="PQS17" s="3"/>
-      <c r="PQU17" s="3"/>
-      <c r="PQW17" s="3"/>
-      <c r="PQY17" s="3"/>
-      <c r="PRA17" s="3"/>
-      <c r="PRC17" s="3"/>
-      <c r="PRE17" s="3"/>
-      <c r="PRG17" s="3"/>
-      <c r="PRI17" s="3"/>
-      <c r="PRK17" s="3"/>
-      <c r="PRM17" s="3"/>
-      <c r="PRO17" s="3"/>
-      <c r="PRQ17" s="3"/>
-      <c r="PRS17" s="3"/>
-      <c r="PRU17" s="3"/>
-      <c r="PRW17" s="3"/>
-      <c r="PRY17" s="3"/>
-      <c r="PSA17" s="3"/>
-      <c r="PSC17" s="3"/>
-      <c r="PSE17" s="3"/>
-      <c r="PSG17" s="3"/>
-      <c r="PSI17" s="3"/>
-      <c r="PSK17" s="3"/>
-      <c r="PSM17" s="3"/>
-      <c r="PSO17" s="3"/>
-      <c r="PSQ17" s="3"/>
-      <c r="PSS17" s="3"/>
-      <c r="PSU17" s="3"/>
-      <c r="PSW17" s="3"/>
-      <c r="PSY17" s="3"/>
-      <c r="PTA17" s="3"/>
-      <c r="PTC17" s="3"/>
-      <c r="PTE17" s="3"/>
-      <c r="PTG17" s="3"/>
-      <c r="PTI17" s="3"/>
-      <c r="PTK17" s="3"/>
-      <c r="PTM17" s="3"/>
-      <c r="PTO17" s="3"/>
-      <c r="PTQ17" s="3"/>
-      <c r="PTS17" s="3"/>
-      <c r="PTU17" s="3"/>
-      <c r="PTW17" s="3"/>
-      <c r="PTY17" s="3"/>
-      <c r="PUA17" s="3"/>
-      <c r="PUC17" s="3"/>
-      <c r="PUE17" s="3"/>
-      <c r="PUG17" s="3"/>
-      <c r="PUI17" s="3"/>
-      <c r="PUK17" s="3"/>
-      <c r="PUM17" s="3"/>
-      <c r="PUO17" s="3"/>
-      <c r="PUQ17" s="3"/>
-      <c r="PUS17" s="3"/>
-      <c r="PUU17" s="3"/>
-      <c r="PUW17" s="3"/>
-      <c r="PUY17" s="3"/>
-      <c r="PVA17" s="3"/>
-      <c r="PVC17" s="3"/>
-      <c r="PVE17" s="3"/>
-      <c r="PVG17" s="3"/>
-      <c r="PVI17" s="3"/>
-      <c r="PVK17" s="3"/>
-      <c r="PVM17" s="3"/>
-      <c r="PVO17" s="3"/>
-      <c r="PVQ17" s="3"/>
-      <c r="PVS17" s="3"/>
-      <c r="PVU17" s="3"/>
-      <c r="PVW17" s="3"/>
-      <c r="PVY17" s="3"/>
-      <c r="PWA17" s="3"/>
-      <c r="PWC17" s="3"/>
-      <c r="PWE17" s="3"/>
-      <c r="PWG17" s="3"/>
-      <c r="PWI17" s="3"/>
-      <c r="PWK17" s="3"/>
-      <c r="PWM17" s="3"/>
-      <c r="PWO17" s="3"/>
-      <c r="PWQ17" s="3"/>
-      <c r="PWS17" s="3"/>
-      <c r="PWU17" s="3"/>
-      <c r="PWW17" s="3"/>
-      <c r="PWY17" s="3"/>
-      <c r="PXA17" s="3"/>
-      <c r="PXC17" s="3"/>
-      <c r="PXE17" s="3"/>
-      <c r="PXG17" s="3"/>
-      <c r="PXI17" s="3"/>
-      <c r="PXK17" s="3"/>
-      <c r="PXM17" s="3"/>
-      <c r="PXO17" s="3"/>
-      <c r="PXQ17" s="3"/>
-      <c r="PXS17" s="3"/>
-      <c r="PXU17" s="3"/>
-      <c r="PXW17" s="3"/>
-      <c r="PXY17" s="3"/>
-      <c r="PYA17" s="3"/>
-      <c r="PYC17" s="3"/>
-      <c r="PYE17" s="3"/>
-      <c r="PYG17" s="3"/>
-      <c r="PYI17" s="3"/>
-      <c r="PYK17" s="3"/>
-      <c r="PYM17" s="3"/>
-      <c r="PYO17" s="3"/>
-      <c r="PYQ17" s="3"/>
-      <c r="PYS17" s="3"/>
-      <c r="PYU17" s="3"/>
-      <c r="PYW17" s="3"/>
-      <c r="PYY17" s="3"/>
-      <c r="PZA17" s="3"/>
-      <c r="PZC17" s="3"/>
-      <c r="PZE17" s="3"/>
-      <c r="PZG17" s="3"/>
-      <c r="PZI17" s="3"/>
-      <c r="PZK17" s="3"/>
-      <c r="PZM17" s="3"/>
-      <c r="PZO17" s="3"/>
-      <c r="PZQ17" s="3"/>
-      <c r="PZS17" s="3"/>
-      <c r="PZU17" s="3"/>
-      <c r="PZW17" s="3"/>
-      <c r="PZY17" s="3"/>
-      <c r="QAA17" s="3"/>
-      <c r="QAC17" s="3"/>
-      <c r="QAE17" s="3"/>
-      <c r="QAG17" s="3"/>
-      <c r="QAI17" s="3"/>
-      <c r="QAK17" s="3"/>
-      <c r="QAM17" s="3"/>
-      <c r="QAO17" s="3"/>
-      <c r="QAQ17" s="3"/>
-      <c r="QAS17" s="3"/>
-      <c r="QAU17" s="3"/>
-      <c r="QAW17" s="3"/>
-      <c r="QAY17" s="3"/>
-      <c r="QBA17" s="3"/>
-      <c r="QBC17" s="3"/>
-      <c r="QBE17" s="3"/>
-      <c r="QBG17" s="3"/>
-      <c r="QBI17" s="3"/>
-      <c r="QBK17" s="3"/>
-      <c r="QBM17" s="3"/>
-      <c r="QBO17" s="3"/>
-      <c r="QBQ17" s="3"/>
-      <c r="QBS17" s="3"/>
-      <c r="QBU17" s="3"/>
-      <c r="QBW17" s="3"/>
-      <c r="QBY17" s="3"/>
-      <c r="QCA17" s="3"/>
-      <c r="QCC17" s="3"/>
-      <c r="QCE17" s="3"/>
-      <c r="QCG17" s="3"/>
-      <c r="QCI17" s="3"/>
-      <c r="QCK17" s="3"/>
-      <c r="QCM17" s="3"/>
-      <c r="QCO17" s="3"/>
-      <c r="QCQ17" s="3"/>
-      <c r="QCS17" s="3"/>
-      <c r="QCU17" s="3"/>
-      <c r="QCW17" s="3"/>
-      <c r="QCY17" s="3"/>
-      <c r="QDA17" s="3"/>
-      <c r="QDC17" s="3"/>
-      <c r="QDE17" s="3"/>
-      <c r="QDG17" s="3"/>
-      <c r="QDI17" s="3"/>
-      <c r="QDK17" s="3"/>
-      <c r="QDM17" s="3"/>
-      <c r="QDO17" s="3"/>
-      <c r="QDQ17" s="3"/>
-      <c r="QDS17" s="3"/>
-      <c r="QDU17" s="3"/>
-      <c r="QDW17" s="3"/>
-      <c r="QDY17" s="3"/>
-      <c r="QEA17" s="3"/>
-      <c r="QEC17" s="3"/>
-      <c r="QEE17" s="3"/>
-      <c r="QEG17" s="3"/>
-      <c r="QEI17" s="3"/>
-      <c r="QEK17" s="3"/>
-      <c r="QEM17" s="3"/>
-      <c r="QEO17" s="3"/>
-      <c r="QEQ17" s="3"/>
-      <c r="QES17" s="3"/>
-      <c r="QEU17" s="3"/>
-      <c r="QEW17" s="3"/>
-      <c r="QEY17" s="3"/>
-      <c r="QFA17" s="3"/>
-      <c r="QFC17" s="3"/>
-      <c r="QFE17" s="3"/>
-      <c r="QFG17" s="3"/>
-      <c r="QFI17" s="3"/>
-      <c r="QFK17" s="3"/>
-      <c r="QFM17" s="3"/>
-      <c r="QFO17" s="3"/>
-      <c r="QFQ17" s="3"/>
-      <c r="QFS17" s="3"/>
-      <c r="QFU17" s="3"/>
-      <c r="QFW17" s="3"/>
-      <c r="QFY17" s="3"/>
-      <c r="QGA17" s="3"/>
-      <c r="QGC17" s="3"/>
-      <c r="QGE17" s="3"/>
-      <c r="QGG17" s="3"/>
-      <c r="QGI17" s="3"/>
-      <c r="QGK17" s="3"/>
-      <c r="QGM17" s="3"/>
-      <c r="QGO17" s="3"/>
-      <c r="QGQ17" s="3"/>
-      <c r="QGS17" s="3"/>
-      <c r="QGU17" s="3"/>
-      <c r="QGW17" s="3"/>
-      <c r="QGY17" s="3"/>
-      <c r="QHA17" s="3"/>
-      <c r="QHC17" s="3"/>
-      <c r="QHE17" s="3"/>
-      <c r="QHG17" s="3"/>
-      <c r="QHI17" s="3"/>
-      <c r="QHK17" s="3"/>
-      <c r="QHM17" s="3"/>
-      <c r="QHO17" s="3"/>
-      <c r="QHQ17" s="3"/>
-      <c r="QHS17" s="3"/>
-      <c r="QHU17" s="3"/>
-      <c r="QHW17" s="3"/>
-      <c r="QHY17" s="3"/>
-      <c r="QIA17" s="3"/>
-      <c r="QIC17" s="3"/>
-      <c r="QIE17" s="3"/>
-      <c r="QIG17" s="3"/>
-      <c r="QII17" s="3"/>
-      <c r="QIK17" s="3"/>
-      <c r="QIM17" s="3"/>
-      <c r="QIO17" s="3"/>
-      <c r="QIQ17" s="3"/>
-      <c r="QIS17" s="3"/>
-      <c r="QIU17" s="3"/>
-      <c r="QIW17" s="3"/>
-      <c r="QIY17" s="3"/>
-      <c r="QJA17" s="3"/>
-      <c r="QJC17" s="3"/>
-      <c r="QJE17" s="3"/>
-      <c r="QJG17" s="3"/>
-      <c r="QJI17" s="3"/>
-      <c r="QJK17" s="3"/>
-      <c r="QJM17" s="3"/>
-      <c r="QJO17" s="3"/>
-      <c r="QJQ17" s="3"/>
-      <c r="QJS17" s="3"/>
-      <c r="QJU17" s="3"/>
-      <c r="QJW17" s="3"/>
-      <c r="QJY17" s="3"/>
-      <c r="QKA17" s="3"/>
-      <c r="QKC17" s="3"/>
-      <c r="QKE17" s="3"/>
-      <c r="QKG17" s="3"/>
-      <c r="QKI17" s="3"/>
-      <c r="QKK17" s="3"/>
-      <c r="QKM17" s="3"/>
-      <c r="QKO17" s="3"/>
-      <c r="QKQ17" s="3"/>
-      <c r="QKS17" s="3"/>
-      <c r="QKU17" s="3"/>
-      <c r="QKW17" s="3"/>
-      <c r="QKY17" s="3"/>
-      <c r="QLA17" s="3"/>
-      <c r="QLC17" s="3"/>
-      <c r="QLE17" s="3"/>
-      <c r="QLG17" s="3"/>
-      <c r="QLI17" s="3"/>
-      <c r="QLK17" s="3"/>
-      <c r="QLM17" s="3"/>
-      <c r="QLO17" s="3"/>
-      <c r="QLQ17" s="3"/>
-      <c r="QLS17" s="3"/>
-      <c r="QLU17" s="3"/>
-      <c r="QLW17" s="3"/>
-      <c r="QLY17" s="3"/>
-      <c r="QMA17" s="3"/>
-      <c r="QMC17" s="3"/>
-      <c r="QME17" s="3"/>
-      <c r="QMG17" s="3"/>
-      <c r="QMI17" s="3"/>
-      <c r="QMK17" s="3"/>
-      <c r="QMM17" s="3"/>
-      <c r="QMO17" s="3"/>
-      <c r="QMQ17" s="3"/>
-      <c r="QMS17" s="3"/>
-      <c r="QMU17" s="3"/>
-      <c r="QMW17" s="3"/>
-      <c r="QMY17" s="3"/>
-      <c r="QNA17" s="3"/>
-      <c r="QNC17" s="3"/>
-      <c r="QNE17" s="3"/>
-      <c r="QNG17" s="3"/>
-      <c r="QNI17" s="3"/>
-      <c r="QNK17" s="3"/>
-      <c r="QNM17" s="3"/>
-      <c r="QNO17" s="3"/>
-      <c r="QNQ17" s="3"/>
-      <c r="QNS17" s="3"/>
-      <c r="QNU17" s="3"/>
-      <c r="QNW17" s="3"/>
-      <c r="QNY17" s="3"/>
-      <c r="QOA17" s="3"/>
-      <c r="QOC17" s="3"/>
-      <c r="QOE17" s="3"/>
-      <c r="QOG17" s="3"/>
-      <c r="QOI17" s="3"/>
-      <c r="QOK17" s="3"/>
-      <c r="QOM17" s="3"/>
-      <c r="QOO17" s="3"/>
-      <c r="QOQ17" s="3"/>
-      <c r="QOS17" s="3"/>
-      <c r="QOU17" s="3"/>
-      <c r="QOW17" s="3"/>
-      <c r="QOY17" s="3"/>
-      <c r="QPA17" s="3"/>
-      <c r="QPC17" s="3"/>
-      <c r="QPE17" s="3"/>
-      <c r="QPG17" s="3"/>
-      <c r="QPI17" s="3"/>
-      <c r="QPK17" s="3"/>
-      <c r="QPM17" s="3"/>
-      <c r="QPO17" s="3"/>
-      <c r="QPQ17" s="3"/>
-      <c r="QPS17" s="3"/>
-      <c r="QPU17" s="3"/>
-      <c r="QPW17" s="3"/>
-      <c r="QPY17" s="3"/>
-      <c r="QQA17" s="3"/>
-      <c r="QQC17" s="3"/>
-      <c r="QQE17" s="3"/>
-      <c r="QQG17" s="3"/>
-      <c r="QQI17" s="3"/>
-      <c r="QQK17" s="3"/>
-      <c r="QQM17" s="3"/>
-      <c r="QQO17" s="3"/>
-      <c r="QQQ17" s="3"/>
-      <c r="QQS17" s="3"/>
-      <c r="QQU17" s="3"/>
-      <c r="QQW17" s="3"/>
-      <c r="QQY17" s="3"/>
-      <c r="QRA17" s="3"/>
-      <c r="QRC17" s="3"/>
-      <c r="QRE17" s="3"/>
-      <c r="QRG17" s="3"/>
-      <c r="QRI17" s="3"/>
-      <c r="QRK17" s="3"/>
-      <c r="QRM17" s="3"/>
-      <c r="QRO17" s="3"/>
-      <c r="QRQ17" s="3"/>
-      <c r="QRS17" s="3"/>
-      <c r="QRU17" s="3"/>
-      <c r="QRW17" s="3"/>
-      <c r="QRY17" s="3"/>
-      <c r="QSA17" s="3"/>
-      <c r="QSC17" s="3"/>
-      <c r="QSE17" s="3"/>
-      <c r="QSG17" s="3"/>
-      <c r="QSI17" s="3"/>
-      <c r="QSK17" s="3"/>
-      <c r="QSM17" s="3"/>
-      <c r="QSO17" s="3"/>
-      <c r="QSQ17" s="3"/>
-      <c r="QSS17" s="3"/>
-      <c r="QSU17" s="3"/>
-      <c r="QSW17" s="3"/>
-      <c r="QSY17" s="3"/>
-      <c r="QTA17" s="3"/>
-      <c r="QTC17" s="3"/>
-      <c r="QTE17" s="3"/>
-      <c r="QTG17" s="3"/>
-      <c r="QTI17" s="3"/>
-      <c r="QTK17" s="3"/>
-      <c r="QTM17" s="3"/>
-      <c r="QTO17" s="3"/>
-      <c r="QTQ17" s="3"/>
-      <c r="QTS17" s="3"/>
-      <c r="QTU17" s="3"/>
-      <c r="QTW17" s="3"/>
-      <c r="QTY17" s="3"/>
-      <c r="QUA17" s="3"/>
-      <c r="QUC17" s="3"/>
-      <c r="QUE17" s="3"/>
-      <c r="QUG17" s="3"/>
-      <c r="QUI17" s="3"/>
-      <c r="QUK17" s="3"/>
-      <c r="QUM17" s="3"/>
-      <c r="QUO17" s="3"/>
-      <c r="QUQ17" s="3"/>
-      <c r="QUS17" s="3"/>
-      <c r="QUU17" s="3"/>
-      <c r="QUW17" s="3"/>
-      <c r="QUY17" s="3"/>
-      <c r="QVA17" s="3"/>
-      <c r="QVC17" s="3"/>
-      <c r="QVE17" s="3"/>
-      <c r="QVG17" s="3"/>
-      <c r="QVI17" s="3"/>
-      <c r="QVK17" s="3"/>
-      <c r="QVM17" s="3"/>
-      <c r="QVO17" s="3"/>
-      <c r="QVQ17" s="3"/>
-      <c r="QVS17" s="3"/>
-      <c r="QVU17" s="3"/>
-      <c r="QVW17" s="3"/>
-      <c r="QVY17" s="3"/>
-      <c r="QWA17" s="3"/>
-      <c r="QWC17" s="3"/>
-      <c r="QWE17" s="3"/>
-      <c r="QWG17" s="3"/>
-      <c r="QWI17" s="3"/>
-      <c r="QWK17" s="3"/>
-      <c r="QWM17" s="3"/>
-      <c r="QWO17" s="3"/>
-      <c r="QWQ17" s="3"/>
-      <c r="QWS17" s="3"/>
-      <c r="QWU17" s="3"/>
-      <c r="QWW17" s="3"/>
-      <c r="QWY17" s="3"/>
-      <c r="QXA17" s="3"/>
-      <c r="QXC17" s="3"/>
-      <c r="QXE17" s="3"/>
-      <c r="QXG17" s="3"/>
-      <c r="QXI17" s="3"/>
-      <c r="QXK17" s="3"/>
-      <c r="QXM17" s="3"/>
-      <c r="QXO17" s="3"/>
-      <c r="QXQ17" s="3"/>
-      <c r="QXS17" s="3"/>
-      <c r="QXU17" s="3"/>
-      <c r="QXW17" s="3"/>
-      <c r="QXY17" s="3"/>
-      <c r="QYA17" s="3"/>
-      <c r="QYC17" s="3"/>
-      <c r="QYE17" s="3"/>
-      <c r="QYG17" s="3"/>
-      <c r="QYI17" s="3"/>
-      <c r="QYK17" s="3"/>
-      <c r="QYM17" s="3"/>
-      <c r="QYO17" s="3"/>
-      <c r="QYQ17" s="3"/>
-      <c r="QYS17" s="3"/>
-      <c r="QYU17" s="3"/>
-      <c r="QYW17" s="3"/>
-      <c r="QYY17" s="3"/>
-      <c r="QZA17" s="3"/>
-      <c r="QZC17" s="3"/>
-      <c r="QZE17" s="3"/>
-      <c r="QZG17" s="3"/>
-      <c r="QZI17" s="3"/>
-      <c r="QZK17" s="3"/>
-      <c r="QZM17" s="3"/>
-      <c r="QZO17" s="3"/>
-      <c r="QZQ17" s="3"/>
-      <c r="QZS17" s="3"/>
-      <c r="QZU17" s="3"/>
-      <c r="QZW17" s="3"/>
-      <c r="QZY17" s="3"/>
-      <c r="RAA17" s="3"/>
-      <c r="RAC17" s="3"/>
-      <c r="RAE17" s="3"/>
-      <c r="RAG17" s="3"/>
-      <c r="RAI17" s="3"/>
-      <c r="RAK17" s="3"/>
-      <c r="RAM17" s="3"/>
-      <c r="RAO17" s="3"/>
-      <c r="RAQ17" s="3"/>
-      <c r="RAS17" s="3"/>
-      <c r="RAU17" s="3"/>
-      <c r="RAW17" s="3"/>
-      <c r="RAY17" s="3"/>
-      <c r="RBA17" s="3"/>
-      <c r="RBC17" s="3"/>
-      <c r="RBE17" s="3"/>
-      <c r="RBG17" s="3"/>
-      <c r="RBI17" s="3"/>
-      <c r="RBK17" s="3"/>
-      <c r="RBM17" s="3"/>
-      <c r="RBO17" s="3"/>
-      <c r="RBQ17" s="3"/>
-      <c r="RBS17" s="3"/>
-      <c r="RBU17" s="3"/>
-      <c r="RBW17" s="3"/>
-      <c r="RBY17" s="3"/>
-      <c r="RCA17" s="3"/>
-      <c r="RCC17" s="3"/>
-      <c r="RCE17" s="3"/>
-      <c r="RCG17" s="3"/>
-      <c r="RCI17" s="3"/>
-      <c r="RCK17" s="3"/>
-      <c r="RCM17" s="3"/>
-      <c r="RCO17" s="3"/>
-      <c r="RCQ17" s="3"/>
-      <c r="RCS17" s="3"/>
-      <c r="RCU17" s="3"/>
-      <c r="RCW17" s="3"/>
-      <c r="RCY17" s="3"/>
-      <c r="RDA17" s="3"/>
-      <c r="RDC17" s="3"/>
-      <c r="RDE17" s="3"/>
-      <c r="RDG17" s="3"/>
-      <c r="RDI17" s="3"/>
-      <c r="RDK17" s="3"/>
-      <c r="RDM17" s="3"/>
-      <c r="RDO17" s="3"/>
-      <c r="RDQ17" s="3"/>
-      <c r="RDS17" s="3"/>
-      <c r="RDU17" s="3"/>
-      <c r="RDW17" s="3"/>
-      <c r="RDY17" s="3"/>
-      <c r="REA17" s="3"/>
-      <c r="REC17" s="3"/>
-      <c r="REE17" s="3"/>
-      <c r="REG17" s="3"/>
-      <c r="REI17" s="3"/>
-      <c r="REK17" s="3"/>
-      <c r="REM17" s="3"/>
-      <c r="REO17" s="3"/>
-      <c r="REQ17" s="3"/>
-      <c r="RES17" s="3"/>
-      <c r="REU17" s="3"/>
-      <c r="REW17" s="3"/>
-      <c r="REY17" s="3"/>
-      <c r="RFA17" s="3"/>
-      <c r="RFC17" s="3"/>
-      <c r="RFE17" s="3"/>
-      <c r="RFG17" s="3"/>
-      <c r="RFI17" s="3"/>
-      <c r="RFK17" s="3"/>
-      <c r="RFM17" s="3"/>
-      <c r="RFO17" s="3"/>
-      <c r="RFQ17" s="3"/>
-      <c r="RFS17" s="3"/>
-      <c r="RFU17" s="3"/>
-      <c r="RFW17" s="3"/>
-      <c r="RFY17" s="3"/>
-      <c r="RGA17" s="3"/>
-      <c r="RGC17" s="3"/>
-      <c r="RGE17" s="3"/>
-      <c r="RGG17" s="3"/>
-      <c r="RGI17" s="3"/>
-      <c r="RGK17" s="3"/>
-      <c r="RGM17" s="3"/>
-      <c r="RGO17" s="3"/>
-      <c r="RGQ17" s="3"/>
-      <c r="RGS17" s="3"/>
-      <c r="RGU17" s="3"/>
-      <c r="RGW17" s="3"/>
-      <c r="RGY17" s="3"/>
-      <c r="RHA17" s="3"/>
-      <c r="RHC17" s="3"/>
-      <c r="RHE17" s="3"/>
-      <c r="RHG17" s="3"/>
-      <c r="RHI17" s="3"/>
-      <c r="RHK17" s="3"/>
-      <c r="RHM17" s="3"/>
-      <c r="RHO17" s="3"/>
-      <c r="RHQ17" s="3"/>
-      <c r="RHS17" s="3"/>
-      <c r="RHU17" s="3"/>
-      <c r="RHW17" s="3"/>
-      <c r="RHY17" s="3"/>
-      <c r="RIA17" s="3"/>
-      <c r="RIC17" s="3"/>
-      <c r="RIE17" s="3"/>
-      <c r="RIG17" s="3"/>
-      <c r="RII17" s="3"/>
-      <c r="RIK17" s="3"/>
-      <c r="RIM17" s="3"/>
-      <c r="RIO17" s="3"/>
-      <c r="RIQ17" s="3"/>
-      <c r="RIS17" s="3"/>
-      <c r="RIU17" s="3"/>
-      <c r="RIW17" s="3"/>
-      <c r="RIY17" s="3"/>
-      <c r="RJA17" s="3"/>
-      <c r="RJC17" s="3"/>
-      <c r="RJE17" s="3"/>
-      <c r="RJG17" s="3"/>
-      <c r="RJI17" s="3"/>
-      <c r="RJK17" s="3"/>
-      <c r="RJM17" s="3"/>
-      <c r="RJO17" s="3"/>
-      <c r="RJQ17" s="3"/>
-      <c r="RJS17" s="3"/>
-      <c r="RJU17" s="3"/>
-      <c r="RJW17" s="3"/>
-      <c r="RJY17" s="3"/>
-      <c r="RKA17" s="3"/>
-      <c r="RKC17" s="3"/>
-      <c r="RKE17" s="3"/>
-      <c r="RKG17" s="3"/>
-      <c r="RKI17" s="3"/>
-      <c r="RKK17" s="3"/>
-      <c r="RKM17" s="3"/>
-      <c r="RKO17" s="3"/>
-      <c r="RKQ17" s="3"/>
-      <c r="RKS17" s="3"/>
-      <c r="RKU17" s="3"/>
-      <c r="RKW17" s="3"/>
-      <c r="RKY17" s="3"/>
-      <c r="RLA17" s="3"/>
-      <c r="RLC17" s="3"/>
-      <c r="RLE17" s="3"/>
-      <c r="RLG17" s="3"/>
-      <c r="RLI17" s="3"/>
-      <c r="RLK17" s="3"/>
-      <c r="RLM17" s="3"/>
-      <c r="RLO17" s="3"/>
-      <c r="RLQ17" s="3"/>
-      <c r="RLS17" s="3"/>
-      <c r="RLU17" s="3"/>
-      <c r="RLW17" s="3"/>
-      <c r="RLY17" s="3"/>
-      <c r="RMA17" s="3"/>
-      <c r="RMC17" s="3"/>
-      <c r="RME17" s="3"/>
-      <c r="RMG17" s="3"/>
-      <c r="RMI17" s="3"/>
-      <c r="RMK17" s="3"/>
-      <c r="RMM17" s="3"/>
-      <c r="RMO17" s="3"/>
-      <c r="RMQ17" s="3"/>
-      <c r="RMS17" s="3"/>
-      <c r="RMU17" s="3"/>
-      <c r="RMW17" s="3"/>
-      <c r="RMY17" s="3"/>
-      <c r="RNA17" s="3"/>
-      <c r="RNC17" s="3"/>
-      <c r="RNE17" s="3"/>
-      <c r="RNG17" s="3"/>
-      <c r="RNI17" s="3"/>
-      <c r="RNK17" s="3"/>
-      <c r="RNM17" s="3"/>
-      <c r="RNO17" s="3"/>
-      <c r="RNQ17" s="3"/>
-      <c r="RNS17" s="3"/>
-      <c r="RNU17" s="3"/>
-      <c r="RNW17" s="3"/>
-      <c r="RNY17" s="3"/>
-      <c r="ROA17" s="3"/>
-      <c r="ROC17" s="3"/>
-      <c r="ROE17" s="3"/>
-      <c r="ROG17" s="3"/>
-      <c r="ROI17" s="3"/>
-      <c r="ROK17" s="3"/>
-      <c r="ROM17" s="3"/>
-      <c r="ROO17" s="3"/>
-      <c r="ROQ17" s="3"/>
-      <c r="ROS17" s="3"/>
-      <c r="ROU17" s="3"/>
-      <c r="ROW17" s="3"/>
-      <c r="ROY17" s="3"/>
-      <c r="RPA17" s="3"/>
-      <c r="RPC17" s="3"/>
-      <c r="RPE17" s="3"/>
-      <c r="RPG17" s="3"/>
-      <c r="RPI17" s="3"/>
-      <c r="RPK17" s="3"/>
-      <c r="RPM17" s="3"/>
-      <c r="RPO17" s="3"/>
-      <c r="RPQ17" s="3"/>
-      <c r="RPS17" s="3"/>
-      <c r="RPU17" s="3"/>
-      <c r="RPW17" s="3"/>
-      <c r="RPY17" s="3"/>
-      <c r="RQA17" s="3"/>
-      <c r="RQC17" s="3"/>
-      <c r="RQE17" s="3"/>
-      <c r="RQG17" s="3"/>
-      <c r="RQI17" s="3"/>
-      <c r="RQK17" s="3"/>
-      <c r="RQM17" s="3"/>
-      <c r="RQO17" s="3"/>
-      <c r="RQQ17" s="3"/>
-      <c r="RQS17" s="3"/>
-      <c r="RQU17" s="3"/>
-      <c r="RQW17" s="3"/>
-      <c r="RQY17" s="3"/>
-      <c r="RRA17" s="3"/>
-      <c r="RRC17" s="3"/>
-      <c r="RRE17" s="3"/>
-      <c r="RRG17" s="3"/>
-      <c r="RRI17" s="3"/>
-      <c r="RRK17" s="3"/>
-      <c r="RRM17" s="3"/>
-      <c r="RRO17" s="3"/>
-      <c r="RRQ17" s="3"/>
-      <c r="RRS17" s="3"/>
-      <c r="RRU17" s="3"/>
-      <c r="RRW17" s="3"/>
-      <c r="RRY17" s="3"/>
-      <c r="RSA17" s="3"/>
-      <c r="RSC17" s="3"/>
-      <c r="RSE17" s="3"/>
-      <c r="RSG17" s="3"/>
-      <c r="RSI17" s="3"/>
-      <c r="RSK17" s="3"/>
-      <c r="RSM17" s="3"/>
-      <c r="RSO17" s="3"/>
-      <c r="RSQ17" s="3"/>
-      <c r="RSS17" s="3"/>
-      <c r="RSU17" s="3"/>
-      <c r="RSW17" s="3"/>
-      <c r="RSY17" s="3"/>
-      <c r="RTA17" s="3"/>
-      <c r="RTC17" s="3"/>
-      <c r="RTE17" s="3"/>
-      <c r="RTG17" s="3"/>
-      <c r="RTI17" s="3"/>
-      <c r="RTK17" s="3"/>
-      <c r="RTM17" s="3"/>
-      <c r="RTO17" s="3"/>
-      <c r="RTQ17" s="3"/>
-      <c r="RTS17" s="3"/>
-      <c r="RTU17" s="3"/>
-      <c r="RTW17" s="3"/>
-      <c r="RTY17" s="3"/>
-      <c r="RUA17" s="3"/>
-      <c r="RUC17" s="3"/>
-      <c r="RUE17" s="3"/>
-      <c r="RUG17" s="3"/>
-      <c r="RUI17" s="3"/>
-      <c r="RUK17" s="3"/>
-      <c r="RUM17" s="3"/>
-      <c r="RUO17" s="3"/>
-      <c r="RUQ17" s="3"/>
-      <c r="RUS17" s="3"/>
-      <c r="RUU17" s="3"/>
-      <c r="RUW17" s="3"/>
-      <c r="RUY17" s="3"/>
-      <c r="RVA17" s="3"/>
-      <c r="RVC17" s="3"/>
-      <c r="RVE17" s="3"/>
-      <c r="RVG17" s="3"/>
-      <c r="RVI17" s="3"/>
-      <c r="RVK17" s="3"/>
-      <c r="RVM17" s="3"/>
-      <c r="RVO17" s="3"/>
-      <c r="RVQ17" s="3"/>
-      <c r="RVS17" s="3"/>
-      <c r="RVU17" s="3"/>
-      <c r="RVW17" s="3"/>
-      <c r="RVY17" s="3"/>
-      <c r="RWA17" s="3"/>
-      <c r="RWC17" s="3"/>
-      <c r="RWE17" s="3"/>
-      <c r="RWG17" s="3"/>
-      <c r="RWI17" s="3"/>
-      <c r="RWK17" s="3"/>
-      <c r="RWM17" s="3"/>
-      <c r="RWO17" s="3"/>
-      <c r="RWQ17" s="3"/>
-      <c r="RWS17" s="3"/>
-      <c r="RWU17" s="3"/>
-      <c r="RWW17" s="3"/>
-      <c r="RWY17" s="3"/>
-      <c r="RXA17" s="3"/>
-      <c r="RXC17" s="3"/>
-      <c r="RXE17" s="3"/>
-      <c r="RXG17" s="3"/>
-      <c r="RXI17" s="3"/>
-      <c r="RXK17" s="3"/>
-      <c r="RXM17" s="3"/>
-      <c r="RXO17" s="3"/>
-      <c r="RXQ17" s="3"/>
-      <c r="RXS17" s="3"/>
-      <c r="RXU17" s="3"/>
-      <c r="RXW17" s="3"/>
-      <c r="RXY17" s="3"/>
-      <c r="RYA17" s="3"/>
-      <c r="RYC17" s="3"/>
-      <c r="RYE17" s="3"/>
-      <c r="RYG17" s="3"/>
-      <c r="RYI17" s="3"/>
-      <c r="RYK17" s="3"/>
-      <c r="RYM17" s="3"/>
-      <c r="RYO17" s="3"/>
-      <c r="RYQ17" s="3"/>
-      <c r="RYS17" s="3"/>
-      <c r="RYU17" s="3"/>
-      <c r="RYW17" s="3"/>
-      <c r="RYY17" s="3"/>
-      <c r="RZA17" s="3"/>
-      <c r="RZC17" s="3"/>
-      <c r="RZE17" s="3"/>
-      <c r="RZG17" s="3"/>
-      <c r="RZI17" s="3"/>
-      <c r="RZK17" s="3"/>
-      <c r="RZM17" s="3"/>
-      <c r="RZO17" s="3"/>
-      <c r="RZQ17" s="3"/>
-      <c r="RZS17" s="3"/>
-      <c r="RZU17" s="3"/>
-      <c r="RZW17" s="3"/>
-      <c r="RZY17" s="3"/>
-      <c r="SAA17" s="3"/>
-      <c r="SAC17" s="3"/>
-      <c r="SAE17" s="3"/>
-      <c r="SAG17" s="3"/>
-      <c r="SAI17" s="3"/>
-      <c r="SAK17" s="3"/>
-      <c r="SAM17" s="3"/>
-      <c r="SAO17" s="3"/>
-      <c r="SAQ17" s="3"/>
-      <c r="SAS17" s="3"/>
-      <c r="SAU17" s="3"/>
-      <c r="SAW17" s="3"/>
-      <c r="SAY17" s="3"/>
-      <c r="SBA17" s="3"/>
-      <c r="SBC17" s="3"/>
-      <c r="SBE17" s="3"/>
-      <c r="SBG17" s="3"/>
-      <c r="SBI17" s="3"/>
-      <c r="SBK17" s="3"/>
-      <c r="SBM17" s="3"/>
-      <c r="SBO17" s="3"/>
-      <c r="SBQ17" s="3"/>
-      <c r="SBS17" s="3"/>
-      <c r="SBU17" s="3"/>
-      <c r="SBW17" s="3"/>
-      <c r="SBY17" s="3"/>
-      <c r="SCA17" s="3"/>
-      <c r="SCC17" s="3"/>
-      <c r="SCE17" s="3"/>
-      <c r="SCG17" s="3"/>
-      <c r="SCI17" s="3"/>
-      <c r="SCK17" s="3"/>
-      <c r="SCM17" s="3"/>
-      <c r="SCO17" s="3"/>
-      <c r="SCQ17" s="3"/>
-      <c r="SCS17" s="3"/>
-      <c r="SCU17" s="3"/>
-      <c r="SCW17" s="3"/>
-      <c r="SCY17" s="3"/>
-      <c r="SDA17" s="3"/>
-      <c r="SDC17" s="3"/>
-      <c r="SDE17" s="3"/>
-      <c r="SDG17" s="3"/>
-      <c r="SDI17" s="3"/>
-      <c r="SDK17" s="3"/>
-      <c r="SDM17" s="3"/>
-      <c r="SDO17" s="3"/>
-      <c r="SDQ17" s="3"/>
-      <c r="SDS17" s="3"/>
-      <c r="SDU17" s="3"/>
-      <c r="SDW17" s="3"/>
-      <c r="SDY17" s="3"/>
-      <c r="SEA17" s="3"/>
-      <c r="SEC17" s="3"/>
-      <c r="SEE17" s="3"/>
-      <c r="SEG17" s="3"/>
-      <c r="SEI17" s="3"/>
-      <c r="SEK17" s="3"/>
-      <c r="SEM17" s="3"/>
-      <c r="SEO17" s="3"/>
-      <c r="SEQ17" s="3"/>
-      <c r="SES17" s="3"/>
-      <c r="SEU17" s="3"/>
-      <c r="SEW17" s="3"/>
-      <c r="SEY17" s="3"/>
-      <c r="SFA17" s="3"/>
-      <c r="SFC17" s="3"/>
-      <c r="SFE17" s="3"/>
-      <c r="SFG17" s="3"/>
-      <c r="SFI17" s="3"/>
-      <c r="SFK17" s="3"/>
-      <c r="SFM17" s="3"/>
-      <c r="SFO17" s="3"/>
-      <c r="SFQ17" s="3"/>
-      <c r="SFS17" s="3"/>
-      <c r="SFU17" s="3"/>
-      <c r="SFW17" s="3"/>
-      <c r="SFY17" s="3"/>
-      <c r="SGA17" s="3"/>
-      <c r="SGC17" s="3"/>
-      <c r="SGE17" s="3"/>
-      <c r="SGG17" s="3"/>
-      <c r="SGI17" s="3"/>
-      <c r="SGK17" s="3"/>
-      <c r="SGM17" s="3"/>
-      <c r="SGO17" s="3"/>
-      <c r="SGQ17" s="3"/>
-      <c r="SGS17" s="3"/>
-      <c r="SGU17" s="3"/>
-      <c r="SGW17" s="3"/>
-      <c r="SGY17" s="3"/>
-      <c r="SHA17" s="3"/>
-      <c r="SHC17" s="3"/>
-      <c r="SHE17" s="3"/>
-      <c r="SHG17" s="3"/>
-      <c r="SHI17" s="3"/>
-      <c r="SHK17" s="3"/>
-      <c r="SHM17" s="3"/>
-      <c r="SHO17" s="3"/>
-      <c r="SHQ17" s="3"/>
-      <c r="SHS17" s="3"/>
-      <c r="SHU17" s="3"/>
-      <c r="SHW17" s="3"/>
-      <c r="SHY17" s="3"/>
-      <c r="SIA17" s="3"/>
-      <c r="SIC17" s="3"/>
-      <c r="SIE17" s="3"/>
-      <c r="SIG17" s="3"/>
-      <c r="SII17" s="3"/>
-      <c r="SIK17" s="3"/>
-      <c r="SIM17" s="3"/>
-      <c r="SIO17" s="3"/>
-      <c r="SIQ17" s="3"/>
-      <c r="SIS17" s="3"/>
-      <c r="SIU17" s="3"/>
-      <c r="SIW17" s="3"/>
-      <c r="SIY17" s="3"/>
-      <c r="SJA17" s="3"/>
-      <c r="SJC17" s="3"/>
-      <c r="SJE17" s="3"/>
-      <c r="SJG17" s="3"/>
-      <c r="SJI17" s="3"/>
-      <c r="SJK17" s="3"/>
-      <c r="SJM17" s="3"/>
-      <c r="SJO17" s="3"/>
-      <c r="SJQ17" s="3"/>
-      <c r="SJS17" s="3"/>
-      <c r="SJU17" s="3"/>
-      <c r="SJW17" s="3"/>
-      <c r="SJY17" s="3"/>
-      <c r="SKA17" s="3"/>
-      <c r="SKC17" s="3"/>
-      <c r="SKE17" s="3"/>
-      <c r="SKG17" s="3"/>
-      <c r="SKI17" s="3"/>
-      <c r="SKK17" s="3"/>
-      <c r="SKM17" s="3"/>
-      <c r="SKO17" s="3"/>
-      <c r="SKQ17" s="3"/>
-      <c r="SKS17" s="3"/>
-      <c r="SKU17" s="3"/>
-      <c r="SKW17" s="3"/>
-      <c r="SKY17" s="3"/>
-      <c r="SLA17" s="3"/>
-      <c r="SLC17" s="3"/>
-      <c r="SLE17" s="3"/>
-      <c r="SLG17" s="3"/>
-      <c r="SLI17" s="3"/>
-      <c r="SLK17" s="3"/>
-      <c r="SLM17" s="3"/>
-      <c r="SLO17" s="3"/>
-      <c r="SLQ17" s="3"/>
-      <c r="SLS17" s="3"/>
-      <c r="SLU17" s="3"/>
-      <c r="SLW17" s="3"/>
-      <c r="SLY17" s="3"/>
-      <c r="SMA17" s="3"/>
-      <c r="SMC17" s="3"/>
-      <c r="SME17" s="3"/>
-      <c r="SMG17" s="3"/>
-      <c r="SMI17" s="3"/>
-      <c r="SMK17" s="3"/>
-      <c r="SMM17" s="3"/>
-      <c r="SMO17" s="3"/>
-      <c r="SMQ17" s="3"/>
-      <c r="SMS17" s="3"/>
-      <c r="SMU17" s="3"/>
-      <c r="SMW17" s="3"/>
-      <c r="SMY17" s="3"/>
-      <c r="SNA17" s="3"/>
-      <c r="SNC17" s="3"/>
-      <c r="SNE17" s="3"/>
-      <c r="SNG17" s="3"/>
-      <c r="SNI17" s="3"/>
-      <c r="SNK17" s="3"/>
-      <c r="SNM17" s="3"/>
-      <c r="SNO17" s="3"/>
-      <c r="SNQ17" s="3"/>
-      <c r="SNS17" s="3"/>
-      <c r="SNU17" s="3"/>
-      <c r="SNW17" s="3"/>
-      <c r="SNY17" s="3"/>
-      <c r="SOA17" s="3"/>
-      <c r="SOC17" s="3"/>
-      <c r="SOE17" s="3"/>
-      <c r="SOG17" s="3"/>
-      <c r="SOI17" s="3"/>
-      <c r="SOK17" s="3"/>
-      <c r="SOM17" s="3"/>
-      <c r="SOO17" s="3"/>
-      <c r="SOQ17" s="3"/>
-      <c r="SOS17" s="3"/>
-      <c r="SOU17" s="3"/>
-      <c r="SOW17" s="3"/>
-      <c r="SOY17" s="3"/>
-      <c r="SPA17" s="3"/>
-      <c r="SPC17" s="3"/>
-      <c r="SPE17" s="3"/>
-      <c r="SPG17" s="3"/>
-      <c r="SPI17" s="3"/>
-      <c r="SPK17" s="3"/>
-      <c r="SPM17" s="3"/>
-      <c r="SPO17" s="3"/>
-      <c r="SPQ17" s="3"/>
-      <c r="SPS17" s="3"/>
-      <c r="SPU17" s="3"/>
-      <c r="SPW17" s="3"/>
-      <c r="SPY17" s="3"/>
-      <c r="SQA17" s="3"/>
-      <c r="SQC17" s="3"/>
-      <c r="SQE17" s="3"/>
-      <c r="SQG17" s="3"/>
-      <c r="SQI17" s="3"/>
-      <c r="SQK17" s="3"/>
-      <c r="SQM17" s="3"/>
-      <c r="SQO17" s="3"/>
-      <c r="SQQ17" s="3"/>
-      <c r="SQS17" s="3"/>
-      <c r="SQU17" s="3"/>
-      <c r="SQW17" s="3"/>
-      <c r="SQY17" s="3"/>
-      <c r="SRA17" s="3"/>
-      <c r="SRC17" s="3"/>
-      <c r="SRE17" s="3"/>
-      <c r="SRG17" s="3"/>
-      <c r="SRI17" s="3"/>
-      <c r="SRK17" s="3"/>
-      <c r="SRM17" s="3"/>
-      <c r="SRO17" s="3"/>
-      <c r="SRQ17" s="3"/>
-      <c r="SRS17" s="3"/>
-      <c r="SRU17" s="3"/>
-      <c r="SRW17" s="3"/>
-      <c r="SRY17" s="3"/>
-      <c r="SSA17" s="3"/>
-      <c r="SSC17" s="3"/>
-      <c r="SSE17" s="3"/>
-      <c r="SSG17" s="3"/>
-      <c r="SSI17" s="3"/>
-      <c r="SSK17" s="3"/>
-      <c r="SSM17" s="3"/>
-      <c r="SSO17" s="3"/>
-      <c r="SSQ17" s="3"/>
-      <c r="SSS17" s="3"/>
-      <c r="SSU17" s="3"/>
-      <c r="SSW17" s="3"/>
-      <c r="SSY17" s="3"/>
-      <c r="STA17" s="3"/>
-      <c r="STC17" s="3"/>
-      <c r="STE17" s="3"/>
-      <c r="STG17" s="3"/>
-      <c r="STI17" s="3"/>
-      <c r="STK17" s="3"/>
-      <c r="STM17" s="3"/>
-      <c r="STO17" s="3"/>
-      <c r="STQ17" s="3"/>
-      <c r="STS17" s="3"/>
-      <c r="STU17" s="3"/>
-      <c r="STW17" s="3"/>
-      <c r="STY17" s="3"/>
-      <c r="SUA17" s="3"/>
-      <c r="SUC17" s="3"/>
-      <c r="SUE17" s="3"/>
-      <c r="SUG17" s="3"/>
-      <c r="SUI17" s="3"/>
-      <c r="SUK17" s="3"/>
-      <c r="SUM17" s="3"/>
-      <c r="SUO17" s="3"/>
-      <c r="SUQ17" s="3"/>
-      <c r="SUS17" s="3"/>
-      <c r="SUU17" s="3"/>
-      <c r="SUW17" s="3"/>
-      <c r="SUY17" s="3"/>
-      <c r="SVA17" s="3"/>
-      <c r="SVC17" s="3"/>
-      <c r="SVE17" s="3"/>
-      <c r="SVG17" s="3"/>
-      <c r="SVI17" s="3"/>
-      <c r="SVK17" s="3"/>
-      <c r="SVM17" s="3"/>
-      <c r="SVO17" s="3"/>
-      <c r="SVQ17" s="3"/>
-      <c r="SVS17" s="3"/>
-      <c r="SVU17" s="3"/>
-      <c r="SVW17" s="3"/>
-      <c r="SVY17" s="3"/>
-      <c r="SWA17" s="3"/>
-      <c r="SWC17" s="3"/>
-      <c r="SWE17" s="3"/>
-      <c r="SWG17" s="3"/>
-      <c r="SWI17" s="3"/>
-      <c r="SWK17" s="3"/>
-      <c r="SWM17" s="3"/>
-      <c r="SWO17" s="3"/>
-      <c r="SWQ17" s="3"/>
-      <c r="SWS17" s="3"/>
-      <c r="SWU17" s="3"/>
-      <c r="SWW17" s="3"/>
-      <c r="SWY17" s="3"/>
-      <c r="SXA17" s="3"/>
-      <c r="SXC17" s="3"/>
-      <c r="SXE17" s="3"/>
-      <c r="SXG17" s="3"/>
-      <c r="SXI17" s="3"/>
-      <c r="SXK17" s="3"/>
-      <c r="SXM17" s="3"/>
-      <c r="SXO17" s="3"/>
-      <c r="SXQ17" s="3"/>
-      <c r="SXS17" s="3"/>
-      <c r="SXU17" s="3"/>
-      <c r="SXW17" s="3"/>
-      <c r="SXY17" s="3"/>
-      <c r="SYA17" s="3"/>
-      <c r="SYC17" s="3"/>
-      <c r="SYE17" s="3"/>
-      <c r="SYG17" s="3"/>
-      <c r="SYI17" s="3"/>
-      <c r="SYK17" s="3"/>
-      <c r="SYM17" s="3"/>
-      <c r="SYO17" s="3"/>
-      <c r="SYQ17" s="3"/>
-      <c r="SYS17" s="3"/>
-      <c r="SYU17" s="3"/>
-      <c r="SYW17" s="3"/>
-      <c r="SYY17" s="3"/>
-      <c r="SZA17" s="3"/>
-      <c r="SZC17" s="3"/>
-      <c r="SZE17" s="3"/>
-      <c r="SZG17" s="3"/>
-      <c r="SZI17" s="3"/>
-      <c r="SZK17" s="3"/>
-      <c r="SZM17" s="3"/>
-      <c r="SZO17" s="3"/>
-      <c r="SZQ17" s="3"/>
-      <c r="SZS17" s="3"/>
-      <c r="SZU17" s="3"/>
-      <c r="SZW17" s="3"/>
-      <c r="SZY17" s="3"/>
-      <c r="TAA17" s="3"/>
-      <c r="TAC17" s="3"/>
-      <c r="TAE17" s="3"/>
-      <c r="TAG17" s="3"/>
-      <c r="TAI17" s="3"/>
-      <c r="TAK17" s="3"/>
-      <c r="TAM17" s="3"/>
-      <c r="TAO17" s="3"/>
-      <c r="TAQ17" s="3"/>
-      <c r="TAS17" s="3"/>
-      <c r="TAU17" s="3"/>
-      <c r="TAW17" s="3"/>
-      <c r="TAY17" s="3"/>
-      <c r="TBA17" s="3"/>
-      <c r="TBC17" s="3"/>
-      <c r="TBE17" s="3"/>
-      <c r="TBG17" s="3"/>
-      <c r="TBI17" s="3"/>
-      <c r="TBK17" s="3"/>
-      <c r="TBM17" s="3"/>
-      <c r="TBO17" s="3"/>
-      <c r="TBQ17" s="3"/>
-      <c r="TBS17" s="3"/>
-      <c r="TBU17" s="3"/>
-      <c r="TBW17" s="3"/>
-      <c r="TBY17" s="3"/>
-      <c r="TCA17" s="3"/>
-      <c r="TCC17" s="3"/>
-      <c r="TCE17" s="3"/>
-      <c r="TCG17" s="3"/>
-      <c r="TCI17" s="3"/>
-      <c r="TCK17" s="3"/>
-      <c r="TCM17" s="3"/>
-      <c r="TCO17" s="3"/>
-      <c r="TCQ17" s="3"/>
-      <c r="TCS17" s="3"/>
-      <c r="TCU17" s="3"/>
-      <c r="TCW17" s="3"/>
-      <c r="TCY17" s="3"/>
-      <c r="TDA17" s="3"/>
-      <c r="TDC17" s="3"/>
-      <c r="TDE17" s="3"/>
-      <c r="TDG17" s="3"/>
-      <c r="TDI17" s="3"/>
-      <c r="TDK17" s="3"/>
-      <c r="TDM17" s="3"/>
-      <c r="TDO17" s="3"/>
-      <c r="TDQ17" s="3"/>
-      <c r="TDS17" s="3"/>
-      <c r="TDU17" s="3"/>
-      <c r="TDW17" s="3"/>
-      <c r="TDY17" s="3"/>
-      <c r="TEA17" s="3"/>
-      <c r="TEC17" s="3"/>
-      <c r="TEE17" s="3"/>
-      <c r="TEG17" s="3"/>
-      <c r="TEI17" s="3"/>
-      <c r="TEK17" s="3"/>
-      <c r="TEM17" s="3"/>
-      <c r="TEO17" s="3"/>
-      <c r="TEQ17" s="3"/>
-      <c r="TES17" s="3"/>
-      <c r="TEU17" s="3"/>
-      <c r="TEW17" s="3"/>
-      <c r="TEY17" s="3"/>
-      <c r="TFA17" s="3"/>
-      <c r="TFC17" s="3"/>
-      <c r="TFE17" s="3"/>
-      <c r="TFG17" s="3"/>
-      <c r="TFI17" s="3"/>
-      <c r="TFK17" s="3"/>
-      <c r="TFM17" s="3"/>
-      <c r="TFO17" s="3"/>
-      <c r="TFQ17" s="3"/>
-      <c r="TFS17" s="3"/>
-      <c r="TFU17" s="3"/>
-      <c r="TFW17" s="3"/>
-      <c r="TFY17" s="3"/>
-      <c r="TGA17" s="3"/>
-      <c r="TGC17" s="3"/>
-      <c r="TGE17" s="3"/>
-      <c r="TGG17" s="3"/>
-      <c r="TGI17" s="3"/>
-      <c r="TGK17" s="3"/>
-      <c r="TGM17" s="3"/>
-      <c r="TGO17" s="3"/>
-      <c r="TGQ17" s="3"/>
-      <c r="TGS17" s="3"/>
-      <c r="TGU17" s="3"/>
-      <c r="TGW17" s="3"/>
-      <c r="TGY17" s="3"/>
-      <c r="THA17" s="3"/>
-      <c r="THC17" s="3"/>
-      <c r="THE17" s="3"/>
-      <c r="THG17" s="3"/>
-      <c r="THI17" s="3"/>
-      <c r="THK17" s="3"/>
-      <c r="THM17" s="3"/>
-      <c r="THO17" s="3"/>
-      <c r="THQ17" s="3"/>
-      <c r="THS17" s="3"/>
-      <c r="THU17" s="3"/>
-      <c r="THW17" s="3"/>
-      <c r="THY17" s="3"/>
-      <c r="TIA17" s="3"/>
-      <c r="TIC17" s="3"/>
-      <c r="TIE17" s="3"/>
-      <c r="TIG17" s="3"/>
-      <c r="TII17" s="3"/>
-      <c r="TIK17" s="3"/>
-      <c r="TIM17" s="3"/>
-      <c r="TIO17" s="3"/>
-      <c r="TIQ17" s="3"/>
-      <c r="TIS17" s="3"/>
-      <c r="TIU17" s="3"/>
-      <c r="TIW17" s="3"/>
-      <c r="TIY17" s="3"/>
-      <c r="TJA17" s="3"/>
-      <c r="TJC17" s="3"/>
-      <c r="TJE17" s="3"/>
-      <c r="TJG17" s="3"/>
-      <c r="TJI17" s="3"/>
-      <c r="TJK17" s="3"/>
-      <c r="TJM17" s="3"/>
-      <c r="TJO17" s="3"/>
-      <c r="TJQ17" s="3"/>
-      <c r="TJS17" s="3"/>
-      <c r="TJU17" s="3"/>
-      <c r="TJW17" s="3"/>
-      <c r="TJY17" s="3"/>
-      <c r="TKA17" s="3"/>
-      <c r="TKC17" s="3"/>
-      <c r="TKE17" s="3"/>
-      <c r="TKG17" s="3"/>
-      <c r="TKI17" s="3"/>
-      <c r="TKK17" s="3"/>
-      <c r="TKM17" s="3"/>
-      <c r="TKO17" s="3"/>
-      <c r="TKQ17" s="3"/>
-      <c r="TKS17" s="3"/>
-      <c r="TKU17" s="3"/>
-      <c r="TKW17" s="3"/>
-      <c r="TKY17" s="3"/>
-      <c r="TLA17" s="3"/>
-      <c r="TLC17" s="3"/>
-      <c r="TLE17" s="3"/>
-      <c r="TLG17" s="3"/>
-      <c r="TLI17" s="3"/>
-      <c r="TLK17" s="3"/>
-      <c r="TLM17" s="3"/>
-      <c r="TLO17" s="3"/>
-      <c r="TLQ17" s="3"/>
-      <c r="TLS17" s="3"/>
-      <c r="TLU17" s="3"/>
-      <c r="TLW17" s="3"/>
-      <c r="TLY17" s="3"/>
-      <c r="TMA17" s="3"/>
-      <c r="TMC17" s="3"/>
-      <c r="TME17" s="3"/>
-      <c r="TMG17" s="3"/>
-      <c r="TMI17" s="3"/>
-      <c r="TMK17" s="3"/>
-      <c r="TMM17" s="3"/>
-      <c r="TMO17" s="3"/>
-      <c r="TMQ17" s="3"/>
-      <c r="TMS17" s="3"/>
-      <c r="TMU17" s="3"/>
-      <c r="TMW17" s="3"/>
-      <c r="TMY17" s="3"/>
-      <c r="TNA17" s="3"/>
-      <c r="TNC17" s="3"/>
-      <c r="TNE17" s="3"/>
-      <c r="TNG17" s="3"/>
-      <c r="TNI17" s="3"/>
-      <c r="TNK17" s="3"/>
-      <c r="TNM17" s="3"/>
-      <c r="TNO17" s="3"/>
-      <c r="TNQ17" s="3"/>
-      <c r="TNS17" s="3"/>
-      <c r="TNU17" s="3"/>
-      <c r="TNW17" s="3"/>
-      <c r="TNY17" s="3"/>
-      <c r="TOA17" s="3"/>
-      <c r="TOC17" s="3"/>
-      <c r="TOE17" s="3"/>
-      <c r="TOG17" s="3"/>
-      <c r="TOI17" s="3"/>
-      <c r="TOK17" s="3"/>
-      <c r="TOM17" s="3"/>
-      <c r="TOO17" s="3"/>
-      <c r="TOQ17" s="3"/>
-      <c r="TOS17" s="3"/>
-      <c r="TOU17" s="3"/>
-      <c r="TOW17" s="3"/>
-      <c r="TOY17" s="3"/>
-      <c r="TPA17" s="3"/>
-      <c r="TPC17" s="3"/>
-      <c r="TPE17" s="3"/>
-      <c r="TPG17" s="3"/>
-      <c r="TPI17" s="3"/>
-      <c r="TPK17" s="3"/>
-      <c r="TPM17" s="3"/>
-      <c r="TPO17" s="3"/>
-      <c r="TPQ17" s="3"/>
-      <c r="TPS17" s="3"/>
-      <c r="TPU17" s="3"/>
-      <c r="TPW17" s="3"/>
-      <c r="TPY17" s="3"/>
-      <c r="TQA17" s="3"/>
-      <c r="TQC17" s="3"/>
-      <c r="TQE17" s="3"/>
-      <c r="TQG17" s="3"/>
-      <c r="TQI17" s="3"/>
-      <c r="TQK17" s="3"/>
-      <c r="TQM17" s="3"/>
-      <c r="TQO17" s="3"/>
-      <c r="TQQ17" s="3"/>
-      <c r="TQS17" s="3"/>
-      <c r="TQU17" s="3"/>
-      <c r="TQW17" s="3"/>
-      <c r="TQY17" s="3"/>
-      <c r="TRA17" s="3"/>
-      <c r="TRC17" s="3"/>
-      <c r="TRE17" s="3"/>
-      <c r="TRG17" s="3"/>
-      <c r="TRI17" s="3"/>
-      <c r="TRK17" s="3"/>
-      <c r="TRM17" s="3"/>
-      <c r="TRO17" s="3"/>
-      <c r="TRQ17" s="3"/>
-      <c r="TRS17" s="3"/>
-      <c r="TRU17" s="3"/>
-      <c r="TRW17" s="3"/>
-      <c r="TRY17" s="3"/>
-      <c r="TSA17" s="3"/>
-      <c r="TSC17" s="3"/>
-      <c r="TSE17" s="3"/>
-      <c r="TSG17" s="3"/>
-      <c r="TSI17" s="3"/>
-      <c r="TSK17" s="3"/>
-      <c r="TSM17" s="3"/>
-      <c r="TSO17" s="3"/>
-      <c r="TSQ17" s="3"/>
-      <c r="TSS17" s="3"/>
-      <c r="TSU17" s="3"/>
-      <c r="TSW17" s="3"/>
-      <c r="TSY17" s="3"/>
-      <c r="TTA17" s="3"/>
-      <c r="TTC17" s="3"/>
-      <c r="TTE17" s="3"/>
-      <c r="TTG17" s="3"/>
-      <c r="TTI17" s="3"/>
-      <c r="TTK17" s="3"/>
-      <c r="TTM17" s="3"/>
-      <c r="TTO17" s="3"/>
-      <c r="TTQ17" s="3"/>
-      <c r="TTS17" s="3"/>
-      <c r="TTU17" s="3"/>
-      <c r="TTW17" s="3"/>
-      <c r="TTY17" s="3"/>
-      <c r="TUA17" s="3"/>
-      <c r="TUC17" s="3"/>
-      <c r="TUE17" s="3"/>
-      <c r="TUG17" s="3"/>
-      <c r="TUI17" s="3"/>
-      <c r="TUK17" s="3"/>
-      <c r="TUM17" s="3"/>
-      <c r="TUO17" s="3"/>
-      <c r="TUQ17" s="3"/>
-      <c r="TUS17" s="3"/>
-      <c r="TUU17" s="3"/>
-      <c r="TUW17" s="3"/>
-      <c r="TUY17" s="3"/>
-      <c r="TVA17" s="3"/>
-      <c r="TVC17" s="3"/>
-      <c r="TVE17" s="3"/>
-      <c r="TVG17" s="3"/>
-      <c r="TVI17" s="3"/>
-      <c r="TVK17" s="3"/>
-      <c r="TVM17" s="3"/>
-      <c r="TVO17" s="3"/>
-      <c r="TVQ17" s="3"/>
-      <c r="TVS17" s="3"/>
-      <c r="TVU17" s="3"/>
-      <c r="TVW17" s="3"/>
-      <c r="TVY17" s="3"/>
-      <c r="TWA17" s="3"/>
-      <c r="TWC17" s="3"/>
-      <c r="TWE17" s="3"/>
-      <c r="TWG17" s="3"/>
-      <c r="TWI17" s="3"/>
-      <c r="TWK17" s="3"/>
-      <c r="TWM17" s="3"/>
-      <c r="TWO17" s="3"/>
-      <c r="TWQ17" s="3"/>
-      <c r="TWS17" s="3"/>
-      <c r="TWU17" s="3"/>
-      <c r="TWW17" s="3"/>
-      <c r="TWY17" s="3"/>
-      <c r="TXA17" s="3"/>
-      <c r="TXC17" s="3"/>
-      <c r="TXE17" s="3"/>
-      <c r="TXG17" s="3"/>
-      <c r="TXI17" s="3"/>
-      <c r="TXK17" s="3"/>
-      <c r="TXM17" s="3"/>
-      <c r="TXO17" s="3"/>
-      <c r="TXQ17" s="3"/>
-      <c r="TXS17" s="3"/>
-      <c r="TXU17" s="3"/>
-      <c r="TXW17" s="3"/>
-      <c r="TXY17" s="3"/>
-      <c r="TYA17" s="3"/>
-      <c r="TYC17" s="3"/>
-      <c r="TYE17" s="3"/>
-      <c r="TYG17" s="3"/>
-      <c r="TYI17" s="3"/>
-      <c r="TYK17" s="3"/>
-      <c r="TYM17" s="3"/>
-      <c r="TYO17" s="3"/>
-      <c r="TYQ17" s="3"/>
-      <c r="TYS17" s="3"/>
-      <c r="TYU17" s="3"/>
-      <c r="TYW17" s="3"/>
-      <c r="TYY17" s="3"/>
-      <c r="TZA17" s="3"/>
-      <c r="TZC17" s="3"/>
-      <c r="TZE17" s="3"/>
-      <c r="TZG17" s="3"/>
-      <c r="TZI17" s="3"/>
-      <c r="TZK17" s="3"/>
-      <c r="TZM17" s="3"/>
-      <c r="TZO17" s="3"/>
-      <c r="TZQ17" s="3"/>
-      <c r="TZS17" s="3"/>
-      <c r="TZU17" s="3"/>
-      <c r="TZW17" s="3"/>
-      <c r="TZY17" s="3"/>
-      <c r="UAA17" s="3"/>
-      <c r="UAC17" s="3"/>
-      <c r="UAE17" s="3"/>
-      <c r="UAG17" s="3"/>
-      <c r="UAI17" s="3"/>
-      <c r="UAK17" s="3"/>
-      <c r="UAM17" s="3"/>
-      <c r="UAO17" s="3"/>
-      <c r="UAQ17" s="3"/>
-      <c r="UAS17" s="3"/>
-      <c r="UAU17" s="3"/>
-      <c r="UAW17" s="3"/>
-      <c r="UAY17" s="3"/>
-      <c r="UBA17" s="3"/>
-      <c r="UBC17" s="3"/>
-      <c r="UBE17" s="3"/>
-      <c r="UBG17" s="3"/>
-      <c r="UBI17" s="3"/>
-      <c r="UBK17" s="3"/>
-      <c r="UBM17" s="3"/>
-      <c r="UBO17" s="3"/>
-      <c r="UBQ17" s="3"/>
-      <c r="UBS17" s="3"/>
-      <c r="UBU17" s="3"/>
-      <c r="UBW17" s="3"/>
-      <c r="UBY17" s="3"/>
-      <c r="UCA17" s="3"/>
-      <c r="UCC17" s="3"/>
-      <c r="UCE17" s="3"/>
-      <c r="UCG17" s="3"/>
-      <c r="UCI17" s="3"/>
-      <c r="UCK17" s="3"/>
-      <c r="UCM17" s="3"/>
-      <c r="UCO17" s="3"/>
-      <c r="UCQ17" s="3"/>
-      <c r="UCS17" s="3"/>
-      <c r="UCU17" s="3"/>
-      <c r="UCW17" s="3"/>
-      <c r="UCY17" s="3"/>
-      <c r="UDA17" s="3"/>
-      <c r="UDC17" s="3"/>
-      <c r="UDE17" s="3"/>
-      <c r="UDG17" s="3"/>
-      <c r="UDI17" s="3"/>
-      <c r="UDK17" s="3"/>
-      <c r="UDM17" s="3"/>
-      <c r="UDO17" s="3"/>
-      <c r="UDQ17" s="3"/>
-      <c r="UDS17" s="3"/>
-      <c r="UDU17" s="3"/>
-      <c r="UDW17" s="3"/>
-      <c r="UDY17" s="3"/>
-      <c r="UEA17" s="3"/>
-      <c r="UEC17" s="3"/>
-      <c r="UEE17" s="3"/>
-      <c r="UEG17" s="3"/>
-      <c r="UEI17" s="3"/>
-      <c r="UEK17" s="3"/>
-      <c r="UEM17" s="3"/>
-      <c r="UEO17" s="3"/>
-      <c r="UEQ17" s="3"/>
-      <c r="UES17" s="3"/>
-      <c r="UEU17" s="3"/>
-      <c r="UEW17" s="3"/>
-      <c r="UEY17" s="3"/>
-      <c r="UFA17" s="3"/>
-      <c r="UFC17" s="3"/>
-      <c r="UFE17" s="3"/>
-      <c r="UFG17" s="3"/>
-      <c r="UFI17" s="3"/>
-      <c r="UFK17" s="3"/>
-      <c r="UFM17" s="3"/>
-      <c r="UFO17" s="3"/>
-      <c r="UFQ17" s="3"/>
-      <c r="UFS17" s="3"/>
-      <c r="UFU17" s="3"/>
-      <c r="UFW17" s="3"/>
-      <c r="UFY17" s="3"/>
-      <c r="UGA17" s="3"/>
-      <c r="UGC17" s="3"/>
-      <c r="UGE17" s="3"/>
-      <c r="UGG17" s="3"/>
-      <c r="UGI17" s="3"/>
-      <c r="UGK17" s="3"/>
-      <c r="UGM17" s="3"/>
-      <c r="UGO17" s="3"/>
-      <c r="UGQ17" s="3"/>
-      <c r="UGS17" s="3"/>
-      <c r="UGU17" s="3"/>
-      <c r="UGW17" s="3"/>
-      <c r="UGY17" s="3"/>
-      <c r="UHA17" s="3"/>
-      <c r="UHC17" s="3"/>
-      <c r="UHE17" s="3"/>
-      <c r="UHG17" s="3"/>
-      <c r="UHI17" s="3"/>
-      <c r="UHK17" s="3"/>
-      <c r="UHM17" s="3"/>
-      <c r="UHO17" s="3"/>
-      <c r="UHQ17" s="3"/>
-      <c r="UHS17" s="3"/>
-      <c r="UHU17" s="3"/>
-      <c r="UHW17" s="3"/>
-      <c r="UHY17" s="3"/>
-      <c r="UIA17" s="3"/>
-      <c r="UIC17" s="3"/>
-      <c r="UIE17" s="3"/>
-      <c r="UIG17" s="3"/>
-      <c r="UII17" s="3"/>
-      <c r="UIK17" s="3"/>
-      <c r="UIM17" s="3"/>
-      <c r="UIO17" s="3"/>
-      <c r="UIQ17" s="3"/>
-      <c r="UIS17" s="3"/>
-      <c r="UIU17" s="3"/>
-      <c r="UIW17" s="3"/>
-      <c r="UIY17" s="3"/>
-      <c r="UJA17" s="3"/>
-      <c r="UJC17" s="3"/>
-      <c r="UJE17" s="3"/>
-      <c r="UJG17" s="3"/>
-      <c r="UJI17" s="3"/>
-      <c r="UJK17" s="3"/>
-      <c r="UJM17" s="3"/>
-      <c r="UJO17" s="3"/>
-      <c r="UJQ17" s="3"/>
-      <c r="UJS17" s="3"/>
-      <c r="UJU17" s="3"/>
-      <c r="UJW17" s="3"/>
-      <c r="UJY17" s="3"/>
-      <c r="UKA17" s="3"/>
-      <c r="UKC17" s="3"/>
-      <c r="UKE17" s="3"/>
-      <c r="UKG17" s="3"/>
-      <c r="UKI17" s="3"/>
-      <c r="UKK17" s="3"/>
-      <c r="UKM17" s="3"/>
-      <c r="UKO17" s="3"/>
-      <c r="UKQ17" s="3"/>
-      <c r="UKS17" s="3"/>
-      <c r="UKU17" s="3"/>
-      <c r="UKW17" s="3"/>
-      <c r="UKY17" s="3"/>
-      <c r="ULA17" s="3"/>
-      <c r="ULC17" s="3"/>
-      <c r="ULE17" s="3"/>
-      <c r="ULG17" s="3"/>
-      <c r="ULI17" s="3"/>
-      <c r="ULK17" s="3"/>
-      <c r="ULM17" s="3"/>
-      <c r="ULO17" s="3"/>
-      <c r="ULQ17" s="3"/>
-      <c r="ULS17" s="3"/>
-      <c r="ULU17" s="3"/>
-      <c r="ULW17" s="3"/>
-      <c r="ULY17" s="3"/>
-      <c r="UMA17" s="3"/>
-      <c r="UMC17" s="3"/>
-      <c r="UME17" s="3"/>
-      <c r="UMG17" s="3"/>
-      <c r="UMI17" s="3"/>
-      <c r="UMK17" s="3"/>
-      <c r="UMM17" s="3"/>
-      <c r="UMO17" s="3"/>
-      <c r="UMQ17" s="3"/>
-      <c r="UMS17" s="3"/>
-      <c r="UMU17" s="3"/>
-      <c r="UMW17" s="3"/>
-      <c r="UMY17" s="3"/>
-      <c r="UNA17" s="3"/>
-      <c r="UNC17" s="3"/>
-      <c r="UNE17" s="3"/>
-      <c r="UNG17" s="3"/>
-      <c r="UNI17" s="3"/>
-      <c r="UNK17" s="3"/>
-      <c r="UNM17" s="3"/>
-      <c r="UNO17" s="3"/>
-      <c r="UNQ17" s="3"/>
-      <c r="UNS17" s="3"/>
-      <c r="UNU17" s="3"/>
-      <c r="UNW17" s="3"/>
-      <c r="UNY17" s="3"/>
-      <c r="UOA17" s="3"/>
-      <c r="UOC17" s="3"/>
-      <c r="UOE17" s="3"/>
-      <c r="UOG17" s="3"/>
-      <c r="UOI17" s="3"/>
-      <c r="UOK17" s="3"/>
-      <c r="UOM17" s="3"/>
-      <c r="UOO17" s="3"/>
-      <c r="UOQ17" s="3"/>
-      <c r="UOS17" s="3"/>
-      <c r="UOU17" s="3"/>
-      <c r="UOW17" s="3"/>
-      <c r="UOY17" s="3"/>
-      <c r="UPA17" s="3"/>
-      <c r="UPC17" s="3"/>
-      <c r="UPE17" s="3"/>
-      <c r="UPG17" s="3"/>
-      <c r="UPI17" s="3"/>
-      <c r="UPK17" s="3"/>
-      <c r="UPM17" s="3"/>
-      <c r="UPO17" s="3"/>
-      <c r="UPQ17" s="3"/>
-      <c r="UPS17" s="3"/>
-      <c r="UPU17" s="3"/>
-      <c r="UPW17" s="3"/>
-      <c r="UPY17" s="3"/>
-      <c r="UQA17" s="3"/>
-      <c r="UQC17" s="3"/>
-      <c r="UQE17" s="3"/>
-      <c r="UQG17" s="3"/>
-      <c r="UQI17" s="3"/>
-      <c r="UQK17" s="3"/>
-      <c r="UQM17" s="3"/>
-      <c r="UQO17" s="3"/>
-      <c r="UQQ17" s="3"/>
-      <c r="UQS17" s="3"/>
-      <c r="UQU17" s="3"/>
-      <c r="UQW17" s="3"/>
-      <c r="UQY17" s="3"/>
-      <c r="URA17" s="3"/>
-      <c r="URC17" s="3"/>
-      <c r="URE17" s="3"/>
-      <c r="URG17" s="3"/>
-      <c r="URI17" s="3"/>
-      <c r="URK17" s="3"/>
-      <c r="URM17" s="3"/>
-      <c r="URO17" s="3"/>
-      <c r="URQ17" s="3"/>
-      <c r="URS17" s="3"/>
-      <c r="URU17" s="3"/>
-      <c r="URW17" s="3"/>
-      <c r="URY17" s="3"/>
-      <c r="USA17" s="3"/>
-      <c r="USC17" s="3"/>
-      <c r="USE17" s="3"/>
-      <c r="USG17" s="3"/>
-      <c r="USI17" s="3"/>
-      <c r="USK17" s="3"/>
-      <c r="USM17" s="3"/>
-      <c r="USO17" s="3"/>
-      <c r="USQ17" s="3"/>
-      <c r="USS17" s="3"/>
-      <c r="USU17" s="3"/>
-      <c r="USW17" s="3"/>
-      <c r="USY17" s="3"/>
-      <c r="UTA17" s="3"/>
-      <c r="UTC17" s="3"/>
-      <c r="UTE17" s="3"/>
-      <c r="UTG17" s="3"/>
-      <c r="UTI17" s="3"/>
-      <c r="UTK17" s="3"/>
-      <c r="UTM17" s="3"/>
-      <c r="UTO17" s="3"/>
-      <c r="UTQ17" s="3"/>
-      <c r="UTS17" s="3"/>
-      <c r="UTU17" s="3"/>
-      <c r="UTW17" s="3"/>
-      <c r="UTY17" s="3"/>
-      <c r="UUA17" s="3"/>
-      <c r="UUC17" s="3"/>
-      <c r="UUE17" s="3"/>
-      <c r="UUG17" s="3"/>
-      <c r="UUI17" s="3"/>
-      <c r="UUK17" s="3"/>
-      <c r="UUM17" s="3"/>
-      <c r="UUO17" s="3"/>
-      <c r="UUQ17" s="3"/>
-      <c r="UUS17" s="3"/>
-      <c r="UUU17" s="3"/>
-      <c r="UUW17" s="3"/>
-      <c r="UUY17" s="3"/>
-      <c r="UVA17" s="3"/>
-      <c r="UVC17" s="3"/>
-      <c r="UVE17" s="3"/>
-      <c r="UVG17" s="3"/>
-      <c r="UVI17" s="3"/>
-      <c r="UVK17" s="3"/>
-      <c r="UVM17" s="3"/>
-      <c r="UVO17" s="3"/>
-      <c r="UVQ17" s="3"/>
-      <c r="UVS17" s="3"/>
-      <c r="UVU17" s="3"/>
-      <c r="UVW17" s="3"/>
-      <c r="UVY17" s="3"/>
-      <c r="UWA17" s="3"/>
-      <c r="UWC17" s="3"/>
-      <c r="UWE17" s="3"/>
-      <c r="UWG17" s="3"/>
-      <c r="UWI17" s="3"/>
-      <c r="UWK17" s="3"/>
-      <c r="UWM17" s="3"/>
-      <c r="UWO17" s="3"/>
-      <c r="UWQ17" s="3"/>
-      <c r="UWS17" s="3"/>
-      <c r="UWU17" s="3"/>
-      <c r="UWW17" s="3"/>
-      <c r="UWY17" s="3"/>
-      <c r="UXA17" s="3"/>
-      <c r="UXC17" s="3"/>
-      <c r="UXE17" s="3"/>
-      <c r="UXG17" s="3"/>
-      <c r="UXI17" s="3"/>
-      <c r="UXK17" s="3"/>
-      <c r="UXM17" s="3"/>
-      <c r="UXO17" s="3"/>
-      <c r="UXQ17" s="3"/>
-      <c r="UXS17" s="3"/>
-      <c r="UXU17" s="3"/>
-      <c r="UXW17" s="3"/>
-      <c r="UXY17" s="3"/>
-      <c r="UYA17" s="3"/>
-      <c r="UYC17" s="3"/>
-      <c r="UYE17" s="3"/>
-      <c r="UYG17" s="3"/>
-      <c r="UYI17" s="3"/>
-      <c r="UYK17" s="3"/>
-      <c r="UYM17" s="3"/>
-      <c r="UYO17" s="3"/>
-      <c r="UYQ17" s="3"/>
-      <c r="UYS17" s="3"/>
-      <c r="UYU17" s="3"/>
-      <c r="UYW17" s="3"/>
-      <c r="UYY17" s="3"/>
-      <c r="UZA17" s="3"/>
-      <c r="UZC17" s="3"/>
-      <c r="UZE17" s="3"/>
-      <c r="UZG17" s="3"/>
-      <c r="UZI17" s="3"/>
-      <c r="UZK17" s="3"/>
-      <c r="UZM17" s="3"/>
-      <c r="UZO17" s="3"/>
-      <c r="UZQ17" s="3"/>
-      <c r="UZS17" s="3"/>
-      <c r="UZU17" s="3"/>
-      <c r="UZW17" s="3"/>
-      <c r="UZY17" s="3"/>
-      <c r="VAA17" s="3"/>
-      <c r="VAC17" s="3"/>
-      <c r="VAE17" s="3"/>
-      <c r="VAG17" s="3"/>
-      <c r="VAI17" s="3"/>
-      <c r="VAK17" s="3"/>
-      <c r="VAM17" s="3"/>
-      <c r="VAO17" s="3"/>
-      <c r="VAQ17" s="3"/>
-      <c r="VAS17" s="3"/>
-      <c r="VAU17" s="3"/>
-      <c r="VAW17" s="3"/>
-      <c r="VAY17" s="3"/>
-      <c r="VBA17" s="3"/>
-      <c r="VBC17" s="3"/>
-      <c r="VBE17" s="3"/>
-      <c r="VBG17" s="3"/>
-      <c r="VBI17" s="3"/>
-      <c r="VBK17" s="3"/>
-      <c r="VBM17" s="3"/>
-      <c r="VBO17" s="3"/>
-      <c r="VBQ17" s="3"/>
-      <c r="VBS17" s="3"/>
-      <c r="VBU17" s="3"/>
-      <c r="VBW17" s="3"/>
-      <c r="VBY17" s="3"/>
-      <c r="VCA17" s="3"/>
-      <c r="VCC17" s="3"/>
-      <c r="VCE17" s="3"/>
-      <c r="VCG17" s="3"/>
-      <c r="VCI17" s="3"/>
-      <c r="VCK17" s="3"/>
-      <c r="VCM17" s="3"/>
-      <c r="VCO17" s="3"/>
-      <c r="VCQ17" s="3"/>
-      <c r="VCS17" s="3"/>
-      <c r="VCU17" s="3"/>
-      <c r="VCW17" s="3"/>
-      <c r="VCY17" s="3"/>
-      <c r="VDA17" s="3"/>
-      <c r="VDC17" s="3"/>
-      <c r="VDE17" s="3"/>
-      <c r="VDG17" s="3"/>
-      <c r="VDI17" s="3"/>
-      <c r="VDK17" s="3"/>
-      <c r="VDM17" s="3"/>
-      <c r="VDO17" s="3"/>
-      <c r="VDQ17" s="3"/>
-      <c r="VDS17" s="3"/>
-      <c r="VDU17" s="3"/>
-      <c r="VDW17" s="3"/>
-      <c r="VDY17" s="3"/>
-      <c r="VEA17" s="3"/>
-      <c r="VEC17" s="3"/>
-      <c r="VEE17" s="3"/>
-      <c r="VEG17" s="3"/>
-      <c r="VEI17" s="3"/>
-      <c r="VEK17" s="3"/>
-      <c r="VEM17" s="3"/>
-      <c r="VEO17" s="3"/>
-      <c r="VEQ17" s="3"/>
-      <c r="VES17" s="3"/>
-      <c r="VEU17" s="3"/>
-      <c r="VEW17" s="3"/>
-      <c r="VEY17" s="3"/>
-      <c r="VFA17" s="3"/>
-      <c r="VFC17" s="3"/>
-      <c r="VFE17" s="3"/>
-      <c r="VFG17" s="3"/>
-      <c r="VFI17" s="3"/>
-      <c r="VFK17" s="3"/>
-      <c r="VFM17" s="3"/>
-      <c r="VFO17" s="3"/>
-      <c r="VFQ17" s="3"/>
-      <c r="VFS17" s="3"/>
-      <c r="VFU17" s="3"/>
-      <c r="VFW17" s="3"/>
-      <c r="VFY17" s="3"/>
-      <c r="VGA17" s="3"/>
-      <c r="VGC17" s="3"/>
-      <c r="VGE17" s="3"/>
-      <c r="VGG17" s="3"/>
-      <c r="VGI17" s="3"/>
-      <c r="VGK17" s="3"/>
-      <c r="VGM17" s="3"/>
-      <c r="VGO17" s="3"/>
-      <c r="VGQ17" s="3"/>
-      <c r="VGS17" s="3"/>
-      <c r="VGU17" s="3"/>
-      <c r="VGW17" s="3"/>
-      <c r="VGY17" s="3"/>
-      <c r="VHA17" s="3"/>
-      <c r="VHC17" s="3"/>
-      <c r="VHE17" s="3"/>
-      <c r="VHG17" s="3"/>
-      <c r="VHI17" s="3"/>
-      <c r="VHK17" s="3"/>
-      <c r="VHM17" s="3"/>
-      <c r="VHO17" s="3"/>
-      <c r="VHQ17" s="3"/>
-      <c r="VHS17" s="3"/>
-      <c r="VHU17" s="3"/>
-      <c r="VHW17" s="3"/>
-      <c r="VHY17" s="3"/>
-      <c r="VIA17" s="3"/>
-      <c r="VIC17" s="3"/>
-      <c r="VIE17" s="3"/>
-      <c r="VIG17" s="3"/>
-      <c r="VII17" s="3"/>
-      <c r="VIK17" s="3"/>
-      <c r="VIM17" s="3"/>
-      <c r="VIO17" s="3"/>
-      <c r="VIQ17" s="3"/>
-      <c r="VIS17" s="3"/>
-      <c r="VIU17" s="3"/>
-      <c r="VIW17" s="3"/>
-      <c r="VIY17" s="3"/>
-      <c r="VJA17" s="3"/>
-      <c r="VJC17" s="3"/>
-      <c r="VJE17" s="3"/>
-      <c r="VJG17" s="3"/>
-      <c r="VJI17" s="3"/>
-      <c r="VJK17" s="3"/>
-      <c r="VJM17" s="3"/>
-      <c r="VJO17" s="3"/>
-      <c r="VJQ17" s="3"/>
-      <c r="VJS17" s="3"/>
-      <c r="VJU17" s="3"/>
-      <c r="VJW17" s="3"/>
-      <c r="VJY17" s="3"/>
-      <c r="VKA17" s="3"/>
-      <c r="VKC17" s="3"/>
-      <c r="VKE17" s="3"/>
-      <c r="VKG17" s="3"/>
-      <c r="VKI17" s="3"/>
-      <c r="VKK17" s="3"/>
-      <c r="VKM17" s="3"/>
-      <c r="VKO17" s="3"/>
-      <c r="VKQ17" s="3"/>
-      <c r="VKS17" s="3"/>
-      <c r="VKU17" s="3"/>
-      <c r="VKW17" s="3"/>
-      <c r="VKY17" s="3"/>
-      <c r="VLA17" s="3"/>
-      <c r="VLC17" s="3"/>
-      <c r="VLE17" s="3"/>
-      <c r="VLG17" s="3"/>
-      <c r="VLI17" s="3"/>
-      <c r="VLK17" s="3"/>
-      <c r="VLM17" s="3"/>
-      <c r="VLO17" s="3"/>
-      <c r="VLQ17" s="3"/>
-      <c r="VLS17" s="3"/>
-      <c r="VLU17" s="3"/>
-      <c r="VLW17" s="3"/>
-      <c r="VLY17" s="3"/>
-      <c r="VMA17" s="3"/>
-      <c r="VMC17" s="3"/>
-      <c r="VME17" s="3"/>
-      <c r="VMG17" s="3"/>
-      <c r="VMI17" s="3"/>
-      <c r="VMK17" s="3"/>
-      <c r="VMM17" s="3"/>
-      <c r="VMO17" s="3"/>
-      <c r="VMQ17" s="3"/>
-      <c r="VMS17" s="3"/>
-      <c r="VMU17" s="3"/>
-      <c r="VMW17" s="3"/>
-      <c r="VMY17" s="3"/>
-      <c r="VNA17" s="3"/>
-      <c r="VNC17" s="3"/>
-      <c r="VNE17" s="3"/>
-      <c r="VNG17" s="3"/>
-      <c r="VNI17" s="3"/>
-      <c r="VNK17" s="3"/>
-      <c r="VNM17" s="3"/>
-      <c r="VNO17" s="3"/>
-      <c r="VNQ17" s="3"/>
-      <c r="VNS17" s="3"/>
-      <c r="VNU17" s="3"/>
-      <c r="VNW17" s="3"/>
-      <c r="VNY17" s="3"/>
-      <c r="VOA17" s="3"/>
-      <c r="VOC17" s="3"/>
-      <c r="VOE17" s="3"/>
-      <c r="VOG17" s="3"/>
-      <c r="VOI17" s="3"/>
-      <c r="VOK17" s="3"/>
-      <c r="VOM17" s="3"/>
-      <c r="VOO17" s="3"/>
-      <c r="VOQ17" s="3"/>
-      <c r="VOS17" s="3"/>
-      <c r="VOU17" s="3"/>
-      <c r="VOW17" s="3"/>
-      <c r="VOY17" s="3"/>
-      <c r="VPA17" s="3"/>
-      <c r="VPC17" s="3"/>
-      <c r="VPE17" s="3"/>
-      <c r="VPG17" s="3"/>
-      <c r="VPI17" s="3"/>
-      <c r="VPK17" s="3"/>
-      <c r="VPM17" s="3"/>
-      <c r="VPO17" s="3"/>
-      <c r="VPQ17" s="3"/>
-      <c r="VPS17" s="3"/>
-      <c r="VPU17" s="3"/>
-      <c r="VPW17" s="3"/>
-      <c r="VPY17" s="3"/>
-      <c r="VQA17" s="3"/>
-      <c r="VQC17" s="3"/>
-      <c r="VQE17" s="3"/>
-      <c r="VQG17" s="3"/>
-      <c r="VQI17" s="3"/>
-      <c r="VQK17" s="3"/>
-      <c r="VQM17" s="3"/>
-      <c r="VQO17" s="3"/>
-      <c r="VQQ17" s="3"/>
-      <c r="VQS17" s="3"/>
-      <c r="VQU17" s="3"/>
-      <c r="VQW17" s="3"/>
-      <c r="VQY17" s="3"/>
-      <c r="VRA17" s="3"/>
-      <c r="VRC17" s="3"/>
-      <c r="VRE17" s="3"/>
-      <c r="VRG17" s="3"/>
-      <c r="VRI17" s="3"/>
-      <c r="VRK17" s="3"/>
-      <c r="VRM17" s="3"/>
-      <c r="VRO17" s="3"/>
-      <c r="VRQ17" s="3"/>
-      <c r="VRS17" s="3"/>
-      <c r="VRU17" s="3"/>
-      <c r="VRW17" s="3"/>
-      <c r="VRY17" s="3"/>
-      <c r="VSA17" s="3"/>
-      <c r="VSC17" s="3"/>
-      <c r="VSE17" s="3"/>
-      <c r="VSG17" s="3"/>
-      <c r="VSI17" s="3"/>
-      <c r="VSK17" s="3"/>
-      <c r="VSM17" s="3"/>
-      <c r="VSO17" s="3"/>
-      <c r="VSQ17" s="3"/>
-      <c r="VSS17" s="3"/>
-      <c r="VSU17" s="3"/>
-      <c r="VSW17" s="3"/>
-      <c r="VSY17" s="3"/>
-      <c r="VTA17" s="3"/>
-      <c r="VTC17" s="3"/>
-      <c r="VTE17" s="3"/>
-      <c r="VTG17" s="3"/>
-      <c r="VTI17" s="3"/>
-      <c r="VTK17" s="3"/>
-      <c r="VTM17" s="3"/>
-      <c r="VTO17" s="3"/>
-      <c r="VTQ17" s="3"/>
-      <c r="VTS17" s="3"/>
-      <c r="VTU17" s="3"/>
-      <c r="VTW17" s="3"/>
-      <c r="VTY17" s="3"/>
-      <c r="VUA17" s="3"/>
-      <c r="VUC17" s="3"/>
-      <c r="VUE17" s="3"/>
-      <c r="VUG17" s="3"/>
-      <c r="VUI17" s="3"/>
-      <c r="VUK17" s="3"/>
-      <c r="VUM17" s="3"/>
-      <c r="VUO17" s="3"/>
-      <c r="VUQ17" s="3"/>
-      <c r="VUS17" s="3"/>
-      <c r="VUU17" s="3"/>
-      <c r="VUW17" s="3"/>
-      <c r="VUY17" s="3"/>
-      <c r="VVA17" s="3"/>
-      <c r="VVC17" s="3"/>
-      <c r="VVE17" s="3"/>
-      <c r="VVG17" s="3"/>
-      <c r="VVI17" s="3"/>
-      <c r="VVK17" s="3"/>
-      <c r="VVM17" s="3"/>
-      <c r="VVO17" s="3"/>
-      <c r="VVQ17" s="3"/>
-      <c r="VVS17" s="3"/>
-      <c r="VVU17" s="3"/>
-      <c r="VVW17" s="3"/>
-      <c r="VVY17" s="3"/>
-      <c r="VWA17" s="3"/>
-      <c r="VWC17" s="3"/>
-      <c r="VWE17" s="3"/>
-      <c r="VWG17" s="3"/>
-      <c r="VWI17" s="3"/>
-      <c r="VWK17" s="3"/>
-      <c r="VWM17" s="3"/>
-      <c r="VWO17" s="3"/>
-      <c r="VWQ17" s="3"/>
-      <c r="VWS17" s="3"/>
-      <c r="VWU17" s="3"/>
-      <c r="VWW17" s="3"/>
-      <c r="VWY17" s="3"/>
-      <c r="VXA17" s="3"/>
-      <c r="VXC17" s="3"/>
-      <c r="VXE17" s="3"/>
-      <c r="VXG17" s="3"/>
-      <c r="VXI17" s="3"/>
-      <c r="VXK17" s="3"/>
-      <c r="VXM17" s="3"/>
-      <c r="VXO17" s="3"/>
-      <c r="VXQ17" s="3"/>
-      <c r="VXS17" s="3"/>
-      <c r="VXU17" s="3"/>
-      <c r="VXW17" s="3"/>
-      <c r="VXY17" s="3"/>
-      <c r="VYA17" s="3"/>
-      <c r="VYC17" s="3"/>
-      <c r="VYE17" s="3"/>
-      <c r="VYG17" s="3"/>
-      <c r="VYI17" s="3"/>
-      <c r="VYK17" s="3"/>
-      <c r="VYM17" s="3"/>
-      <c r="VYO17" s="3"/>
-      <c r="VYQ17" s="3"/>
-      <c r="VYS17" s="3"/>
-      <c r="VYU17" s="3"/>
-      <c r="VYW17" s="3"/>
-      <c r="VYY17" s="3"/>
-      <c r="VZA17" s="3"/>
-      <c r="VZC17" s="3"/>
-      <c r="VZE17" s="3"/>
-      <c r="VZG17" s="3"/>
-      <c r="VZI17" s="3"/>
-      <c r="VZK17" s="3"/>
-      <c r="VZM17" s="3"/>
-      <c r="VZO17" s="3"/>
-      <c r="VZQ17" s="3"/>
-      <c r="VZS17" s="3"/>
-      <c r="VZU17" s="3"/>
-      <c r="VZW17" s="3"/>
-      <c r="VZY17" s="3"/>
-      <c r="WAA17" s="3"/>
-      <c r="WAC17" s="3"/>
-      <c r="WAE17" s="3"/>
-      <c r="WAG17" s="3"/>
-      <c r="WAI17" s="3"/>
-      <c r="WAK17" s="3"/>
-      <c r="WAM17" s="3"/>
-      <c r="WAO17" s="3"/>
-      <c r="WAQ17" s="3"/>
-      <c r="WAS17" s="3"/>
-      <c r="WAU17" s="3"/>
-      <c r="WAW17" s="3"/>
-      <c r="WAY17" s="3"/>
-      <c r="WBA17" s="3"/>
-      <c r="WBC17" s="3"/>
-      <c r="WBE17" s="3"/>
-      <c r="WBG17" s="3"/>
-      <c r="WBI17" s="3"/>
-      <c r="WBK17" s="3"/>
-      <c r="WBM17" s="3"/>
-      <c r="WBO17" s="3"/>
-      <c r="WBQ17" s="3"/>
-      <c r="WBS17" s="3"/>
-      <c r="WBU17" s="3"/>
-      <c r="WBW17" s="3"/>
-      <c r="WBY17" s="3"/>
-      <c r="WCA17" s="3"/>
-      <c r="WCC17" s="3"/>
-      <c r="WCE17" s="3"/>
-      <c r="WCG17" s="3"/>
-      <c r="WCI17" s="3"/>
-      <c r="WCK17" s="3"/>
-      <c r="WCM17" s="3"/>
-      <c r="WCO17" s="3"/>
-      <c r="WCQ17" s="3"/>
-      <c r="WCS17" s="3"/>
-      <c r="WCU17" s="3"/>
-      <c r="WCW17" s="3"/>
-      <c r="WCY17" s="3"/>
-      <c r="WDA17" s="3"/>
-      <c r="WDC17" s="3"/>
-      <c r="WDE17" s="3"/>
-      <c r="WDG17" s="3"/>
-      <c r="WDI17" s="3"/>
-      <c r="WDK17" s="3"/>
-      <c r="WDM17" s="3"/>
-      <c r="WDO17" s="3"/>
-      <c r="WDQ17" s="3"/>
-      <c r="WDS17" s="3"/>
-      <c r="WDU17" s="3"/>
-      <c r="WDW17" s="3"/>
-      <c r="WDY17" s="3"/>
-      <c r="WEA17" s="3"/>
-      <c r="WEC17" s="3"/>
-      <c r="WEE17" s="3"/>
-      <c r="WEG17" s="3"/>
-      <c r="WEI17" s="3"/>
-      <c r="WEK17" s="3"/>
-      <c r="WEM17" s="3"/>
-      <c r="WEO17" s="3"/>
-      <c r="WEQ17" s="3"/>
-      <c r="WES17" s="3"/>
-      <c r="WEU17" s="3"/>
-      <c r="WEW17" s="3"/>
-      <c r="WEY17" s="3"/>
-      <c r="WFA17" s="3"/>
-      <c r="WFC17" s="3"/>
-      <c r="WFE17" s="3"/>
-      <c r="WFG17" s="3"/>
-      <c r="WFI17" s="3"/>
-      <c r="WFK17" s="3"/>
-      <c r="WFM17" s="3"/>
-      <c r="WFO17" s="3"/>
-      <c r="WFQ17" s="3"/>
-      <c r="WFS17" s="3"/>
-      <c r="WFU17" s="3"/>
-      <c r="WFW17" s="3"/>
-      <c r="WFY17" s="3"/>
-      <c r="WGA17" s="3"/>
-      <c r="WGC17" s="3"/>
-      <c r="WGE17" s="3"/>
-      <c r="WGG17" s="3"/>
-      <c r="WGI17" s="3"/>
-      <c r="WGK17" s="3"/>
-      <c r="WGM17" s="3"/>
-      <c r="WGO17" s="3"/>
-      <c r="WGQ17" s="3"/>
-      <c r="WGS17" s="3"/>
-      <c r="WGU17" s="3"/>
-      <c r="WGW17" s="3"/>
-      <c r="WGY17" s="3"/>
-      <c r="WHA17" s="3"/>
-      <c r="WHC17" s="3"/>
-      <c r="WHE17" s="3"/>
-      <c r="WHG17" s="3"/>
-      <c r="WHI17" s="3"/>
-      <c r="WHK17" s="3"/>
-      <c r="WHM17" s="3"/>
-      <c r="WHO17" s="3"/>
-      <c r="WHQ17" s="3"/>
-      <c r="WHS17" s="3"/>
-      <c r="WHU17" s="3"/>
-      <c r="WHW17" s="3"/>
-      <c r="WHY17" s="3"/>
-      <c r="WIA17" s="3"/>
-      <c r="WIC17" s="3"/>
-      <c r="WIE17" s="3"/>
-      <c r="WIG17" s="3"/>
-      <c r="WII17" s="3"/>
-      <c r="WIK17" s="3"/>
-      <c r="WIM17" s="3"/>
-      <c r="WIO17" s="3"/>
-      <c r="WIQ17" s="3"/>
-      <c r="WIS17" s="3"/>
-      <c r="WIU17" s="3"/>
-      <c r="WIW17" s="3"/>
-      <c r="WIY17" s="3"/>
-      <c r="WJA17" s="3"/>
-      <c r="WJC17" s="3"/>
-      <c r="WJE17" s="3"/>
-      <c r="WJG17" s="3"/>
-      <c r="WJI17" s="3"/>
-      <c r="WJK17" s="3"/>
-      <c r="WJM17" s="3"/>
-      <c r="WJO17" s="3"/>
-      <c r="WJQ17" s="3"/>
-      <c r="WJS17" s="3"/>
-      <c r="WJU17" s="3"/>
-      <c r="WJW17" s="3"/>
-      <c r="WJY17" s="3"/>
-      <c r="WKA17" s="3"/>
-      <c r="WKC17" s="3"/>
-      <c r="WKE17" s="3"/>
-      <c r="WKG17" s="3"/>
-      <c r="WKI17" s="3"/>
-      <c r="WKK17" s="3"/>
-      <c r="WKM17" s="3"/>
-      <c r="WKO17" s="3"/>
-      <c r="WKQ17" s="3"/>
-      <c r="WKS17" s="3"/>
-      <c r="WKU17" s="3"/>
-      <c r="WKW17" s="3"/>
-      <c r="WKY17" s="3"/>
-      <c r="WLA17" s="3"/>
-      <c r="WLC17" s="3"/>
-      <c r="WLE17" s="3"/>
-      <c r="WLG17" s="3"/>
-      <c r="WLI17" s="3"/>
-      <c r="WLK17" s="3"/>
-      <c r="WLM17" s="3"/>
-      <c r="WLO17" s="3"/>
-      <c r="WLQ17" s="3"/>
-      <c r="WLS17" s="3"/>
-      <c r="WLU17" s="3"/>
-      <c r="WLW17" s="3"/>
-      <c r="WLY17" s="3"/>
-      <c r="WMA17" s="3"/>
-      <c r="WMC17" s="3"/>
-      <c r="WME17" s="3"/>
-      <c r="WMG17" s="3"/>
-      <c r="WMI17" s="3"/>
-      <c r="WMK17" s="3"/>
-      <c r="WMM17" s="3"/>
-      <c r="WMO17" s="3"/>
-      <c r="WMQ17" s="3"/>
-      <c r="WMS17" s="3"/>
-      <c r="WMU17" s="3"/>
-      <c r="WMW17" s="3"/>
-      <c r="WMY17" s="3"/>
-      <c r="WNA17" s="3"/>
-      <c r="WNC17" s="3"/>
-      <c r="WNE17" s="3"/>
-      <c r="WNG17" s="3"/>
-      <c r="WNI17" s="3"/>
-      <c r="WNK17" s="3"/>
-      <c r="WNM17" s="3"/>
-      <c r="WNO17" s="3"/>
-      <c r="WNQ17" s="3"/>
-      <c r="WNS17" s="3"/>
-      <c r="WNU17" s="3"/>
-      <c r="WNW17" s="3"/>
-      <c r="WNY17" s="3"/>
-      <c r="WOA17" s="3"/>
-      <c r="WOC17" s="3"/>
-      <c r="WOE17" s="3"/>
-      <c r="WOG17" s="3"/>
-      <c r="WOI17" s="3"/>
-      <c r="WOK17" s="3"/>
-      <c r="WOM17" s="3"/>
-      <c r="WOO17" s="3"/>
-      <c r="WOQ17" s="3"/>
-      <c r="WOS17" s="3"/>
-      <c r="WOU17" s="3"/>
-      <c r="WOW17" s="3"/>
-      <c r="WOY17" s="3"/>
-      <c r="WPA17" s="3"/>
-      <c r="WPC17" s="3"/>
-      <c r="WPE17" s="3"/>
-      <c r="WPG17" s="3"/>
-      <c r="WPI17" s="3"/>
-      <c r="WPK17" s="3"/>
-      <c r="WPM17" s="3"/>
-      <c r="WPO17" s="3"/>
-      <c r="WPQ17" s="3"/>
-      <c r="WPS17" s="3"/>
-      <c r="WPU17" s="3"/>
-      <c r="WPW17" s="3"/>
-      <c r="WPY17" s="3"/>
-      <c r="WQA17" s="3"/>
-      <c r="WQC17" s="3"/>
-      <c r="WQE17" s="3"/>
-      <c r="WQG17" s="3"/>
-      <c r="WQI17" s="3"/>
-      <c r="WQK17" s="3"/>
-      <c r="WQM17" s="3"/>
-      <c r="WQO17" s="3"/>
-      <c r="WQQ17" s="3"/>
-      <c r="WQS17" s="3"/>
-      <c r="WQU17" s="3"/>
-      <c r="WQW17" s="3"/>
-      <c r="WQY17" s="3"/>
-      <c r="WRA17" s="3"/>
-      <c r="WRC17" s="3"/>
-      <c r="WRE17" s="3"/>
-      <c r="WRG17" s="3"/>
-      <c r="WRI17" s="3"/>
-      <c r="WRK17" s="3"/>
-      <c r="WRM17" s="3"/>
-      <c r="WRO17" s="3"/>
-      <c r="WRQ17" s="3"/>
-      <c r="WRS17" s="3"/>
-      <c r="WRU17" s="3"/>
-      <c r="WRW17" s="3"/>
-      <c r="WRY17" s="3"/>
-      <c r="WSA17" s="3"/>
-      <c r="WSC17" s="3"/>
-      <c r="WSE17" s="3"/>
-      <c r="WSG17" s="3"/>
-      <c r="WSI17" s="3"/>
-      <c r="WSK17" s="3"/>
-      <c r="WSM17" s="3"/>
-      <c r="WSO17" s="3"/>
-      <c r="WSQ17" s="3"/>
-      <c r="WSS17" s="3"/>
-      <c r="WSU17" s="3"/>
-      <c r="WSW17" s="3"/>
-      <c r="WSY17" s="3"/>
-      <c r="WTA17" s="3"/>
-      <c r="WTC17" s="3"/>
-      <c r="WTE17" s="3"/>
-      <c r="WTG17" s="3"/>
-      <c r="WTI17" s="3"/>
-      <c r="WTK17" s="3"/>
-      <c r="WTM17" s="3"/>
-      <c r="WTO17" s="3"/>
-      <c r="WTQ17" s="3"/>
-      <c r="WTS17" s="3"/>
-      <c r="WTU17" s="3"/>
-      <c r="WTW17" s="3"/>
-      <c r="WTY17" s="3"/>
-      <c r="WUA17" s="3"/>
-      <c r="WUC17" s="3"/>
-      <c r="WUE17" s="3"/>
-      <c r="WUG17" s="3"/>
-      <c r="WUI17" s="3"/>
-      <c r="WUK17" s="3"/>
-      <c r="WUM17" s="3"/>
-      <c r="WUO17" s="3"/>
-      <c r="WUQ17" s="3"/>
-      <c r="WUS17" s="3"/>
-      <c r="WUU17" s="3"/>
-      <c r="WUW17" s="3"/>
-      <c r="WUY17" s="3"/>
-      <c r="WVA17" s="3"/>
-      <c r="WVC17" s="3"/>
-      <c r="WVE17" s="3"/>
-      <c r="WVG17" s="3"/>
-      <c r="WVI17" s="3"/>
-      <c r="WVK17" s="3"/>
-      <c r="WVM17" s="3"/>
-      <c r="WVO17" s="3"/>
-      <c r="WVQ17" s="3"/>
-      <c r="WVS17" s="3"/>
-      <c r="WVU17" s="3"/>
-      <c r="WVW17" s="3"/>
-      <c r="WVY17" s="3"/>
-      <c r="WWA17" s="3"/>
-      <c r="WWC17" s="3"/>
-      <c r="WWE17" s="3"/>
-      <c r="WWG17" s="3"/>
-      <c r="WWI17" s="3"/>
-      <c r="WWK17" s="3"/>
-      <c r="WWM17" s="3"/>
-      <c r="WWO17" s="3"/>
-      <c r="WWQ17" s="3"/>
-      <c r="WWS17" s="3"/>
-      <c r="WWU17" s="3"/>
-      <c r="WWW17" s="3"/>
-      <c r="WWY17" s="3"/>
-      <c r="WXA17" s="3"/>
-      <c r="WXC17" s="3"/>
-      <c r="WXE17" s="3"/>
-      <c r="WXG17" s="3"/>
-      <c r="WXI17" s="3"/>
-      <c r="WXK17" s="3"/>
-      <c r="WXM17" s="3"/>
-      <c r="WXO17" s="3"/>
-      <c r="WXQ17" s="3"/>
-      <c r="WXS17" s="3"/>
-      <c r="WXU17" s="3"/>
-      <c r="WXW17" s="3"/>
-      <c r="WXY17" s="3"/>
-      <c r="WYA17" s="3"/>
-      <c r="WYC17" s="3"/>
-      <c r="WYE17" s="3"/>
-      <c r="WYG17" s="3"/>
-      <c r="WYI17" s="3"/>
-      <c r="WYK17" s="3"/>
-      <c r="WYM17" s="3"/>
-      <c r="WYO17" s="3"/>
-      <c r="WYQ17" s="3"/>
-      <c r="WYS17" s="3"/>
-      <c r="WYU17" s="3"/>
-      <c r="WYW17" s="3"/>
-      <c r="WYY17" s="3"/>
-      <c r="WZA17" s="3"/>
-      <c r="WZC17" s="3"/>
-      <c r="WZE17" s="3"/>
-      <c r="WZG17" s="3"/>
-      <c r="WZI17" s="3"/>
-      <c r="WZK17" s="3"/>
-      <c r="WZM17" s="3"/>
-      <c r="WZO17" s="3"/>
-      <c r="WZQ17" s="3"/>
-      <c r="WZS17" s="3"/>
-      <c r="WZU17" s="3"/>
-      <c r="WZW17" s="3"/>
-      <c r="WZY17" s="3"/>
-      <c r="XAA17" s="3"/>
-      <c r="XAC17" s="3"/>
-      <c r="XAE17" s="3"/>
-      <c r="XAG17" s="3"/>
-      <c r="XAI17" s="3"/>
-      <c r="XAK17" s="3"/>
-      <c r="XAM17" s="3"/>
-      <c r="XAO17" s="3"/>
-      <c r="XAQ17" s="3"/>
-      <c r="XAS17" s="3"/>
-      <c r="XAU17" s="3"/>
-      <c r="XAW17" s="3"/>
-      <c r="XAY17" s="3"/>
-      <c r="XBA17" s="3"/>
-      <c r="XBC17" s="3"/>
-      <c r="XBE17" s="3"/>
-      <c r="XBG17" s="3"/>
-      <c r="XBI17" s="3"/>
-      <c r="XBK17" s="3"/>
-      <c r="XBM17" s="3"/>
-      <c r="XBO17" s="3"/>
-      <c r="XBQ17" s="3"/>
-      <c r="XBS17" s="3"/>
-      <c r="XBU17" s="3"/>
-      <c r="XBW17" s="3"/>
-      <c r="XBY17" s="3"/>
-      <c r="XCA17" s="3"/>
-      <c r="XCC17" s="3"/>
-      <c r="XCE17" s="3"/>
-      <c r="XCG17" s="3"/>
-      <c r="XCI17" s="3"/>
-      <c r="XCK17" s="3"/>
-      <c r="XCM17" s="3"/>
-      <c r="XCO17" s="3"/>
-      <c r="XCQ17" s="3"/>
-      <c r="XCS17" s="3"/>
-      <c r="XCU17" s="3"/>
-      <c r="XCW17" s="3"/>
-      <c r="XCY17" s="3"/>
-      <c r="XDA17" s="3"/>
-      <c r="XDC17" s="3"/>
-      <c r="XDE17" s="3"/>
-      <c r="XDG17" s="3"/>
-      <c r="XDI17" s="3"/>
-      <c r="XDK17" s="3"/>
-      <c r="XDM17" s="3"/>
-      <c r="XDO17" s="3"/>
-      <c r="XDQ17" s="3"/>
-      <c r="XDS17" s="3"/>
-      <c r="XDU17" s="3"/>
-      <c r="XDW17" s="3"/>
-      <c r="XDY17" s="3"/>
-      <c r="XEA17" s="3"/>
-      <c r="XEC17" s="3"/>
-      <c r="XEE17" s="3"/>
-      <c r="XEG17" s="3"/>
-      <c r="XEI17" s="3"/>
-      <c r="XEK17" s="3"/>
-      <c r="XEM17" s="3"/>
-      <c r="XEO17" s="3"/>
-      <c r="XEQ17" s="3"/>
-      <c r="XES17" s="3"/>
-      <c r="XEU17" s="3"/>
-      <c r="XEW17" s="3"/>
-      <c r="XEY17" s="3"/>
-      <c r="XFA17" s="3"/>
-      <c r="XFC17" s="3"/>
     </row>
-    <row r="18" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/DB/Tablas de aprendizaje de movimientos/Shellos (S) y Gastrodon (S).xlsx
+++ b/DB/Tablas de aprendizaje de movimientos/Shellos (S) y Gastrodon (S).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfax\Documents\Monsters Feudal Seishin\Guión y bases de datos\Bases para el sistema de combate\Tablas de aprendizaje de movimientos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oxikr\source\repos\monster-Feudal\DB\Tablas de aprendizaje de movimientos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
